--- a/Wins Fantasy League.xlsx
+++ b/Wins Fantasy League.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26360" windowHeight="19200" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25720" windowHeight="16700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -289,7 +289,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="72">
+  <cellStyleXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -362,8 +362,10 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -389,6 +391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -396,7 +399,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="72">
+  <cellStyles count="74">
     <cellStyle name="Bad" xfId="69" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -433,6 +436,7 @@
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -468,6 +472,7 @@
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
@@ -851,7 +856,7 @@
   <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -934,16 +939,16 @@
         <v>23</v>
       </c>
       <c r="B2" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3">
         <v>2</v>
       </c>
       <c r="D2" s="3">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="E2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:K4" si="0">A2</f>
@@ -951,7 +956,7 @@
       </c>
       <c r="H2" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" s="3">
         <f t="shared" si="0"/>
@@ -959,11 +964,11 @@
       </c>
       <c r="J2" s="3">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="K2" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3" t="str">
@@ -972,7 +977,7 @@
       </c>
       <c r="N2" s="3">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O2" s="3">
         <f t="shared" si="1"/>
@@ -980,7 +985,7 @@
       </c>
       <c r="P2" s="3">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="Q2" s="3">
         <f t="shared" si="1"/>
@@ -995,10 +1000,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="3">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E3" s="3">
         <v>2</v>
@@ -1013,11 +1018,11 @@
       </c>
       <c r="I3" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="3">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="K3" s="3">
         <f t="shared" si="0"/>
@@ -1034,24 +1039,24 @@
       </c>
       <c r="O3" s="3">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3" s="3">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="Q3" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
@@ -1100,11 +1105,11 @@
       </c>
       <c r="O4" s="3">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P4" s="3">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="Q4" s="3">
         <f t="shared" si="1"/>
@@ -1134,13 +1139,13 @@
         <v>11</v>
       </c>
       <c r="B5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -1150,19 +1155,19 @@
       </c>
       <c r="H5" s="4">
         <f>SUM(H2:H4)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I5" s="4">
         <f>SUM(I2:I4)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J5" s="4">
         <f>SUM(J2:J4)</f>
-        <v>203</v>
+        <v>258</v>
       </c>
       <c r="K5" s="4">
         <f>SUM(K2:K4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="4" t="s">
@@ -1170,15 +1175,15 @@
       </c>
       <c r="N5" s="4">
         <f t="shared" ref="N5:O5" si="2">SUM(N2:N4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O5" s="4">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P5" s="4">
         <f>SUM(P2:P4)</f>
-        <v>212</v>
+        <v>291</v>
       </c>
       <c r="Q5" s="4">
         <f>SUM(Q2:Q4)</f>
@@ -1188,22 +1193,22 @@
         <v>1</v>
       </c>
       <c r="T5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U5" s="7" t="s">
         <v>42</v>
       </c>
       <c r="V5" s="3">
         <f>$N$17</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W5" s="3">
         <f>$P$17</f>
-        <v>227</v>
+        <v>310</v>
       </c>
       <c r="X5" s="3">
         <f>$Q$17</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="16" thickTop="1">
@@ -1214,10 +1219,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="3">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -1240,19 +1245,19 @@
         <v>3</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V6" s="3">
-        <f>$H$23</f>
-        <v>6</v>
+        <f>$H$29</f>
+        <v>8</v>
       </c>
       <c r="W6" s="3">
-        <f>$J$23</f>
-        <v>211</v>
+        <f>$J$29</f>
+        <v>282</v>
       </c>
       <c r="X6" s="3">
-        <f>$K$23</f>
-        <v>1</v>
+        <f>$K$29</f>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -1263,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="C7" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E7" s="3">
         <v>0</v>
@@ -1309,19 +1314,19 @@
         <v>4</v>
       </c>
       <c r="U7" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="V7" s="3">
-        <f>$H$29</f>
+        <f>$N$11</f>
         <v>6</v>
       </c>
       <c r="W7" s="3">
-        <f>$J$29</f>
-        <v>207</v>
+        <f>$P$11</f>
+        <v>328</v>
       </c>
       <c r="X7" s="3">
-        <f>$K$29</f>
-        <v>4</v>
+        <f>$Q$11</f>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -1329,13 +1334,13 @@
         <v>31</v>
       </c>
       <c r="B8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
       </c>
       <c r="D8" s="3">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -1346,7 +1351,7 @@
       </c>
       <c r="H8" s="3">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" si="3"/>
@@ -1354,7 +1359,7 @@
       </c>
       <c r="J8" s="3">
         <f t="shared" si="3"/>
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="K8" s="3">
         <f t="shared" si="3"/>
@@ -1371,11 +1376,11 @@
       </c>
       <c r="O8" s="3">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P8" s="3">
         <f t="shared" si="4"/>
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="Q8" s="3">
         <f t="shared" si="4"/>
@@ -1385,22 +1390,22 @@
         <v>4</v>
       </c>
       <c r="T8" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="V8" s="3">
-        <f>$N$11</f>
-        <v>5</v>
+        <f>$N$29</f>
+        <v>6</v>
       </c>
       <c r="W8" s="3">
-        <f>$P$11</f>
-        <v>250</v>
+        <f>$P$29</f>
+        <v>277</v>
       </c>
       <c r="X8" s="3">
-        <f>$Q$11</f>
-        <v>1</v>
+        <f>$Q$29</f>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1408,16 +1413,16 @@
         <v>21</v>
       </c>
       <c r="B9" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
       </c>
       <c r="D9" s="3">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" si="3"/>
@@ -1425,7 +1430,7 @@
       </c>
       <c r="H9" s="3">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="3"/>
@@ -1433,11 +1438,11 @@
       </c>
       <c r="J9" s="3">
         <f t="shared" si="3"/>
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="K9" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="str">
@@ -1446,7 +1451,7 @@
       </c>
       <c r="N9" s="3">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O9" s="3">
         <f t="shared" si="4"/>
@@ -1454,7 +1459,7 @@
       </c>
       <c r="P9" s="3">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="Q9" s="3">
         <f t="shared" si="4"/>
@@ -1464,22 +1469,22 @@
         <v>5</v>
       </c>
       <c r="T9" s="7">
-        <v>7</v>
-      </c>
-      <c r="U9" s="7" t="s">
-        <v>44</v>
+        <v>6</v>
+      </c>
+      <c r="U9" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="V9" s="3">
-        <f>$N$29</f>
-        <v>5</v>
+        <f>$N$23</f>
+        <v>6</v>
       </c>
       <c r="W9" s="3">
-        <f>$P$29</f>
-        <v>222</v>
+        <f>$P$23</f>
+        <v>243</v>
       </c>
       <c r="X9" s="3">
-        <f>$Q$29</f>
-        <v>2</v>
+        <f>$Q$23</f>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1490,10 +1495,10 @@
         <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="3">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -1508,11 +1513,11 @@
       </c>
       <c r="I10" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" si="3"/>
@@ -1529,11 +1534,11 @@
       </c>
       <c r="O10" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P10" s="3">
         <f t="shared" si="4"/>
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="Q10" s="3">
         <f t="shared" si="4"/>
@@ -1543,36 +1548,36 @@
         <v>6</v>
       </c>
       <c r="T10" s="7">
-        <v>1</v>
-      </c>
-      <c r="U10" s="10" t="s">
-        <v>43</v>
+        <v>2</v>
+      </c>
+      <c r="U10" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="V10" s="3">
-        <f>$N$23</f>
-        <v>5</v>
+        <f>$H$23</f>
+        <v>6</v>
       </c>
       <c r="W10" s="3">
-        <f>$P$23</f>
-        <v>175</v>
+        <f>$J$23</f>
+        <v>228</v>
       </c>
       <c r="X10" s="3">
-        <f>$Q$23</f>
-        <v>3</v>
+        <f>$K$23</f>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="16" thickBot="1">
-      <c r="A11" t="s">
+      <c r="A11" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="3">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
@@ -1582,19 +1587,19 @@
       </c>
       <c r="H11" s="4">
         <f>SUM(H8:H10)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" ref="I11" si="5">SUM(I8:I10)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J11" s="4">
         <f>SUM(J8:J10)</f>
-        <v>157</v>
+        <v>242</v>
       </c>
       <c r="K11" s="4">
         <f>SUM(K8:K10)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="4" t="s">
@@ -1602,15 +1607,15 @@
       </c>
       <c r="N11" s="4">
         <f>SUM(N8:N10)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O11" s="4">
         <f>SUM(O8:O10)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P11" s="4">
         <f>SUM(P8:P10)</f>
-        <v>250</v>
+        <v>328</v>
       </c>
       <c r="Q11" s="4">
         <f>SUM(Q8:Q10)</f>
@@ -1620,22 +1625,22 @@
         <v>7</v>
       </c>
       <c r="T11" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U11" s="7" t="s">
         <v>35</v>
       </c>
       <c r="V11" s="3">
         <f>$H$5</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W11" s="3">
         <f>$J$5</f>
-        <v>203</v>
+        <v>258</v>
       </c>
       <c r="X11" s="3">
         <f>$K$5</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="16" thickTop="1">
@@ -1643,13 +1648,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" s="3">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -1669,22 +1674,22 @@
         <v>8</v>
       </c>
       <c r="T12" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="U12" s="10" t="s">
         <v>37</v>
       </c>
       <c r="V12" s="3">
         <f>$H$17</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W12" s="3">
         <f>$J$17</f>
-        <v>176</v>
+        <v>231</v>
       </c>
       <c r="X12" s="3">
         <f>$K$17</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1695,10 +1700,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="3">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
@@ -1745,11 +1750,11 @@
       </c>
       <c r="V13" s="3">
         <f>$N$5</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W13" s="3">
         <f>$P$5</f>
-        <v>212</v>
+        <v>291</v>
       </c>
       <c r="X13" s="3">
         <f>$Q$5</f>
@@ -1803,11 +1808,11 @@
       </c>
       <c r="O14" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="3">
         <f t="shared" si="7"/>
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="Q14" s="3">
         <f t="shared" si="7"/>
@@ -1824,15 +1829,15 @@
       </c>
       <c r="V14" s="3">
         <f>$H$11</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W14" s="3">
         <f>$J$11</f>
-        <v>157</v>
+        <v>242</v>
       </c>
       <c r="X14" s="3">
         <f>$K$11</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -1840,16 +1845,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="3">
         <v>2</v>
       </c>
       <c r="D15" s="3">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" si="6"/>
@@ -1857,7 +1862,7 @@
       </c>
       <c r="H15" s="3">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="6"/>
@@ -1865,11 +1870,11 @@
       </c>
       <c r="J15" s="3">
         <f t="shared" si="6"/>
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="K15" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3" t="str">
@@ -1878,7 +1883,7 @@
       </c>
       <c r="N15" s="3">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O15" s="3">
         <f t="shared" si="7"/>
@@ -1886,7 +1891,7 @@
       </c>
       <c r="P15" s="3">
         <f t="shared" si="7"/>
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="Q15" s="3">
         <f t="shared" si="7"/>
@@ -1901,10 +1906,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" s="3">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -1919,11 +1924,11 @@
       </c>
       <c r="I16" s="3">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16" s="3">
         <f t="shared" si="6"/>
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="K16" s="3">
         <f t="shared" si="6"/>
@@ -1936,7 +1941,7 @@
       </c>
       <c r="N16" s="3">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O16" s="3">
         <f t="shared" si="7"/>
@@ -1944,11 +1949,11 @@
       </c>
       <c r="P16" s="3">
         <f t="shared" si="7"/>
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="Q16" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="16" thickBot="1">
@@ -1959,10 +1964,10 @@
         <v>3</v>
       </c>
       <c r="C17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="E17" s="7">
         <v>1</v>
@@ -1972,19 +1977,19 @@
       </c>
       <c r="H17" s="4">
         <f>SUM(H14:H16)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" ref="I17" si="8">SUM(I14:I16)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J17" s="4">
         <f>SUM(J14:J16)</f>
-        <v>176</v>
+        <v>231</v>
       </c>
       <c r="K17" s="4">
         <f>SUM(K14:K16)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="4" t="s">
@@ -1992,19 +1997,19 @@
       </c>
       <c r="N17" s="4">
         <f>SUM(N14:N16)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O17" s="4">
         <f>SUM(O14:O16)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P17" s="4">
         <f>SUM(P14:P16)</f>
-        <v>227</v>
+        <v>310</v>
       </c>
       <c r="Q17" s="4">
         <f>SUM(Q14:Q16)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="16" thickTop="1">
@@ -2012,13 +2017,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
       </c>
       <c r="D18" s="7">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="E18" s="7">
         <v>1</v>
@@ -2040,16 +2045,16 @@
         <v>25</v>
       </c>
       <c r="B19" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="E19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>38</v>
@@ -2126,7 +2131,7 @@
       </c>
       <c r="N20" s="3">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O20" s="3">
         <f t="shared" si="10"/>
@@ -2134,7 +2139,7 @@
       </c>
       <c r="P20" s="3">
         <f t="shared" si="10"/>
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="Q20" s="3">
         <f t="shared" si="10"/>
@@ -2188,11 +2193,11 @@
       </c>
       <c r="O21" s="3">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P21" s="3">
         <f t="shared" si="10"/>
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="Q21" s="3">
         <f t="shared" si="10"/>
@@ -2207,10 +2212,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="3">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -2225,11 +2230,11 @@
       </c>
       <c r="I22" s="3">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J22" s="3">
         <f t="shared" si="9"/>
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="K22" s="3">
         <f t="shared" si="9"/>
@@ -2246,11 +2251,11 @@
       </c>
       <c r="O22" s="3">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P22" s="3">
         <f t="shared" si="10"/>
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="Q22" s="3">
         <f t="shared" si="10"/>
@@ -2262,13 +2267,13 @@
         <v>26</v>
       </c>
       <c r="B23" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" s="3">
         <v>2</v>
       </c>
       <c r="D23" s="3">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="E23" s="3">
         <v>1</v>
@@ -2282,11 +2287,11 @@
       </c>
       <c r="I23" s="4">
         <f t="shared" ref="I23" si="11">SUM(I20:I22)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J23" s="4">
         <f>SUM(J20:J22)</f>
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="K23" s="4">
         <f>SUM(K20:K22)</f>
@@ -2298,15 +2303,15 @@
       </c>
       <c r="N23" s="4">
         <f>SUM(N20:N22)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O23" s="4">
         <f>SUM(O20:O22)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P23" s="4">
         <f>SUM(P20:P22)</f>
-        <v>175</v>
+        <v>243</v>
       </c>
       <c r="Q23" s="4">
         <f>SUM(Q20:Q22)</f>
@@ -2321,10 +2326,10 @@
         <v>2</v>
       </c>
       <c r="C24" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" s="3">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
@@ -2349,10 +2354,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="3">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
@@ -2390,17 +2395,17 @@
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" t="s">
+      <c r="A26" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="3">
         <v>2</v>
       </c>
       <c r="C26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" s="3">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E26" s="3">
         <v>1</v>
@@ -2415,11 +2420,11 @@
       </c>
       <c r="I26" s="3">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" s="3">
         <f t="shared" si="12"/>
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="K26" s="3">
         <f t="shared" si="12"/>
@@ -2432,7 +2437,7 @@
       </c>
       <c r="N26" s="3">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O26" s="3">
         <f t="shared" si="13"/>
@@ -2440,7 +2445,7 @@
       </c>
       <c r="P26" s="3">
         <f t="shared" si="13"/>
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="Q26" s="3">
         <f t="shared" si="13"/>
@@ -2452,13 +2457,13 @@
         <v>20</v>
       </c>
       <c r="B27" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
       </c>
       <c r="D27" s="3">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="E27" s="3">
         <v>2</v>
@@ -2469,7 +2474,7 @@
       </c>
       <c r="H27" s="3">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" si="12"/>
@@ -2477,7 +2482,7 @@
       </c>
       <c r="J27" s="3">
         <f t="shared" si="12"/>
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="K27" s="3">
         <f t="shared" si="12"/>
@@ -2506,17 +2511,17 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" t="s">
+      <c r="A28" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
       </c>
       <c r="D28" s="3">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="E28" s="3">
         <v>1</v>
@@ -2527,7 +2532,7 @@
       </c>
       <c r="H28" s="3">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I28" s="3">
         <f t="shared" si="12"/>
@@ -2535,7 +2540,7 @@
       </c>
       <c r="J28" s="3">
         <f t="shared" si="12"/>
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="K28" s="3">
         <f t="shared" si="12"/>
@@ -2552,11 +2557,11 @@
       </c>
       <c r="O28" s="3">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P28" s="3">
         <f t="shared" si="13"/>
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="Q28" s="3">
         <f t="shared" si="13"/>
@@ -2564,17 +2569,17 @@
       </c>
     </row>
     <row r="29" spans="1:17" ht="16" thickBot="1">
-      <c r="A29" t="s">
+      <c r="A29" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B29" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" s="3">
         <v>2</v>
       </c>
       <c r="D29" s="3">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>
@@ -2584,15 +2589,15 @@
       </c>
       <c r="H29" s="4">
         <f>SUM(H26:H28)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I29" s="4">
         <f t="shared" ref="I29" si="14">SUM(I26:I28)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J29" s="4">
         <f>SUM(J26:J28)</f>
-        <v>207</v>
+        <v>282</v>
       </c>
       <c r="K29" s="4">
         <f>SUM(K26:K28)</f>
@@ -2604,15 +2609,15 @@
       </c>
       <c r="N29" s="4">
         <f>SUM(N26:N28)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O29" s="4">
         <f>SUM(O26:O28)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P29" s="4">
         <f>SUM(P26:P28)</f>
-        <v>222</v>
+        <v>277</v>
       </c>
       <c r="Q29" s="4">
         <f>SUM(Q26:Q28)</f>
@@ -2644,10 +2649,10 @@
         <v>1</v>
       </c>
       <c r="C31" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" s="3">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E31" s="3">
         <v>0</v>
@@ -2669,14 +2674,14 @@
       <c r="E32" s="9">
         <v>1</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="G32" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
       <c r="K32" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2684,16 +2689,16 @@
         <v>29</v>
       </c>
       <c r="B33" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" s="9">
         <v>3</v>
       </c>
       <c r="D33" s="9">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="E33" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2707,21 +2712,21 @@
     <mergeCell ref="G32:J32"/>
   </mergeCells>
   <conditionalFormatting sqref="D32:D33">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="4" priority="12" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",D32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="10" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="3" priority="13" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",D32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5:S14">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
       <formula>T5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="lessThan">
       <formula>T5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="greaterThan">
       <formula>T5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Wins Fantasy League.xlsx
+++ b/Wins Fantasy League.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25720" windowHeight="16700" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29000" windowHeight="15980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -289,7 +289,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="74">
+  <cellStyleXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -364,8 +364,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -398,8 +404,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="74">
+  <cellStyles count="80">
     <cellStyle name="Bad" xfId="69" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -437,6 +446,9 @@
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -473,9 +485,42 @@
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -856,7 +901,7 @@
   <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -939,13 +984,13 @@
         <v>23</v>
       </c>
       <c r="B2" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3">
         <v>2</v>
       </c>
       <c r="D2" s="3">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
@@ -956,7 +1001,7 @@
       </c>
       <c r="H2" s="3">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2" s="3">
         <f t="shared" si="0"/>
@@ -964,7 +1009,7 @@
       </c>
       <c r="J2" s="3">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="K2" s="3">
         <f t="shared" si="0"/>
@@ -977,7 +1022,7 @@
       </c>
       <c r="N2" s="3">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O2" s="3">
         <f t="shared" si="1"/>
@@ -985,7 +1030,7 @@
       </c>
       <c r="P2" s="3">
         <f t="shared" si="1"/>
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="Q2" s="3">
         <f t="shared" si="1"/>
@@ -1000,10 +1045,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="3">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="E3" s="3">
         <v>2</v>
@@ -1018,11 +1063,11 @@
       </c>
       <c r="I3" s="3">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="3">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="K3" s="3">
         <f t="shared" si="0"/>
@@ -1035,7 +1080,7 @@
       </c>
       <c r="N3" s="3">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O3" s="3">
         <f t="shared" si="1"/>
@@ -1043,11 +1088,11 @@
       </c>
       <c r="P3" s="3">
         <f t="shared" si="1"/>
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="Q3" s="3">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S3" s="12" t="s">
         <v>47</v>
@@ -1063,16 +1108,16 @@
         <v>10</v>
       </c>
       <c r="B4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
       </c>
       <c r="D4" s="3">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1080,7 +1125,7 @@
       </c>
       <c r="H4" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" si="0"/>
@@ -1088,11 +1133,11 @@
       </c>
       <c r="J4" s="3">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="K4" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="str">
@@ -1105,11 +1150,11 @@
       </c>
       <c r="O4" s="3">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P4" s="3">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="Q4" s="3">
         <f t="shared" si="1"/>
@@ -1139,13 +1184,13 @@
         <v>11</v>
       </c>
       <c r="B5" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -1155,19 +1200,19 @@
       </c>
       <c r="H5" s="4">
         <f>SUM(H2:H4)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I5" s="4">
         <f>SUM(I2:I4)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J5" s="4">
         <f>SUM(J2:J4)</f>
-        <v>258</v>
+        <v>353</v>
       </c>
       <c r="K5" s="4">
         <f>SUM(K2:K4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="4" t="s">
@@ -1175,19 +1220,19 @@
       </c>
       <c r="N5" s="4">
         <f t="shared" ref="N5:O5" si="2">SUM(N2:N4)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O5" s="4">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P5" s="4">
         <f>SUM(P2:P4)</f>
-        <v>291</v>
+        <v>337</v>
       </c>
       <c r="Q5" s="4">
         <f>SUM(Q2:Q4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S5" s="7">
         <v>1</v>
@@ -1200,11 +1245,11 @@
       </c>
       <c r="V5" s="3">
         <f>$N$17</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W5" s="3">
         <f>$P$17</f>
-        <v>310</v>
+        <v>371</v>
       </c>
       <c r="X5" s="3">
         <f>$Q$17</f>
@@ -1216,16 +1261,16 @@
         <v>8</v>
       </c>
       <c r="B6" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
       </c>
       <c r="D6" s="3">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="E6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -1242,18 +1287,18 @@
         <v>2</v>
       </c>
       <c r="T6" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U6" s="7" t="s">
         <v>39</v>
       </c>
       <c r="V6" s="3">
         <f>$H$29</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W6" s="3">
         <f>$J$29</f>
-        <v>282</v>
+        <v>362</v>
       </c>
       <c r="X6" s="3">
         <f>$K$29</f>
@@ -1268,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="C7" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="3">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E7" s="3">
         <v>0</v>
@@ -1311,18 +1356,18 @@
         <v>3</v>
       </c>
       <c r="T7" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="V7" s="3">
         <f>$N$11</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W7" s="3">
         <f>$P$11</f>
-        <v>328</v>
+        <v>416</v>
       </c>
       <c r="X7" s="3">
         <f>$Q$11</f>
@@ -1334,13 +1379,13 @@
         <v>31</v>
       </c>
       <c r="B8" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
       </c>
       <c r="D8" s="3">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -1351,7 +1396,7 @@
       </c>
       <c r="H8" s="3">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" si="3"/>
@@ -1359,7 +1404,7 @@
       </c>
       <c r="J8" s="3">
         <f t="shared" si="3"/>
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="K8" s="3">
         <f t="shared" si="3"/>
@@ -1372,7 +1417,7 @@
       </c>
       <c r="N8" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O8" s="3">
         <f t="shared" si="4"/>
@@ -1380,7 +1425,7 @@
       </c>
       <c r="P8" s="3">
         <f t="shared" si="4"/>
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="Q8" s="3">
         <f t="shared" si="4"/>
@@ -1392,20 +1437,20 @@
       <c r="T8" s="7">
         <v>5</v>
       </c>
-      <c r="U8" s="7" t="s">
-        <v>44</v>
+      <c r="U8" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="V8" s="3">
-        <f>$N$29</f>
-        <v>6</v>
+        <f>$N$23</f>
+        <v>8</v>
       </c>
       <c r="W8" s="3">
-        <f>$P$29</f>
-        <v>277</v>
+        <f>$P$23</f>
+        <v>301</v>
       </c>
       <c r="X8" s="3">
-        <f>$Q$29</f>
-        <v>2</v>
+        <f>$Q$23</f>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1413,13 +1458,13 @@
         <v>21</v>
       </c>
       <c r="B9" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
       </c>
       <c r="D9" s="3">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
@@ -1430,7 +1475,7 @@
       </c>
       <c r="H9" s="3">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="3"/>
@@ -1438,7 +1483,7 @@
       </c>
       <c r="J9" s="3">
         <f t="shared" si="3"/>
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="K9" s="3">
         <f t="shared" si="3"/>
@@ -1451,7 +1496,7 @@
       </c>
       <c r="N9" s="3">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O9" s="3">
         <f t="shared" si="4"/>
@@ -1459,7 +1504,7 @@
       </c>
       <c r="P9" s="3">
         <f t="shared" si="4"/>
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="Q9" s="3">
         <f t="shared" si="4"/>
@@ -1469,22 +1514,22 @@
         <v>5</v>
       </c>
       <c r="T9" s="7">
-        <v>6</v>
-      </c>
-      <c r="U9" s="10" t="s">
-        <v>43</v>
+        <v>7</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="V9" s="3">
-        <f>$N$23</f>
-        <v>6</v>
+        <f>$H$5</f>
+        <v>7</v>
       </c>
       <c r="W9" s="3">
-        <f>$P$23</f>
-        <v>243</v>
+        <f>$J$5</f>
+        <v>353</v>
       </c>
       <c r="X9" s="3">
-        <f>$Q$23</f>
-        <v>3</v>
+        <f>$K$5</f>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1534,11 +1579,11 @@
       </c>
       <c r="O10" s="3">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P10" s="3">
         <f t="shared" si="4"/>
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="3">
         <f t="shared" si="4"/>
@@ -1548,22 +1593,22 @@
         <v>6</v>
       </c>
       <c r="T10" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U10" s="7" t="s">
         <v>38</v>
       </c>
       <c r="V10" s="3">
         <f>$H$23</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W10" s="3">
         <f>$J$23</f>
-        <v>228</v>
+        <v>275</v>
       </c>
       <c r="X10" s="3">
         <f>$K$23</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="16" thickBot="1">
@@ -1571,13 +1616,13 @@
         <v>27</v>
       </c>
       <c r="B11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="3">
         <v>3</v>
       </c>
       <c r="D11" s="3">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
@@ -1587,7 +1632,7 @@
       </c>
       <c r="H11" s="4">
         <f>SUM(H8:H10)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" ref="I11" si="5">SUM(I8:I10)</f>
@@ -1595,7 +1640,7 @@
       </c>
       <c r="J11" s="4">
         <f>SUM(J8:J10)</f>
-        <v>242</v>
+        <v>294</v>
       </c>
       <c r="K11" s="4">
         <f>SUM(K8:K10)</f>
@@ -1607,15 +1652,15 @@
       </c>
       <c r="N11" s="4">
         <f>SUM(N8:N10)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O11" s="4">
         <f>SUM(O8:O10)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P11" s="4">
         <f>SUM(P8:P10)</f>
-        <v>328</v>
+        <v>416</v>
       </c>
       <c r="Q11" s="4">
         <f>SUM(Q8:Q10)</f>
@@ -1625,21 +1670,21 @@
         <v>7</v>
       </c>
       <c r="T11" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="V11" s="3">
-        <f>$H$5</f>
-        <v>5</v>
+        <f>$N$5</f>
+        <v>6</v>
       </c>
       <c r="W11" s="3">
-        <f>$J$5</f>
-        <v>258</v>
+        <f>$P$5</f>
+        <v>337</v>
       </c>
       <c r="X11" s="3">
-        <f>$K$5</f>
+        <f>$Q$5</f>
         <v>3</v>
       </c>
     </row>
@@ -1648,13 +1693,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" s="3">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -1674,21 +1719,21 @@
         <v>8</v>
       </c>
       <c r="T12" s="7">
-        <v>8</v>
-      </c>
-      <c r="U12" s="10" t="s">
-        <v>37</v>
+        <v>4</v>
+      </c>
+      <c r="U12" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="V12" s="3">
-        <f>$H$17</f>
-        <v>5</v>
+        <f>$N$29</f>
+        <v>6</v>
       </c>
       <c r="W12" s="3">
-        <f>$J$17</f>
-        <v>231</v>
+        <f>$P$29</f>
+        <v>328</v>
       </c>
       <c r="X12" s="3">
-        <f>$K$17</f>
+        <f>$Q$29</f>
         <v>2</v>
       </c>
     </row>
@@ -1700,10 +1745,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="3">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
@@ -1743,21 +1788,21 @@
         <v>9</v>
       </c>
       <c r="T13" s="7">
-        <v>9</v>
-      </c>
-      <c r="U13" s="7" t="s">
-        <v>40</v>
+        <v>8</v>
+      </c>
+      <c r="U13" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="V13" s="3">
-        <f>$N$5</f>
-        <v>4</v>
+        <f>$H$17</f>
+        <v>6</v>
       </c>
       <c r="W13" s="3">
-        <f>$P$5</f>
-        <v>291</v>
+        <f>$J$17</f>
+        <v>300</v>
       </c>
       <c r="X13" s="3">
-        <f>$Q$5</f>
+        <f>$K$17</f>
         <v>2</v>
       </c>
     </row>
@@ -1766,13 +1811,13 @@
         <v>15</v>
       </c>
       <c r="B14" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="3">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1783,7 +1828,7 @@
       </c>
       <c r="H14" s="3">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="6"/>
@@ -1791,7 +1836,7 @@
       </c>
       <c r="J14" s="3">
         <f t="shared" si="6"/>
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="6"/>
@@ -1804,7 +1849,7 @@
       </c>
       <c r="N14" s="3">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <f t="shared" si="7"/>
@@ -1812,7 +1857,7 @@
       </c>
       <c r="P14" s="3">
         <f t="shared" si="7"/>
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="Q14" s="3">
         <f t="shared" si="7"/>
@@ -1829,11 +1874,11 @@
       </c>
       <c r="V14" s="3">
         <f>$H$11</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W14" s="3">
         <f>$J$11</f>
-        <v>242</v>
+        <v>294</v>
       </c>
       <c r="X14" s="3">
         <f>$K$11</f>
@@ -1861,19 +1906,19 @@
         <v>Dolphins</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="6"/>
+        <f>B15</f>
         <v>2</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="6"/>
+        <f>C15</f>
         <v>2</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="6"/>
+        <f>D15</f>
         <v>96</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="6"/>
+        <f>E15</f>
         <v>1</v>
       </c>
       <c r="L15" s="3"/>
@@ -1887,11 +1932,11 @@
       </c>
       <c r="O15" s="3">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P15" s="3">
         <f t="shared" si="7"/>
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="Q15" s="3">
         <f t="shared" si="7"/>
@@ -1906,10 +1951,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" s="3">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -1924,11 +1969,11 @@
       </c>
       <c r="I16" s="3">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J16" s="3">
         <f t="shared" si="6"/>
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="K16" s="3">
         <f t="shared" si="6"/>
@@ -1945,11 +1990,11 @@
       </c>
       <c r="O16" s="3">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P16" s="3">
         <f t="shared" si="7"/>
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="Q16" s="3">
         <f t="shared" si="7"/>
@@ -1961,15 +2006,15 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
-      <c r="D17" s="7">
-        <v>122</v>
-      </c>
-      <c r="E17" s="7">
+      <c r="D17" s="3">
+        <v>156</v>
+      </c>
+      <c r="E17" s="3">
         <v>1</v>
       </c>
       <c r="G17" s="4" t="s">
@@ -1977,15 +2022,15 @@
       </c>
       <c r="H17" s="4">
         <f>SUM(H14:H16)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" ref="I17" si="8">SUM(I14:I16)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J17" s="4">
         <f>SUM(J14:J16)</f>
-        <v>231</v>
+        <v>300</v>
       </c>
       <c r="K17" s="4">
         <f>SUM(K14:K16)</f>
@@ -1997,15 +2042,15 @@
       </c>
       <c r="N17" s="4">
         <f>SUM(N14:N16)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O17" s="4">
         <f>SUM(O14:O16)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P17" s="4">
         <f>SUM(P14:P16)</f>
-        <v>310</v>
+        <v>371</v>
       </c>
       <c r="Q17" s="4">
         <f>SUM(Q14:Q16)</f>
@@ -2020,12 +2065,12 @@
         <v>3</v>
       </c>
       <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="7">
-        <v>103</v>
-      </c>
-      <c r="E18" s="7">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>116</v>
+      </c>
+      <c r="E18" s="3">
         <v>1</v>
       </c>
       <c r="G18" s="3"/>
@@ -2048,12 +2093,12 @@
         <v>3</v>
       </c>
       <c r="C19" s="3">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7">
-        <v>85</v>
-      </c>
-      <c r="E19" s="7">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3">
+        <v>99</v>
+      </c>
+      <c r="E19" s="3">
         <v>1</v>
       </c>
       <c r="G19" s="5" t="s">
@@ -2089,20 +2134,20 @@
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" t="s">
+      <c r="A20" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="3">
-        <v>2</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3">
-        <v>83</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
+      <c r="B20" s="14">
+        <v>3</v>
+      </c>
+      <c r="C20" s="14">
+        <v>1</v>
+      </c>
+      <c r="D20" s="14">
+        <v>110</v>
+      </c>
+      <c r="E20" s="14">
+        <v>1</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ref="G20:K22" si="9">A20</f>
@@ -2110,7 +2155,7 @@
       </c>
       <c r="H20" s="3">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="9"/>
@@ -2118,11 +2163,11 @@
       </c>
       <c r="J20" s="3">
         <f t="shared" si="9"/>
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="K20" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3" t="str">
@@ -2135,11 +2180,11 @@
       </c>
       <c r="O20" s="3">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P20" s="3">
         <f t="shared" si="10"/>
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="Q20" s="3">
         <f t="shared" si="10"/>
@@ -2150,16 +2195,16 @@
       <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="3">
-        <v>3</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0</v>
-      </c>
-      <c r="D21" s="3">
-        <v>66</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="B21" s="14">
+        <v>3</v>
+      </c>
+      <c r="C21" s="14">
+        <v>1</v>
+      </c>
+      <c r="D21" s="14">
+        <v>86</v>
+      </c>
+      <c r="E21" s="14">
         <v>1</v>
       </c>
       <c r="G21" s="3" t="str">
@@ -2172,11 +2217,11 @@
       </c>
       <c r="I21" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="3">
         <f t="shared" si="9"/>
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="K21" s="3">
         <f t="shared" si="9"/>
@@ -2189,7 +2234,7 @@
       </c>
       <c r="N21" s="3">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O21" s="3">
         <f t="shared" si="10"/>
@@ -2197,7 +2242,7 @@
       </c>
       <c r="P21" s="3">
         <f t="shared" si="10"/>
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="Q21" s="3">
         <f t="shared" si="10"/>
@@ -2208,16 +2253,16 @@
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="3">
-        <v>1</v>
-      </c>
-      <c r="C22" s="3">
-        <v>3</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="B22" s="14">
+        <v>1</v>
+      </c>
+      <c r="C22" s="14">
+        <v>4</v>
+      </c>
+      <c r="D22" s="14">
         <v>79</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="14">
         <v>0</v>
       </c>
       <c r="G22" s="3" t="str">
@@ -2230,7 +2275,7 @@
       </c>
       <c r="I22" s="3">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J22" s="3">
         <f t="shared" si="9"/>
@@ -2246,36 +2291,36 @@
         <v>Bills</v>
       </c>
       <c r="N22" s="3">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f>B25</f>
+        <v>3</v>
       </c>
       <c r="O22" s="3">
-        <f t="shared" si="10"/>
+        <f>C25</f>
         <v>2</v>
       </c>
       <c r="P22" s="3">
-        <f t="shared" si="10"/>
-        <v>79</v>
+        <f>D25</f>
+        <v>96</v>
       </c>
       <c r="Q22" s="3">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f>E25</f>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="16" thickBot="1">
-      <c r="A23" t="s">
+      <c r="A23" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="3">
-        <v>2</v>
-      </c>
-      <c r="C23" s="3">
-        <v>2</v>
-      </c>
-      <c r="D23" s="3">
-        <v>91</v>
-      </c>
-      <c r="E23" s="3">
+      <c r="B23" s="14">
+        <v>2</v>
+      </c>
+      <c r="C23" s="14">
+        <v>3</v>
+      </c>
+      <c r="D23" s="14">
+        <v>101</v>
+      </c>
+      <c r="E23" s="14">
         <v>1</v>
       </c>
       <c r="G23" s="4" t="s">
@@ -2283,19 +2328,19 @@
       </c>
       <c r="H23" s="4">
         <f>SUM(H20:H22)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I23" s="4">
         <f t="shared" ref="I23" si="11">SUM(I20:I22)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J23" s="4">
         <f>SUM(J20:J22)</f>
-        <v>228</v>
+        <v>275</v>
       </c>
       <c r="K23" s="4">
         <f>SUM(K20:K22)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="4" t="s">
@@ -2303,35 +2348,35 @@
       </c>
       <c r="N23" s="4">
         <f>SUM(N20:N22)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O23" s="4">
         <f>SUM(O20:O22)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P23" s="4">
         <f>SUM(P20:P22)</f>
-        <v>243</v>
+        <v>301</v>
       </c>
       <c r="Q23" s="4">
         <f>SUM(Q20:Q22)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="16" thickTop="1">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="3">
-        <v>2</v>
-      </c>
-      <c r="C24" s="3">
-        <v>2</v>
-      </c>
-      <c r="D24" s="3">
-        <v>73</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="B24" s="14">
+        <v>3</v>
+      </c>
+      <c r="C24" s="14">
+        <v>2</v>
+      </c>
+      <c r="D24" s="14">
+        <v>104</v>
+      </c>
+      <c r="E24" s="14">
         <v>1</v>
       </c>
       <c r="G24" s="3"/>
@@ -2350,17 +2395,17 @@
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="3">
-        <v>2</v>
-      </c>
-      <c r="C25" s="3">
-        <v>2</v>
-      </c>
-      <c r="D25" s="3">
-        <v>79</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1</v>
+      <c r="B25" s="14">
+        <v>3</v>
+      </c>
+      <c r="C25" s="14">
+        <v>2</v>
+      </c>
+      <c r="D25" s="14">
+        <v>96</v>
+      </c>
+      <c r="E25" s="14">
+        <v>2</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>39</v>
@@ -2398,16 +2443,16 @@
       <c r="A26" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="3">
-        <v>2</v>
-      </c>
-      <c r="C26" s="3">
-        <v>2</v>
-      </c>
-      <c r="D26" s="3">
-        <v>80</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="B26" s="14">
+        <v>3</v>
+      </c>
+      <c r="C26" s="14">
+        <v>2</v>
+      </c>
+      <c r="D26" s="14">
+        <v>123</v>
+      </c>
+      <c r="E26" s="14">
         <v>1</v>
       </c>
       <c r="G26" s="3" t="str">
@@ -2416,7 +2461,7 @@
       </c>
       <c r="H26" s="3">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" si="12"/>
@@ -2424,7 +2469,7 @@
       </c>
       <c r="J26" s="3">
         <f t="shared" si="12"/>
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="K26" s="3">
         <f t="shared" si="12"/>
@@ -2441,11 +2486,11 @@
       </c>
       <c r="O26" s="3">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P26" s="3">
         <f t="shared" si="13"/>
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="Q26" s="3">
         <f t="shared" si="13"/>
@@ -2456,16 +2501,16 @@
       <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="3">
-        <v>3</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1</v>
-      </c>
-      <c r="D27" s="3">
-        <v>115</v>
-      </c>
-      <c r="E27" s="3">
+      <c r="B27" s="14">
+        <v>4</v>
+      </c>
+      <c r="C27" s="14">
+        <v>1</v>
+      </c>
+      <c r="D27" s="14">
+        <v>135</v>
+      </c>
+      <c r="E27" s="14">
         <v>2</v>
       </c>
       <c r="G27" s="3" t="str">
@@ -2474,7 +2519,7 @@
       </c>
       <c r="H27" s="3">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" si="12"/>
@@ -2482,7 +2527,7 @@
       </c>
       <c r="J27" s="3">
         <f t="shared" si="12"/>
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="K27" s="3">
         <f t="shared" si="12"/>
@@ -2499,11 +2544,11 @@
       </c>
       <c r="O27" s="3">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" s="3">
         <f t="shared" si="13"/>
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="Q27" s="3">
         <f t="shared" si="13"/>
@@ -2514,16 +2559,16 @@
       <c r="A28" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="3">
-        <v>3</v>
-      </c>
-      <c r="C28" s="3">
-        <v>1</v>
-      </c>
-      <c r="D28" s="3">
-        <v>87</v>
-      </c>
-      <c r="E28" s="3">
+      <c r="B28" s="14">
+        <v>3</v>
+      </c>
+      <c r="C28" s="14">
+        <v>2</v>
+      </c>
+      <c r="D28" s="14">
+        <v>104</v>
+      </c>
+      <c r="E28" s="14">
         <v>1</v>
       </c>
       <c r="G28" s="3" t="str">
@@ -2536,11 +2581,11 @@
       </c>
       <c r="I28" s="3">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" s="3">
         <f t="shared" si="12"/>
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="K28" s="3">
         <f t="shared" si="12"/>
@@ -2557,11 +2602,11 @@
       </c>
       <c r="O28" s="3">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P28" s="3">
         <f t="shared" si="13"/>
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="Q28" s="3">
         <f t="shared" si="13"/>
@@ -2572,16 +2617,16 @@
       <c r="A29" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="3">
-        <v>2</v>
-      </c>
-      <c r="C29" s="3">
-        <v>2</v>
-      </c>
-      <c r="D29" s="3">
-        <v>102</v>
-      </c>
-      <c r="E29" s="3">
+      <c r="B29" s="14">
+        <v>2</v>
+      </c>
+      <c r="C29" s="14">
+        <v>3</v>
+      </c>
+      <c r="D29" s="14">
+        <v>119</v>
+      </c>
+      <c r="E29" s="14">
         <v>1</v>
       </c>
       <c r="G29" s="4" t="s">
@@ -2589,15 +2634,15 @@
       </c>
       <c r="H29" s="4">
         <f>SUM(H26:H28)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I29" s="4">
         <f t="shared" ref="I29" si="14">SUM(I26:I28)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J29" s="4">
         <f>SUM(J26:J28)</f>
-        <v>282</v>
+        <v>362</v>
       </c>
       <c r="K29" s="4">
         <f>SUM(K26:K28)</f>
@@ -2613,11 +2658,11 @@
       </c>
       <c r="O29" s="4">
         <f>SUM(O26:O28)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P29" s="4">
         <f>SUM(P26:P28)</f>
-        <v>277</v>
+        <v>328</v>
       </c>
       <c r="Q29" s="4">
         <f>SUM(Q26:Q28)</f>
@@ -2628,16 +2673,16 @@
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="3">
-        <v>3</v>
-      </c>
-      <c r="C30" s="3">
-        <v>0</v>
-      </c>
-      <c r="D30" s="3">
-        <v>80</v>
-      </c>
-      <c r="E30" s="3">
+      <c r="B30" s="14">
+        <v>3</v>
+      </c>
+      <c r="C30" s="14">
+        <v>1</v>
+      </c>
+      <c r="D30" s="14">
+        <v>97</v>
+      </c>
+      <c r="E30" s="14">
         <v>1</v>
       </c>
     </row>
@@ -2645,16 +2690,16 @@
       <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="3">
-        <v>1</v>
-      </c>
-      <c r="C31" s="3">
-        <v>3</v>
-      </c>
-      <c r="D31" s="3">
-        <v>95</v>
-      </c>
-      <c r="E31" s="3">
+      <c r="B31" s="14">
+        <v>1</v>
+      </c>
+      <c r="C31" s="14">
+        <v>4</v>
+      </c>
+      <c r="D31" s="14">
+        <v>112</v>
+      </c>
+      <c r="E31" s="14">
         <v>0</v>
       </c>
     </row>
@@ -2666,10 +2711,10 @@
         <v>1</v>
       </c>
       <c r="C32" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" s="9">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="E32" s="9">
         <v>1</v>
@@ -2681,7 +2726,7 @@
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
       <c r="K32" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2692,10 +2737,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" s="9">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="E33" s="9">
         <v>1</v>
@@ -2712,21 +2757,30 @@
     <mergeCell ref="G32:J32"/>
   </mergeCells>
   <conditionalFormatting sqref="D32:D33">
-    <cfRule type="containsText" dxfId="4" priority="12" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="7" priority="19" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",D32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="13" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="6" priority="20" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",D32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5:S14">
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="15" operator="equal">
       <formula>T5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="16" operator="lessThan">
       <formula>T5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="17" operator="greaterThan">
+      <formula>T5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>T5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>T5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>T5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Wins Fantasy League.xlsx
+++ b/Wins Fantasy League.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29000" windowHeight="15980" tabRatio="500"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="25000" windowHeight="15980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -289,7 +289,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="80">
+  <cellStyleXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -370,10 +370,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -397,18 +398,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="80">
+  <cellStyles count="82">
     <cellStyle name="Bad" xfId="69" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -449,6 +450,7 @@
     <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -488,39 +490,10 @@
     <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -548,6 +521,36 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -901,7 +904,7 @@
   <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -932,50 +935,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="6" t="s">
+      <c r="H1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="5" t="s">
+      <c r="L1" s="2"/>
+      <c r="M1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" s="6" t="s">
+      <c r="N1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>51</v>
       </c>
     </row>
@@ -983,199 +986,199 @@
       <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="3">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3">
-        <v>134</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="str">
+      <c r="B2" s="2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>161</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="str">
         <f t="shared" ref="G2:K4" si="0">A2</f>
         <v>Packers</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I2" s="3">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <f t="shared" si="0"/>
-        <v>134</v>
-      </c>
-      <c r="K2" s="3">
+        <v>161</v>
+      </c>
+      <c r="K2" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3" t="str">
+        <v>2</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="str">
         <f t="shared" ref="M2:Q4" si="1">A5</f>
         <v>Colts</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="O2" s="3">
+        <v>4</v>
+      </c>
+      <c r="O2" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="2">
         <f t="shared" si="1"/>
-        <v>156</v>
-      </c>
-      <c r="Q2" s="3">
+        <v>189</v>
+      </c>
+      <c r="Q2" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="18">
       <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3">
-        <v>116</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3" t="str">
+      <c r="B3" s="2">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>143</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Bears</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I3" s="3">
+        <v>3</v>
+      </c>
+      <c r="I3" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <f t="shared" si="0"/>
-        <v>116</v>
-      </c>
-      <c r="K3" s="3">
+        <v>143</v>
+      </c>
+      <c r="K3" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3" t="str">
+        <v>3</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Steelers</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="2">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="P3" s="3">
+        <v>3</v>
+      </c>
+      <c r="P3" s="2">
         <f t="shared" si="1"/>
-        <v>114</v>
-      </c>
-      <c r="Q3" s="3">
+        <v>124</v>
+      </c>
+      <c r="Q3" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="S3" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3">
-        <v>103</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="str">
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>134</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Browns</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I4" s="3">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>103</v>
-      </c>
-      <c r="K4" s="3">
+        <v>134</v>
+      </c>
+      <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3" t="str">
+      <c r="L4" s="2"/>
+      <c r="M4" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Jaguars</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="P4" s="3">
+        <v>6</v>
+      </c>
+      <c r="P4" s="2">
         <f t="shared" si="1"/>
-        <v>67</v>
-      </c>
-      <c r="Q4" s="3">
+        <v>81</v>
+      </c>
+      <c r="Q4" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="T4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="U4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="V4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="W4" s="5" t="s">
+      <c r="V4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="X4" s="4" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1183,1566 +1186,1566 @@
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3">
-        <v>156</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>189</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <f>SUM(H2:H4)</f>
-        <v>7</v>
-      </c>
-      <c r="I5" s="4">
+        <v>10</v>
+      </c>
+      <c r="I5" s="3">
         <f>SUM(I2:I4)</f>
         <v>7</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <f>SUM(J2:J4)</f>
-        <v>353</v>
-      </c>
-      <c r="K5" s="4">
+        <v>438</v>
+      </c>
+      <c r="K5" s="3">
         <f>SUM(K2:K4)</f>
-        <v>4</v>
-      </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="3">
         <f t="shared" ref="N5:O5" si="2">SUM(N2:N4)</f>
-        <v>6</v>
-      </c>
-      <c r="O5" s="4">
+        <v>7</v>
+      </c>
+      <c r="O5" s="3">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="P5" s="4">
+        <v>11</v>
+      </c>
+      <c r="P5" s="3">
         <f>SUM(P2:P4)</f>
-        <v>337</v>
-      </c>
-      <c r="Q5" s="4">
+        <v>394</v>
+      </c>
+      <c r="Q5" s="3">
         <f>SUM(Q2:Q4)</f>
-        <v>3</v>
-      </c>
-      <c r="S5" s="7">
-        <v>1</v>
-      </c>
-      <c r="T5" s="7">
-        <v>1</v>
-      </c>
-      <c r="U5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S5" s="6">
+        <v>1</v>
+      </c>
+      <c r="T5" s="6">
+        <v>1</v>
+      </c>
+      <c r="U5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="V5" s="3">
+      <c r="V5" s="2">
         <f>$N$17</f>
-        <v>10</v>
-      </c>
-      <c r="W5" s="3">
+        <v>13</v>
+      </c>
+      <c r="W5" s="2">
         <f>$P$17</f>
-        <v>371</v>
-      </c>
-      <c r="X5" s="3">
+        <v>463</v>
+      </c>
+      <c r="X5" s="2">
         <f>$Q$17</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="16" thickTop="1">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3">
-        <v>114</v>
-      </c>
-      <c r="E6" s="3">
-        <v>2</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="S6" s="7">
-        <v>2</v>
-      </c>
-      <c r="T6" s="7">
-        <v>2</v>
-      </c>
-      <c r="U6" s="7" t="s">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>124</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="S6" s="6">
+        <v>2</v>
+      </c>
+      <c r="T6" s="6">
+        <v>2</v>
+      </c>
+      <c r="U6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="V6" s="3">
+      <c r="V6" s="2">
         <f>$H$29</f>
-        <v>10</v>
-      </c>
-      <c r="W6" s="3">
+        <v>12</v>
+      </c>
+      <c r="W6" s="2">
         <f>$J$29</f>
-        <v>362</v>
-      </c>
-      <c r="X6" s="3">
+        <v>457</v>
+      </c>
+      <c r="X6" s="2">
         <f>$K$29</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>0</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2">
+        <v>81</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="S7" s="6">
+        <v>3</v>
+      </c>
+      <c r="T7" s="6">
         <v>5</v>
       </c>
-      <c r="D7" s="3">
-        <v>67</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="S7" s="7">
-        <v>3</v>
-      </c>
-      <c r="T7" s="7">
-        <v>3</v>
-      </c>
-      <c r="U7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="V7" s="3">
-        <f>$N$11</f>
-        <v>8</v>
-      </c>
-      <c r="W7" s="3">
-        <f>$P$11</f>
-        <v>416</v>
-      </c>
-      <c r="X7" s="3">
-        <f>$Q$11</f>
-        <v>1</v>
+      <c r="U7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V7" s="2">
+        <f>$H$5</f>
+        <v>10</v>
+      </c>
+      <c r="W7" s="2">
+        <f>$J$5</f>
+        <v>438</v>
+      </c>
+      <c r="X7" s="2">
+        <f>$K$5</f>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" t="s">
+      <c r="A8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="3">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3">
-        <v>110</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3" t="str">
+      <c r="B8" s="13">
+        <v>4</v>
+      </c>
+      <c r="C8" s="13">
+        <v>2</v>
+      </c>
+      <c r="D8" s="13">
+        <v>141</v>
+      </c>
+      <c r="E8" s="13">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2" t="str">
         <f t="shared" ref="G8:K10" si="3">A8</f>
         <v>49ers</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="I8" s="3">
+        <v>4</v>
+      </c>
+      <c r="I8" s="2">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <f t="shared" si="3"/>
-        <v>110</v>
-      </c>
-      <c r="K8" s="3">
+        <v>141</v>
+      </c>
+      <c r="K8" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3" t="str">
+        <v>2</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2" t="str">
         <f t="shared" ref="M8:Q10" si="4">A11</f>
         <v>Saints</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="2">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="2">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="2">
         <f t="shared" si="4"/>
         <v>132</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S8" s="7">
-        <v>4</v>
-      </c>
-      <c r="T8" s="7">
-        <v>5</v>
-      </c>
-      <c r="U8" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="V8" s="3">
-        <f>$N$23</f>
-        <v>8</v>
-      </c>
-      <c r="W8" s="3">
-        <f>$P$23</f>
-        <v>301</v>
-      </c>
-      <c r="X8" s="3">
-        <f>$Q$23</f>
-        <v>4</v>
+      <c r="S8" s="6">
+        <v>4</v>
+      </c>
+      <c r="T8" s="6">
+        <v>3</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="V8" s="2">
+        <f>$N$11</f>
+        <v>9</v>
+      </c>
+      <c r="W8" s="2">
+        <f>$P$11</f>
+        <v>460</v>
+      </c>
+      <c r="X8" s="2">
+        <f>$Q$11</f>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="3">
-        <v>3</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="B9" s="13">
+        <v>3</v>
+      </c>
+      <c r="C9" s="13">
+        <v>3</v>
+      </c>
+      <c r="D9" s="13">
         <v>133</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3" t="str">
+      <c r="E9" s="13">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Giants</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="J9" s="3">
+        <v>3</v>
+      </c>
+      <c r="J9" s="2">
         <f t="shared" si="3"/>
         <v>133</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3" t="str">
+      <c r="L9" s="2"/>
+      <c r="M9" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Chargers</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="2">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="O9" s="3">
+        <v>5</v>
+      </c>
+      <c r="O9" s="2">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="2">
         <f t="shared" si="4"/>
-        <v>133</v>
-      </c>
-      <c r="Q9" s="3">
+        <v>164</v>
+      </c>
+      <c r="Q9" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="S9" s="7">
+        <v>2</v>
+      </c>
+      <c r="S9" s="6">
         <v>5</v>
       </c>
-      <c r="T9" s="7">
-        <v>7</v>
-      </c>
-      <c r="U9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="V9" s="3">
-        <f>$H$5</f>
-        <v>7</v>
-      </c>
-      <c r="W9" s="3">
-        <f>$J$5</f>
-        <v>353</v>
-      </c>
-      <c r="X9" s="3">
-        <f>$K$5</f>
+      <c r="T9" s="6">
+        <v>4</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="2">
+        <f>$N$23</f>
+        <v>8.5</v>
+      </c>
+      <c r="W9" s="2">
+        <f>$P$23</f>
+        <v>363</v>
+      </c>
+      <c r="X9" s="2">
+        <f>$Q$23</f>
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="13">
         <v>0</v>
       </c>
-      <c r="C10" s="3">
-        <v>4</v>
-      </c>
-      <c r="D10" s="3">
-        <v>51</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="C10" s="13">
+        <v>5</v>
+      </c>
+      <c r="D10" s="13">
+        <v>79</v>
+      </c>
+      <c r="E10" s="13">
         <v>0</v>
       </c>
-      <c r="G10" s="3" t="str">
+      <c r="G10" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Raiders</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="J10" s="3">
+        <v>5</v>
+      </c>
+      <c r="J10" s="2">
         <f t="shared" si="3"/>
-        <v>51</v>
-      </c>
-      <c r="K10" s="3">
+        <v>79</v>
+      </c>
+      <c r="K10" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3" t="str">
+      <c r="L10" s="2"/>
+      <c r="M10" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Falcons</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="2">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="2">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="P10" s="3">
+        <v>4</v>
+      </c>
+      <c r="P10" s="2">
         <f t="shared" si="4"/>
-        <v>151</v>
-      </c>
-      <c r="Q10" s="3">
+        <v>164</v>
+      </c>
+      <c r="Q10" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S10" s="7">
+      <c r="S10" s="6">
         <v>6</v>
       </c>
-      <c r="T10" s="7">
+      <c r="T10" s="6">
+        <v>9</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="V10" s="2">
+        <f>$H$17</f>
+        <v>8</v>
+      </c>
+      <c r="W10" s="2">
+        <f>$J$17</f>
+        <v>371</v>
+      </c>
+      <c r="X10" s="2">
+        <f>$K$17</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="16" thickBot="1">
+      <c r="A11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="13">
+        <v>2</v>
+      </c>
+      <c r="C11" s="13">
+        <v>3</v>
+      </c>
+      <c r="D11" s="13">
+        <v>132</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="3">
+        <f>SUM(H8:H10)</f>
+        <v>7</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" ref="I11" si="5">SUM(I8:I10)</f>
+        <v>10</v>
+      </c>
+      <c r="J11" s="3">
+        <f>SUM(J8:J10)</f>
+        <v>353</v>
+      </c>
+      <c r="K11" s="3">
+        <f>SUM(K8:K10)</f>
+        <v>3</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" s="3">
+        <f>SUM(N8:N10)</f>
+        <v>9</v>
+      </c>
+      <c r="O11" s="3">
+        <f>SUM(O8:O10)</f>
+        <v>8</v>
+      </c>
+      <c r="P11" s="3">
+        <f>SUM(P8:P10)</f>
+        <v>460</v>
+      </c>
+      <c r="Q11" s="3">
+        <f>SUM(Q8:Q10)</f>
+        <v>2</v>
+      </c>
+      <c r="S11" s="6">
+        <v>7</v>
+      </c>
+      <c r="T11" s="6">
         <v>6</v>
       </c>
-      <c r="U10" s="7" t="s">
+      <c r="U11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="V10" s="3">
+      <c r="V11" s="2">
         <f>$H$23</f>
+        <v>8</v>
+      </c>
+      <c r="W11" s="2">
+        <f>$J$23</f>
+        <v>345</v>
+      </c>
+      <c r="X11" s="2">
+        <f>$K$23</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="16" thickTop="1">
+      <c r="A12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="13">
+        <v>5</v>
+      </c>
+      <c r="C12" s="13">
+        <v>1</v>
+      </c>
+      <c r="D12" s="13">
+        <v>164</v>
+      </c>
+      <c r="E12" s="13">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="S12" s="6">
+        <v>8</v>
+      </c>
+      <c r="T12" s="6">
         <v>7</v>
       </c>
-      <c r="W10" s="3">
-        <f>$J$23</f>
-        <v>275</v>
-      </c>
-      <c r="X10" s="3">
-        <f>$K$23</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="16" thickBot="1">
-      <c r="A11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="3">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3">
-        <v>3</v>
-      </c>
-      <c r="D11" s="3">
-        <v>132</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="U12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="V12" s="2">
+        <f>$N$5</f>
+        <v>7</v>
+      </c>
+      <c r="W12" s="2">
+        <f>$P$5</f>
+        <v>394</v>
+      </c>
+      <c r="X12" s="2">
+        <f>$Q$5</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="13">
+        <v>4</v>
+      </c>
+      <c r="D13" s="13">
+        <v>164</v>
+      </c>
+      <c r="E13" s="13">
         <v>0</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="4">
-        <f>SUM(H8:H10)</f>
-        <v>6</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" ref="I11" si="5">SUM(I8:I10)</f>
-        <v>8</v>
-      </c>
-      <c r="J11" s="4">
-        <f>SUM(J8:J10)</f>
-        <v>294</v>
-      </c>
-      <c r="K11" s="4">
-        <f>SUM(K8:K10)</f>
-        <v>2</v>
-      </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N11" s="4">
-        <f>SUM(N8:N10)</f>
-        <v>8</v>
-      </c>
-      <c r="O11" s="4">
-        <f>SUM(O8:O10)</f>
+      <c r="G13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="S13" s="6">
+        <v>9</v>
+      </c>
+      <c r="T13" s="6">
+        <v>10</v>
+      </c>
+      <c r="U13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V13" s="2">
+        <f>$H$11</f>
         <v>7</v>
       </c>
-      <c r="P11" s="4">
-        <f>SUM(P8:P10)</f>
-        <v>416</v>
-      </c>
-      <c r="Q11" s="4">
-        <f>SUM(Q8:Q10)</f>
-        <v>1</v>
-      </c>
-      <c r="S11" s="7">
-        <v>7</v>
-      </c>
-      <c r="T11" s="7">
-        <v>9</v>
-      </c>
-      <c r="U11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V11" s="3">
-        <f>$N$5</f>
-        <v>6</v>
-      </c>
-      <c r="W11" s="3">
-        <f>$P$5</f>
-        <v>337</v>
-      </c>
-      <c r="X11" s="3">
-        <f>$Q$5</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="16" thickTop="1">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="3">
-        <v>4</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3">
-        <v>133</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="S12" s="7">
-        <v>8</v>
-      </c>
-      <c r="T12" s="7">
-        <v>4</v>
-      </c>
-      <c r="U12" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="V12" s="3">
-        <f>$N$29</f>
-        <v>6</v>
-      </c>
-      <c r="W12" s="3">
-        <f>$P$29</f>
-        <v>328</v>
-      </c>
-      <c r="X12" s="3">
-        <f>$Q$29</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="3">
-        <v>2</v>
-      </c>
-      <c r="C13" s="3">
-        <v>3</v>
-      </c>
-      <c r="D13" s="3">
-        <v>151</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="S13" s="7">
-        <v>9</v>
-      </c>
-      <c r="T13" s="7">
-        <v>8</v>
-      </c>
-      <c r="U13" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="V13" s="3">
-        <f>$H$17</f>
-        <v>6</v>
-      </c>
-      <c r="W13" s="3">
-        <f>$J$17</f>
-        <v>300</v>
-      </c>
-      <c r="X13" s="3">
-        <f>$K$17</f>
-        <v>2</v>
+      <c r="W13" s="2">
+        <f>$J$11</f>
+        <v>353</v>
+      </c>
+      <c r="X13" s="2">
+        <f>$K$11</f>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" t="s">
+      <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="3">
-        <v>3</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3">
-        <v>116</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="str">
+      <c r="B14" s="13">
+        <v>4</v>
+      </c>
+      <c r="C14" s="13">
+        <v>1</v>
+      </c>
+      <c r="D14" s="13">
+        <v>147</v>
+      </c>
+      <c r="E14" s="13">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="str">
         <f t="shared" ref="G14:K16" si="6">A14</f>
         <v>Broncos</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="I14" s="3">
+        <v>4</v>
+      </c>
+      <c r="I14" s="2">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="2">
         <f t="shared" si="6"/>
-        <v>116</v>
-      </c>
-      <c r="K14" s="3">
+        <v>147</v>
+      </c>
+      <c r="K14" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3" t="str">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2" t="str">
         <f t="shared" ref="M14:Q16" si="7">A17</f>
         <v>Eagles</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="2">
         <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
+        <v>5</v>
+      </c>
+      <c r="O14" s="2">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="2">
         <f t="shared" si="7"/>
-        <v>156</v>
-      </c>
-      <c r="Q14" s="3">
+        <v>183</v>
+      </c>
+      <c r="Q14" s="2">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S14" s="7">
+      <c r="S14" s="6">
         <v>10</v>
       </c>
-      <c r="T14" s="7">
-        <v>10</v>
-      </c>
-      <c r="U14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="V14" s="3">
-        <f>$H$11</f>
-        <v>6</v>
-      </c>
-      <c r="W14" s="3">
-        <f>$J$11</f>
-        <v>294</v>
-      </c>
-      <c r="X14" s="3">
-        <f>$K$11</f>
+      <c r="T14" s="6">
+        <v>8</v>
+      </c>
+      <c r="U14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="V14" s="2">
+        <f>$N$29</f>
+        <v>6.5</v>
+      </c>
+      <c r="W14" s="2">
+        <f>$P$29</f>
+        <v>385</v>
+      </c>
+      <c r="X14" s="2">
+        <f>$Q$29</f>
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:24">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="3">
-        <v>2</v>
-      </c>
-      <c r="C15" s="3">
-        <v>2</v>
-      </c>
-      <c r="D15" s="3">
-        <v>96</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3" t="str">
+      <c r="B15" s="13">
+        <v>2</v>
+      </c>
+      <c r="C15" s="13">
+        <v>3</v>
+      </c>
+      <c r="D15" s="13">
+        <v>120</v>
+      </c>
+      <c r="E15" s="13">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="str">
         <f t="shared" si="6"/>
         <v>Dolphins</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <f>B15</f>
         <v>2</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <f>C15</f>
-        <v>2</v>
-      </c>
-      <c r="J15" s="3">
+        <v>3</v>
+      </c>
+      <c r="J15" s="2">
         <f>D15</f>
-        <v>96</v>
-      </c>
-      <c r="K15" s="3">
+        <v>120</v>
+      </c>
+      <c r="K15" s="2">
         <f>E15</f>
         <v>1</v>
       </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3" t="str">
+      <c r="L15" s="2"/>
+      <c r="M15" s="2" t="str">
         <f t="shared" si="7"/>
         <v>Ravens</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="2">
         <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="O15" s="3">
+        <v>4</v>
+      </c>
+      <c r="O15" s="2">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="2">
+        <f t="shared" si="7"/>
+        <v>164</v>
+      </c>
+      <c r="Q15" s="2">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="13">
+        <v>2</v>
+      </c>
+      <c r="C16" s="13">
+        <v>4</v>
+      </c>
+      <c r="D16" s="13">
+        <v>104</v>
+      </c>
+      <c r="E16" s="13">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>Titans</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="6"/>
+        <v>104</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>Lions</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="P16" s="2">
         <f t="shared" si="7"/>
         <v>116</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q16" s="2">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
-      <c r="A16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="3">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3">
-        <v>4</v>
-      </c>
-      <c r="D16" s="3">
-        <v>88</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>Titans</v>
-      </c>
-      <c r="H16" s="3">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="I16" s="3">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="J16" s="3">
-        <f t="shared" si="6"/>
-        <v>88</v>
-      </c>
-      <c r="K16" s="3">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>Lions</v>
-      </c>
-      <c r="N16" s="3">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="O16" s="3">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="P16" s="3">
-        <f t="shared" si="7"/>
-        <v>99</v>
-      </c>
-      <c r="Q16" s="3">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="16" thickBot="1">
-      <c r="A17" t="s">
+      <c r="A17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="3">
-        <v>4</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3">
-        <v>156</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="4" t="s">
+      <c r="B17" s="13">
+        <v>5</v>
+      </c>
+      <c r="C17" s="13">
+        <v>1</v>
+      </c>
+      <c r="D17" s="13">
+        <v>183</v>
+      </c>
+      <c r="E17" s="13">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <f>SUM(H14:H16)</f>
-        <v>6</v>
-      </c>
-      <c r="I17" s="4">
+        <v>8</v>
+      </c>
+      <c r="I17" s="3">
         <f t="shared" ref="I17" si="8">SUM(I14:I16)</f>
-        <v>7</v>
-      </c>
-      <c r="J17" s="4">
+        <v>8</v>
+      </c>
+      <c r="J17" s="3">
         <f>SUM(J14:J16)</f>
-        <v>300</v>
-      </c>
-      <c r="K17" s="4">
+        <v>371</v>
+      </c>
+      <c r="K17" s="3">
         <f>SUM(K14:K16)</f>
-        <v>2</v>
-      </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="3">
         <f>SUM(N14:N16)</f>
-        <v>10</v>
-      </c>
-      <c r="O17" s="4">
+        <v>13</v>
+      </c>
+      <c r="O17" s="3">
         <f>SUM(O14:O16)</f>
         <v>5</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="3">
         <f>SUM(P14:P16)</f>
-        <v>371</v>
-      </c>
-      <c r="Q17" s="4">
+        <v>463</v>
+      </c>
+      <c r="Q17" s="3">
         <f>SUM(Q14:Q16)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="16" thickTop="1">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="3">
-        <v>3</v>
-      </c>
-      <c r="C18" s="3">
-        <v>2</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="B18" s="13">
+        <v>4</v>
+      </c>
+      <c r="C18" s="13">
+        <v>2</v>
+      </c>
+      <c r="D18" s="13">
+        <v>164</v>
+      </c>
+      <c r="E18" s="13">
+        <v>2</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="13">
+        <v>4</v>
+      </c>
+      <c r="C19" s="13">
+        <v>2</v>
+      </c>
+      <c r="D19" s="13">
         <v>116</v>
       </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="3">
-        <v>3</v>
-      </c>
-      <c r="C19" s="3">
-        <v>2</v>
-      </c>
-      <c r="D19" s="3">
-        <v>99</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="5" t="s">
+      <c r="E19" s="13">
+        <v>2</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J19" s="6" t="s">
+      <c r="H19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K19" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="6" t="s">
+      <c r="L19" s="2"/>
+      <c r="M19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="N19" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="O19" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="P19" s="6" t="s">
+      <c r="N19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P19" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="Q19" s="6" t="s">
+      <c r="Q19" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="14">
-        <v>3</v>
-      </c>
-      <c r="C20" s="14">
-        <v>1</v>
-      </c>
-      <c r="D20" s="14">
-        <v>110</v>
-      </c>
-      <c r="E20" s="14">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3" t="str">
+      <c r="B20" s="13">
+        <v>3</v>
+      </c>
+      <c r="C20" s="13">
+        <v>2</v>
+      </c>
+      <c r="D20" s="13">
+        <v>133</v>
+      </c>
+      <c r="E20" s="13">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2" t="str">
         <f t="shared" ref="G20:K22" si="9">A20</f>
         <v>Seahawks</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="2">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="2">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J20" s="3">
+        <v>2</v>
+      </c>
+      <c r="J20" s="2">
         <f t="shared" si="9"/>
-        <v>110</v>
-      </c>
-      <c r="K20" s="3">
+        <v>133</v>
+      </c>
+      <c r="K20" s="2">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3" t="str">
+      <c r="L20" s="2"/>
+      <c r="M20" s="2" t="str">
         <f t="shared" ref="M20:Q22" si="10">A23</f>
         <v>Vikings</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="2">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="2">
         <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="P20" s="3">
+        <v>4</v>
+      </c>
+      <c r="P20" s="2">
         <f t="shared" si="10"/>
-        <v>101</v>
-      </c>
-      <c r="Q20" s="3">
+        <v>104</v>
+      </c>
+      <c r="Q20" s="2">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="14">
-        <v>3</v>
-      </c>
-      <c r="C21" s="14">
-        <v>1</v>
-      </c>
-      <c r="D21" s="14">
-        <v>86</v>
-      </c>
-      <c r="E21" s="14">
-        <v>1</v>
-      </c>
-      <c r="G21" s="3" t="str">
+      <c r="B21" s="13">
+        <v>4</v>
+      </c>
+      <c r="C21" s="13">
+        <v>1</v>
+      </c>
+      <c r="D21" s="13">
+        <v>116</v>
+      </c>
+      <c r="E21" s="13">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2" t="str">
         <f t="shared" si="9"/>
         <v>Cardinals</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="2">
         <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="I21" s="3">
+        <v>4</v>
+      </c>
+      <c r="I21" s="2">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="2">
         <f t="shared" si="9"/>
-        <v>86</v>
-      </c>
-      <c r="K21" s="3">
+        <v>116</v>
+      </c>
+      <c r="K21" s="2">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3" t="str">
+      <c r="L21" s="2"/>
+      <c r="M21" s="2" t="str">
         <f t="shared" si="10"/>
         <v>Panthers</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="2">
         <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="O21" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="O21" s="2">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="2">
         <f t="shared" si="10"/>
-        <v>104</v>
-      </c>
-      <c r="Q21" s="3">
+        <v>141</v>
+      </c>
+      <c r="Q21" s="2">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="14">
-        <v>1</v>
-      </c>
-      <c r="C22" s="14">
-        <v>4</v>
-      </c>
-      <c r="D22" s="14">
-        <v>79</v>
-      </c>
-      <c r="E22" s="14">
+      <c r="B22" s="13">
+        <v>1</v>
+      </c>
+      <c r="C22" s="13">
+        <v>5</v>
+      </c>
+      <c r="D22" s="13">
+        <v>96</v>
+      </c>
+      <c r="E22" s="13">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="str">
+      <c r="G22" s="2" t="str">
         <f t="shared" si="9"/>
         <v>Jets</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="2">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="2">
         <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="J22" s="3">
+        <v>5</v>
+      </c>
+      <c r="J22" s="2">
         <f t="shared" si="9"/>
-        <v>79</v>
-      </c>
-      <c r="K22" s="3">
+        <v>96</v>
+      </c>
+      <c r="K22" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3" t="str">
+      <c r="L22" s="2"/>
+      <c r="M22" s="2" t="str">
         <f t="shared" si="10"/>
         <v>Bills</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="2">
         <f>B25</f>
         <v>3</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="2">
         <f>C25</f>
-        <v>2</v>
-      </c>
-      <c r="P22" s="3">
+        <v>3</v>
+      </c>
+      <c r="P22" s="2">
         <f>D25</f>
-        <v>96</v>
-      </c>
-      <c r="Q22" s="3">
+        <v>118</v>
+      </c>
+      <c r="Q22" s="2">
         <f>E25</f>
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="16" thickBot="1">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="14">
-        <v>2</v>
-      </c>
-      <c r="C23" s="14">
-        <v>3</v>
-      </c>
-      <c r="D23" s="14">
-        <v>101</v>
-      </c>
-      <c r="E23" s="14">
-        <v>1</v>
-      </c>
-      <c r="G23" s="4" t="s">
+      <c r="B23" s="13">
+        <v>2</v>
+      </c>
+      <c r="C23" s="13">
+        <v>4</v>
+      </c>
+      <c r="D23" s="13">
+        <v>104</v>
+      </c>
+      <c r="E23" s="13">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <f>SUM(H20:H22)</f>
-        <v>7</v>
-      </c>
-      <c r="I23" s="4">
+        <v>8</v>
+      </c>
+      <c r="I23" s="3">
         <f t="shared" ref="I23" si="11">SUM(I20:I22)</f>
-        <v>6</v>
-      </c>
-      <c r="J23" s="4">
+        <v>8</v>
+      </c>
+      <c r="J23" s="3">
         <f>SUM(J20:J22)</f>
-        <v>275</v>
-      </c>
-      <c r="K23" s="4">
+        <v>345</v>
+      </c>
+      <c r="K23" s="3">
         <f>SUM(K20:K22)</f>
         <v>2</v>
       </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="4" t="s">
+      <c r="L23" s="2"/>
+      <c r="M23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="3">
         <f>SUM(N20:N22)</f>
-        <v>8</v>
-      </c>
-      <c r="O23" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="O23" s="3">
         <f>SUM(O20:O22)</f>
-        <v>7</v>
-      </c>
-      <c r="P23" s="4">
+        <v>9</v>
+      </c>
+      <c r="P23" s="3">
         <f>SUM(P20:P22)</f>
-        <v>301</v>
-      </c>
-      <c r="Q23" s="4">
+        <v>363</v>
+      </c>
+      <c r="Q23" s="3">
         <f>SUM(Q20:Q22)</f>
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="16" thickTop="1">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="14">
-        <v>3</v>
-      </c>
-      <c r="C24" s="14">
-        <v>2</v>
-      </c>
-      <c r="D24" s="14">
-        <v>104</v>
-      </c>
-      <c r="E24" s="14">
-        <v>1</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
+      <c r="B24" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="C24" s="13">
+        <v>2</v>
+      </c>
+      <c r="D24" s="13">
+        <v>141</v>
+      </c>
+      <c r="E24" s="13">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="14">
-        <v>3</v>
-      </c>
-      <c r="C25" s="14">
-        <v>2</v>
-      </c>
-      <c r="D25" s="14">
-        <v>96</v>
-      </c>
-      <c r="E25" s="14">
-        <v>2</v>
-      </c>
-      <c r="G25" s="5" t="s">
+      <c r="A25" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="13">
+        <v>3</v>
+      </c>
+      <c r="C25" s="13">
+        <v>3</v>
+      </c>
+      <c r="D25" s="13">
+        <v>118</v>
+      </c>
+      <c r="E25" s="13">
+        <v>2</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J25" s="6" t="s">
+      <c r="H25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="K25" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="6" t="s">
+      <c r="L25" s="2"/>
+      <c r="M25" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N25" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="O25" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="P25" s="6" t="s">
+      <c r="N25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P25" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="Q25" s="6" t="s">
+      <c r="Q25" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="14">
-        <v>3</v>
-      </c>
-      <c r="C26" s="14">
-        <v>2</v>
-      </c>
-      <c r="D26" s="14">
-        <v>123</v>
-      </c>
-      <c r="E26" s="14">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3" t="str">
+      <c r="B26" s="13">
+        <v>4</v>
+      </c>
+      <c r="C26" s="13">
+        <v>2</v>
+      </c>
+      <c r="D26" s="13">
+        <v>160</v>
+      </c>
+      <c r="E26" s="13">
+        <v>2</v>
+      </c>
+      <c r="G26" s="2" t="str">
         <f t="shared" ref="G26:K28" si="12">A26</f>
         <v>Patriots</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="2">
         <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="I26" s="3">
+        <v>4</v>
+      </c>
+      <c r="I26" s="2">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="2">
         <f t="shared" si="12"/>
-        <v>123</v>
-      </c>
-      <c r="K26" s="3">
+        <v>160</v>
+      </c>
+      <c r="K26" s="2">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3" t="str">
+        <v>2</v>
+      </c>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2" t="str">
         <f t="shared" ref="M26:Q28" si="13">A29</f>
         <v>Chiefs</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="2">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="2">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="2">
         <f t="shared" si="13"/>
         <v>119</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="2">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="14">
-        <v>4</v>
-      </c>
-      <c r="C27" s="14">
-        <v>1</v>
-      </c>
-      <c r="D27" s="14">
-        <v>135</v>
-      </c>
-      <c r="E27" s="14">
-        <v>2</v>
-      </c>
-      <c r="G27" s="3" t="str">
+      <c r="B27" s="13">
+        <v>5</v>
+      </c>
+      <c r="C27" s="13">
+        <v>1</v>
+      </c>
+      <c r="D27" s="13">
+        <v>165</v>
+      </c>
+      <c r="E27" s="13">
+        <v>3</v>
+      </c>
+      <c r="G27" s="2" t="str">
         <f t="shared" si="12"/>
         <v>Cowboys</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="2">
         <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="I27" s="3">
+        <v>5</v>
+      </c>
+      <c r="I27" s="2">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="2">
         <f t="shared" si="12"/>
-        <v>135</v>
-      </c>
-      <c r="K27" s="3">
+        <v>165</v>
+      </c>
+      <c r="K27" s="2">
         <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3" t="str">
+        <v>3</v>
+      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2" t="str">
         <f t="shared" si="13"/>
         <v>Bengals</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="2">
         <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="O27" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="O27" s="2">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="2">
         <f t="shared" si="13"/>
-        <v>97</v>
-      </c>
-      <c r="Q27" s="3">
+        <v>134</v>
+      </c>
+      <c r="Q27" s="2">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="14">
-        <v>3</v>
-      </c>
-      <c r="C28" s="14">
-        <v>2</v>
-      </c>
-      <c r="D28" s="14">
-        <v>104</v>
-      </c>
-      <c r="E28" s="14">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3" t="str">
+      <c r="B28" s="13">
+        <v>3</v>
+      </c>
+      <c r="C28" s="13">
+        <v>3</v>
+      </c>
+      <c r="D28" s="13">
+        <v>132</v>
+      </c>
+      <c r="E28" s="13">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2" t="str">
         <f t="shared" si="12"/>
         <v>Texans</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="2">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="2">
         <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="J28" s="3">
+        <v>3</v>
+      </c>
+      <c r="J28" s="2">
         <f t="shared" si="12"/>
-        <v>104</v>
-      </c>
-      <c r="K28" s="3">
+        <v>132</v>
+      </c>
+      <c r="K28" s="2">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3" t="str">
+      <c r="L28" s="2"/>
+      <c r="M28" s="2" t="str">
         <f t="shared" si="13"/>
         <v>Redskins</v>
       </c>
-      <c r="N28" s="3">
+      <c r="N28" s="2">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="O28" s="3">
+      <c r="O28" s="2">
         <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="P28" s="3">
+        <v>5</v>
+      </c>
+      <c r="P28" s="2">
         <f t="shared" si="13"/>
-        <v>112</v>
-      </c>
-      <c r="Q28" s="3">
+        <v>132</v>
+      </c>
+      <c r="Q28" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="16" thickBot="1">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="14">
-        <v>2</v>
-      </c>
-      <c r="C29" s="14">
-        <v>3</v>
-      </c>
-      <c r="D29" s="14">
+      <c r="B29" s="13">
+        <v>2</v>
+      </c>
+      <c r="C29" s="13">
+        <v>3</v>
+      </c>
+      <c r="D29" s="13">
         <v>119</v>
       </c>
-      <c r="E29" s="14">
-        <v>1</v>
-      </c>
-      <c r="G29" s="4" t="s">
+      <c r="E29" s="13">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="3">
         <f>SUM(H26:H28)</f>
-        <v>10</v>
-      </c>
-      <c r="I29" s="4">
+        <v>12</v>
+      </c>
+      <c r="I29" s="3">
         <f t="shared" ref="I29" si="14">SUM(I26:I28)</f>
+        <v>6</v>
+      </c>
+      <c r="J29" s="3">
+        <f>SUM(J26:J28)</f>
+        <v>457</v>
+      </c>
+      <c r="K29" s="3">
+        <f>SUM(K26:K28)</f>
+        <v>6</v>
+      </c>
+      <c r="L29" s="2"/>
+      <c r="M29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N29" s="3">
+        <f>SUM(N26:N28)</f>
+        <v>6.5</v>
+      </c>
+      <c r="O29" s="3">
+        <f>SUM(O26:O28)</f>
+        <v>9</v>
+      </c>
+      <c r="P29" s="3">
+        <f>SUM(P26:P28)</f>
+        <v>385</v>
+      </c>
+      <c r="Q29" s="3">
+        <f>SUM(Q26:Q28)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="16" thickTop="1">
+      <c r="A30" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="C30" s="13">
+        <v>1</v>
+      </c>
+      <c r="D30" s="13">
+        <v>134</v>
+      </c>
+      <c r="E30" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="13">
+        <v>1</v>
+      </c>
+      <c r="C31" s="13">
         <v>5</v>
       </c>
-      <c r="J29" s="4">
-        <f>SUM(J26:J28)</f>
-        <v>362</v>
-      </c>
-      <c r="K29" s="4">
-        <f>SUM(K26:K28)</f>
-        <v>4</v>
-      </c>
-      <c r="L29" s="3"/>
-      <c r="M29" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N29" s="4">
-        <f>SUM(N26:N28)</f>
+      <c r="D31" s="13">
+        <v>132</v>
+      </c>
+      <c r="E31" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="20">
+      <c r="A32" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="8">
+        <v>1</v>
+      </c>
+      <c r="C32" s="8">
+        <v>4</v>
+      </c>
+      <c r="D32" s="8">
+        <v>101</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="1">
         <v>6</v>
       </c>
-      <c r="O29" s="4">
-        <f>SUM(O26:O28)</f>
-        <v>8</v>
-      </c>
-      <c r="P29" s="4">
-        <f>SUM(P26:P28)</f>
-        <v>328</v>
-      </c>
-      <c r="Q29" s="4">
-        <f>SUM(Q26:Q28)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="16" thickTop="1">
-      <c r="A30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="14">
-        <v>3</v>
-      </c>
-      <c r="C30" s="14">
-        <v>1</v>
-      </c>
-      <c r="D30" s="14">
-        <v>97</v>
-      </c>
-      <c r="E30" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="14">
-        <v>1</v>
-      </c>
-      <c r="C31" s="14">
-        <v>4</v>
-      </c>
-      <c r="D31" s="14">
-        <v>112</v>
-      </c>
-      <c r="E31" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="20">
-      <c r="A32" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="9">
-        <v>1</v>
-      </c>
-      <c r="C32" s="9">
-        <v>3</v>
-      </c>
-      <c r="D32" s="9">
-        <v>84</v>
-      </c>
-      <c r="E32" s="9">
-        <v>1</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="2">
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="8">
+        <v>1</v>
+      </c>
+      <c r="C33" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="9">
-        <v>1</v>
-      </c>
-      <c r="C33" s="9">
-        <v>4</v>
-      </c>
-      <c r="D33" s="9">
-        <v>103</v>
-      </c>
-      <c r="E33" s="9">
+      <c r="D33" s="8">
+        <v>120</v>
+      </c>
+      <c r="E33" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2757,30 +2760,30 @@
     <mergeCell ref="G32:J32"/>
   </mergeCells>
   <conditionalFormatting sqref="D32:D33">
-    <cfRule type="containsText" dxfId="7" priority="19" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="7" priority="25" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",D32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="20" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="6" priority="26" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",D32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5:S14">
-    <cfRule type="cellIs" dxfId="5" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
       <formula>T5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>T5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="lessThan">
       <formula>T5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="21" operator="equal">
       <formula>T5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="22" operator="lessThan">
       <formula>T5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="23" operator="greaterThan">
       <formula>T5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Wins Fantasy League.xlsx
+++ b/Wins Fantasy League.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="25000" windowHeight="15980" tabRatio="500"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="27000" windowHeight="15980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -289,7 +289,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="82">
+  <cellStyleXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -372,8 +372,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -404,12 +410,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="82">
+  <cellStyles count="88">
     <cellStyle name="Bad" xfId="69" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -451,6 +453,9 @@
     <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -491,6 +496,9 @@
     <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
@@ -904,7 +912,7 @@
   <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -987,13 +995,13 @@
         <v>23</v>
       </c>
       <c r="B2" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
       </c>
       <c r="D2" s="2">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="E2" s="2">
         <v>2</v>
@@ -1004,7 +1012,7 @@
       </c>
       <c r="H2" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" si="0"/>
@@ -1012,7 +1020,7 @@
       </c>
       <c r="J2" s="2">
         <f t="shared" si="0"/>
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" si="0"/>
@@ -1025,7 +1033,7 @@
       </c>
       <c r="N2" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O2" s="2">
         <f t="shared" si="1"/>
@@ -1033,7 +1041,7 @@
       </c>
       <c r="P2" s="2">
         <f t="shared" si="1"/>
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="Q2" s="2">
         <f t="shared" si="1"/>
@@ -1048,10 +1056,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E3" s="2">
         <v>3</v>
@@ -1066,11 +1074,11 @@
       </c>
       <c r="I3" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="0"/>
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
@@ -1083,7 +1091,7 @@
       </c>
       <c r="N3" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" si="1"/>
@@ -1091,7 +1099,7 @@
       </c>
       <c r="P3" s="2">
         <f t="shared" si="1"/>
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" si="1"/>
@@ -1114,10 +1122,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -1132,11 +1140,11 @@
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
@@ -1149,7 +1157,7 @@
       </c>
       <c r="N4" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" si="1"/>
@@ -1157,7 +1165,7 @@
       </c>
       <c r="P4" s="2">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="1"/>
@@ -1187,13 +1195,13 @@
         <v>11</v>
       </c>
       <c r="B5" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
       </c>
       <c r="D5" s="2">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="E5" s="2">
         <v>2</v>
@@ -1203,15 +1211,15 @@
       </c>
       <c r="H5" s="3">
         <f>SUM(H2:H4)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I5" s="3">
         <f>SUM(I2:I4)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J5" s="3">
         <f>SUM(J2:J4)</f>
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="K5" s="3">
         <f>SUM(K2:K4)</f>
@@ -1223,7 +1231,7 @@
       </c>
       <c r="N5" s="3">
         <f t="shared" ref="N5:O5" si="2">SUM(N2:N4)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O5" s="3">
         <f t="shared" si="2"/>
@@ -1231,7 +1239,7 @@
       </c>
       <c r="P5" s="3">
         <f>SUM(P2:P4)</f>
-        <v>394</v>
+        <v>475</v>
       </c>
       <c r="Q5" s="3">
         <f>SUM(Q2:Q4)</f>
@@ -1248,11 +1256,11 @@
       </c>
       <c r="V5" s="2">
         <f>$N$17</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W5" s="2">
         <f>$P$17</f>
-        <v>463</v>
+        <v>516</v>
       </c>
       <c r="X5" s="2">
         <f>$Q$17</f>
@@ -1264,13 +1272,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
       </c>
       <c r="D6" s="2">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
@@ -1297,11 +1305,11 @@
       </c>
       <c r="V6" s="2">
         <f>$H$29</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="W6" s="2">
         <f>$J$29</f>
-        <v>457</v>
+        <v>538</v>
       </c>
       <c r="X6" s="2">
         <f>$K$29</f>
@@ -1313,13 +1321,13 @@
         <v>13</v>
       </c>
       <c r="B7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2">
         <v>6</v>
       </c>
       <c r="D7" s="2">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -1359,18 +1367,18 @@
         <v>3</v>
       </c>
       <c r="T7" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U7" s="6" t="s">
         <v>35</v>
       </c>
       <c r="V7" s="2">
         <f>$H$5</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W7" s="2">
         <f>$J$5</f>
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="X7" s="2">
         <f>$K$5</f>
@@ -1378,19 +1386,19 @@
       </c>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="12" t="s">
+      <c r="A8" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="2">
         <v>4</v>
       </c>
-      <c r="C8" s="13">
-        <v>2</v>
-      </c>
-      <c r="D8" s="13">
-        <v>141</v>
-      </c>
-      <c r="E8" s="13">
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>158</v>
+      </c>
+      <c r="E8" s="2">
         <v>2</v>
       </c>
       <c r="G8" s="2" t="str">
@@ -1403,11 +1411,11 @@
       </c>
       <c r="I8" s="2">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="3"/>
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="3"/>
@@ -1424,11 +1432,11 @@
       </c>
       <c r="O8" s="2">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="4"/>
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="4"/>
@@ -1438,38 +1446,38 @@
         <v>4</v>
       </c>
       <c r="T8" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="U8" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V8" s="2">
-        <f>$N$11</f>
-        <v>9</v>
+        <f>$N$5</f>
+        <v>10</v>
       </c>
       <c r="W8" s="2">
-        <f>$P$11</f>
-        <v>460</v>
+        <f>$P$5</f>
+        <v>475</v>
       </c>
       <c r="X8" s="2">
-        <f>$Q$11</f>
-        <v>2</v>
+        <f>$Q$5</f>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="12" t="s">
+      <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="13">
-        <v>3</v>
-      </c>
-      <c r="C9" s="13">
-        <v>3</v>
-      </c>
-      <c r="D9" s="13">
-        <v>133</v>
-      </c>
-      <c r="E9" s="13">
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2">
+        <v>154</v>
+      </c>
+      <c r="E9" s="2">
         <v>1</v>
       </c>
       <c r="G9" s="2" t="str">
@@ -1482,11 +1490,11 @@
       </c>
       <c r="I9" s="2">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="3"/>
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="3"/>
@@ -1503,11 +1511,11 @@
       </c>
       <c r="O9" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="4"/>
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="4"/>
@@ -1517,38 +1525,38 @@
         <v>5</v>
       </c>
       <c r="T9" s="6">
+        <v>6</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="V9" s="2">
+        <f>$H$17</f>
+        <v>10</v>
+      </c>
+      <c r="W9" s="2">
+        <f>$J$17</f>
+        <v>457</v>
+      </c>
+      <c r="X9" s="2">
+        <f>$K$17</f>
         <v>4</v>
       </c>
-      <c r="U9" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="V9" s="2">
-        <f>$N$23</f>
-        <v>8.5</v>
-      </c>
-      <c r="W9" s="2">
-        <f>$P$23</f>
-        <v>363</v>
-      </c>
-      <c r="X9" s="2">
-        <f>$Q$23</f>
-        <v>4</v>
-      </c>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="12" t="s">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="2">
         <v>0</v>
       </c>
-      <c r="C10" s="13">
-        <v>5</v>
-      </c>
-      <c r="D10" s="13">
-        <v>79</v>
-      </c>
-      <c r="E10" s="13">
+      <c r="C10" s="2">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>92</v>
+      </c>
+      <c r="E10" s="2">
         <v>0</v>
       </c>
       <c r="G10" s="2" t="str">
@@ -1561,11 +1569,11 @@
       </c>
       <c r="I10" s="2">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="3"/>
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="3"/>
@@ -1582,11 +1590,11 @@
       </c>
       <c r="O10" s="2">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="4"/>
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="4"/>
@@ -1596,38 +1604,38 @@
         <v>6</v>
       </c>
       <c r="T10" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U10" s="9" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="V10" s="2">
-        <f>$H$17</f>
-        <v>8</v>
+        <f>$N$23</f>
+        <v>9.5</v>
       </c>
       <c r="W10" s="2">
-        <f>$J$17</f>
-        <v>371</v>
+        <f>$P$23</f>
+        <v>413</v>
       </c>
       <c r="X10" s="2">
-        <f>$K$17</f>
-        <v>3</v>
+        <f>$Q$23</f>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="16" thickBot="1">
-      <c r="A11" s="12" t="s">
+      <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="13">
-        <v>2</v>
-      </c>
-      <c r="C11" s="13">
-        <v>3</v>
-      </c>
-      <c r="D11" s="13">
-        <v>132</v>
-      </c>
-      <c r="E11" s="13">
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2">
+        <v>155</v>
+      </c>
+      <c r="E11" s="2">
         <v>0</v>
       </c>
       <c r="G11" s="3" t="s">
@@ -1639,11 +1647,11 @@
       </c>
       <c r="I11" s="3">
         <f t="shared" ref="I11" si="5">SUM(I8:I10)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J11" s="3">
         <f>SUM(J8:J10)</f>
-        <v>353</v>
+        <v>404</v>
       </c>
       <c r="K11" s="3">
         <f>SUM(K8:K10)</f>
@@ -1659,11 +1667,11 @@
       </c>
       <c r="O11" s="3">
         <f>SUM(O8:O10)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="P11" s="3">
         <f>SUM(P8:P10)</f>
-        <v>460</v>
+        <v>510</v>
       </c>
       <c r="Q11" s="3">
         <f>SUM(Q8:Q10)</f>
@@ -1673,38 +1681,38 @@
         <v>7</v>
       </c>
       <c r="T11" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U11" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="V11" s="2">
-        <f>$H$23</f>
-        <v>8</v>
+        <f>$N$11</f>
+        <v>9</v>
       </c>
       <c r="W11" s="2">
-        <f>$J$23</f>
-        <v>345</v>
+        <f>$P$11</f>
+        <v>510</v>
       </c>
       <c r="X11" s="2">
-        <f>$K$23</f>
+        <f>$Q$11</f>
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="16" thickTop="1">
-      <c r="A12" s="12" t="s">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="13">
-        <v>5</v>
-      </c>
-      <c r="C12" s="13">
-        <v>1</v>
-      </c>
-      <c r="D12" s="13">
-        <v>164</v>
-      </c>
-      <c r="E12" s="13">
+      <c r="B12" s="2">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>184</v>
+      </c>
+      <c r="E12" s="2">
         <v>2</v>
       </c>
       <c r="G12" s="2"/>
@@ -1725,35 +1733,35 @@
         <v>7</v>
       </c>
       <c r="U12" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="V12" s="2">
-        <f>$N$5</f>
-        <v>7</v>
+        <f>$H$23</f>
+        <v>9</v>
       </c>
       <c r="W12" s="2">
-        <f>$P$5</f>
-        <v>394</v>
+        <f>$J$23</f>
+        <v>420</v>
       </c>
       <c r="X12" s="2">
-        <f>$Q$5</f>
-        <v>4</v>
+        <f>$K$23</f>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="12" t="s">
+      <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="13">
-        <v>2</v>
-      </c>
-      <c r="C13" s="13">
-        <v>4</v>
-      </c>
-      <c r="D13" s="13">
-        <v>164</v>
-      </c>
-      <c r="E13" s="13">
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2">
+        <v>171</v>
+      </c>
+      <c r="E13" s="2">
         <v>0</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -1794,35 +1802,35 @@
         <v>10</v>
       </c>
       <c r="U13" s="6" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="V13" s="2">
-        <f>$H$11</f>
-        <v>7</v>
+        <f>$N$29</f>
+        <v>8.5</v>
       </c>
       <c r="W13" s="2">
-        <f>$J$11</f>
-        <v>353</v>
+        <f>$P$29</f>
+        <v>427</v>
       </c>
       <c r="X13" s="2">
-        <f>$K$11</f>
+        <f>$Q$29</f>
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="12" t="s">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="13">
-        <v>4</v>
-      </c>
-      <c r="C14" s="13">
-        <v>1</v>
-      </c>
-      <c r="D14" s="13">
-        <v>147</v>
-      </c>
-      <c r="E14" s="13">
+      <c r="B14" s="2">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>189</v>
+      </c>
+      <c r="E14" s="2">
         <v>1</v>
       </c>
       <c r="G14" s="2" t="str">
@@ -1831,7 +1839,7 @@
       </c>
       <c r="H14" s="2">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" si="6"/>
@@ -1839,7 +1847,7 @@
       </c>
       <c r="J14" s="2">
         <f t="shared" si="6"/>
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="6"/>
@@ -1870,39 +1878,39 @@
         <v>10</v>
       </c>
       <c r="T14" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="V14" s="2">
-        <f>$N$29</f>
-        <v>6.5</v>
+        <f>$H$11</f>
+        <v>7</v>
       </c>
       <c r="W14" s="2">
-        <f>$P$29</f>
-        <v>385</v>
+        <f>$J$11</f>
+        <v>404</v>
       </c>
       <c r="X14" s="2">
-        <f>$Q$29</f>
-        <v>2</v>
+        <f>$K$11</f>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:24">
-      <c r="A15" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="13">
-        <v>2</v>
-      </c>
-      <c r="C15" s="13">
-        <v>3</v>
-      </c>
-      <c r="D15" s="13">
-        <v>120</v>
-      </c>
-      <c r="E15" s="13">
-        <v>1</v>
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>147</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
       </c>
       <c r="G15" s="2" t="str">
         <f t="shared" si="6"/>
@@ -1910,7 +1918,7 @@
       </c>
       <c r="H15" s="2">
         <f>B15</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15" s="2">
         <f>C15</f>
@@ -1918,11 +1926,11 @@
       </c>
       <c r="J15" s="2">
         <f>D15</f>
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="K15" s="2">
         <f>E15</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="str">
@@ -1931,7 +1939,7 @@
       </c>
       <c r="N15" s="2">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O15" s="2">
         <f t="shared" si="7"/>
@@ -1939,7 +1947,7 @@
       </c>
       <c r="P15" s="2">
         <f t="shared" si="7"/>
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="7"/>
@@ -1947,19 +1955,19 @@
       </c>
     </row>
     <row r="16" spans="1:24">
-      <c r="A16" s="12" t="s">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="13">
-        <v>2</v>
-      </c>
-      <c r="C16" s="13">
-        <v>4</v>
-      </c>
-      <c r="D16" s="13">
-        <v>104</v>
-      </c>
-      <c r="E16" s="13">
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2">
+        <v>121</v>
+      </c>
+      <c r="E16" s="2">
         <v>1</v>
       </c>
       <c r="G16" s="2" t="str">
@@ -1972,11 +1980,11 @@
       </c>
       <c r="I16" s="2">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="6"/>
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="6"/>
@@ -1989,7 +1997,7 @@
       </c>
       <c r="N16" s="2">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="7"/>
@@ -1997,7 +2005,7 @@
       </c>
       <c r="P16" s="2">
         <f t="shared" si="7"/>
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="7"/>
@@ -2005,19 +2013,19 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="16" thickBot="1">
-      <c r="A17" s="12" t="s">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="13">
-        <v>5</v>
-      </c>
-      <c r="C17" s="13">
-        <v>1</v>
-      </c>
-      <c r="D17" s="13">
+      <c r="B17" s="2">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
         <v>183</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="2">
         <v>1</v>
       </c>
       <c r="G17" s="3" t="s">
@@ -2025,19 +2033,19 @@
       </c>
       <c r="H17" s="3">
         <f>SUM(H14:H16)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" ref="I17" si="8">SUM(I14:I16)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J17" s="3">
         <f>SUM(J14:J16)</f>
-        <v>371</v>
+        <v>457</v>
       </c>
       <c r="K17" s="3">
         <f>SUM(K14:K16)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="3" t="s">
@@ -2045,7 +2053,7 @@
       </c>
       <c r="N17" s="3">
         <f>SUM(N14:N16)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O17" s="3">
         <f>SUM(O14:O16)</f>
@@ -2053,7 +2061,7 @@
       </c>
       <c r="P17" s="3">
         <f>SUM(P14:P16)</f>
-        <v>463</v>
+        <v>516</v>
       </c>
       <c r="Q17" s="3">
         <f>SUM(Q14:Q16)</f>
@@ -2061,19 +2069,19 @@
       </c>
     </row>
     <row r="18" spans="1:17" ht="16" thickTop="1">
-      <c r="A18" s="12" t="s">
+      <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="13">
-        <v>4</v>
-      </c>
-      <c r="C18" s="13">
-        <v>2</v>
-      </c>
-      <c r="D18" s="13">
-        <v>164</v>
-      </c>
-      <c r="E18" s="13">
+      <c r="B18" s="2">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>193</v>
+      </c>
+      <c r="E18" s="2">
         <v>2</v>
       </c>
       <c r="G18" s="2"/>
@@ -2089,19 +2097,19 @@
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="12" t="s">
+      <c r="A19" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="13">
-        <v>4</v>
-      </c>
-      <c r="C19" s="13">
-        <v>2</v>
-      </c>
-      <c r="D19" s="13">
-        <v>116</v>
-      </c>
-      <c r="E19" s="13">
+      <c r="B19" s="2">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>140</v>
+      </c>
+      <c r="E19" s="2">
         <v>2</v>
       </c>
       <c r="G19" s="4" t="s">
@@ -2137,19 +2145,19 @@
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="12" t="s">
+      <c r="A20" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="13">
-        <v>3</v>
-      </c>
-      <c r="C20" s="13">
-        <v>2</v>
-      </c>
-      <c r="D20" s="13">
-        <v>133</v>
-      </c>
-      <c r="E20" s="13">
+      <c r="B20" s="2">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2">
+        <v>159</v>
+      </c>
+      <c r="E20" s="2">
         <v>1</v>
       </c>
       <c r="G20" s="2" t="str">
@@ -2162,11 +2170,11 @@
       </c>
       <c r="I20" s="2">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="9"/>
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="9"/>
@@ -2183,11 +2191,11 @@
       </c>
       <c r="O20" s="2">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" si="10"/>
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="10"/>
@@ -2195,20 +2203,20 @@
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="12" t="s">
+      <c r="A21" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="13">
-        <v>4</v>
-      </c>
-      <c r="C21" s="13">
-        <v>1</v>
-      </c>
-      <c r="D21" s="13">
-        <v>116</v>
-      </c>
-      <c r="E21" s="13">
-        <v>1</v>
+      <c r="B21" s="2">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>140</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2</v>
       </c>
       <c r="G21" s="2" t="str">
         <f t="shared" si="9"/>
@@ -2216,7 +2224,7 @@
       </c>
       <c r="H21" s="2">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" si="9"/>
@@ -2224,11 +2232,11 @@
       </c>
       <c r="J21" s="2">
         <f t="shared" si="9"/>
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2" t="str">
@@ -2241,11 +2249,11 @@
       </c>
       <c r="O21" s="2">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" si="10"/>
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="10"/>
@@ -2253,19 +2261,19 @@
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="12" t="s">
+      <c r="A22" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="13">
-        <v>1</v>
-      </c>
-      <c r="C22" s="13">
-        <v>5</v>
-      </c>
-      <c r="D22" s="13">
-        <v>96</v>
-      </c>
-      <c r="E22" s="13">
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>6</v>
+      </c>
+      <c r="D22" s="2">
+        <v>121</v>
+      </c>
+      <c r="E22" s="2">
         <v>0</v>
       </c>
       <c r="G22" s="2" t="str">
@@ -2278,11 +2286,11 @@
       </c>
       <c r="I22" s="2">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="9"/>
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="9"/>
@@ -2295,7 +2303,7 @@
       </c>
       <c r="N22" s="2">
         <f>B25</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O22" s="2">
         <f>C25</f>
@@ -2303,7 +2311,7 @@
       </c>
       <c r="P22" s="2">
         <f>D25</f>
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="Q22" s="2">
         <f>E25</f>
@@ -2311,19 +2319,19 @@
       </c>
     </row>
     <row r="23" spans="1:17" ht="16" thickBot="1">
-      <c r="A23" s="12" t="s">
+      <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="13">
-        <v>2</v>
-      </c>
-      <c r="C23" s="13">
-        <v>4</v>
-      </c>
-      <c r="D23" s="13">
-        <v>104</v>
-      </c>
-      <c r="E23" s="13">
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2">
+        <v>120</v>
+      </c>
+      <c r="E23" s="2">
         <v>1</v>
       </c>
       <c r="G23" s="3" t="s">
@@ -2331,19 +2339,19 @@
       </c>
       <c r="H23" s="3">
         <f>SUM(H20:H22)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" ref="I23" si="11">SUM(I20:I22)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J23" s="3">
         <f>SUM(J20:J22)</f>
-        <v>345</v>
+        <v>420</v>
       </c>
       <c r="K23" s="3">
         <f>SUM(K20:K22)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="3" t="s">
@@ -2351,15 +2359,15 @@
       </c>
       <c r="N23" s="3">
         <f>SUM(N20:N22)</f>
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="O23" s="3">
         <f>SUM(O20:O22)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="P23" s="3">
         <f>SUM(P20:P22)</f>
-        <v>363</v>
+        <v>413</v>
       </c>
       <c r="Q23" s="3">
         <f>SUM(Q20:Q22)</f>
@@ -2367,19 +2375,19 @@
       </c>
     </row>
     <row r="24" spans="1:17" ht="16" thickTop="1">
-      <c r="A24" s="12" t="s">
+      <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="2">
         <v>3.5</v>
       </c>
-      <c r="C24" s="13">
-        <v>2</v>
-      </c>
-      <c r="D24" s="13">
-        <v>141</v>
-      </c>
-      <c r="E24" s="13">
+      <c r="C24" s="2">
+        <v>3</v>
+      </c>
+      <c r="D24" s="2">
+        <v>158</v>
+      </c>
+      <c r="E24" s="2">
         <v>1</v>
       </c>
       <c r="G24" s="2"/>
@@ -2395,19 +2403,19 @@
       <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="12" t="s">
+      <c r="A25" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="13">
-        <v>3</v>
-      </c>
-      <c r="C25" s="13">
-        <v>3</v>
-      </c>
-      <c r="D25" s="13">
-        <v>118</v>
-      </c>
-      <c r="E25" s="13">
+      <c r="B25" s="2">
+        <v>4</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3</v>
+      </c>
+      <c r="D25" s="2">
+        <v>135</v>
+      </c>
+      <c r="E25" s="2">
         <v>2</v>
       </c>
       <c r="G25" s="4" t="s">
@@ -2443,19 +2451,19 @@
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="12" t="s">
+      <c r="A26" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="13">
-        <v>4</v>
-      </c>
-      <c r="C26" s="13">
-        <v>2</v>
-      </c>
-      <c r="D26" s="13">
-        <v>160</v>
-      </c>
-      <c r="E26" s="13">
+      <c r="B26" s="2">
+        <v>5</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2">
+        <v>187</v>
+      </c>
+      <c r="E26" s="2">
         <v>2</v>
       </c>
       <c r="G26" s="2" t="str">
@@ -2464,7 +2472,7 @@
       </c>
       <c r="H26" s="2">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I26" s="2">
         <f t="shared" si="12"/>
@@ -2472,7 +2480,7 @@
       </c>
       <c r="J26" s="2">
         <f t="shared" si="12"/>
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="12"/>
@@ -2485,7 +2493,7 @@
       </c>
       <c r="N26" s="2">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" si="13"/>
@@ -2493,27 +2501,27 @@
       </c>
       <c r="P26" s="2">
         <f t="shared" si="13"/>
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="12" t="s">
+      <c r="A27" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="13">
-        <v>5</v>
-      </c>
-      <c r="C27" s="13">
-        <v>1</v>
-      </c>
-      <c r="D27" s="13">
-        <v>165</v>
-      </c>
-      <c r="E27" s="13">
+      <c r="B27" s="2">
+        <v>6</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>196</v>
+      </c>
+      <c r="E27" s="2">
         <v>3</v>
       </c>
       <c r="G27" s="2" t="str">
@@ -2522,7 +2530,7 @@
       </c>
       <c r="H27" s="2">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I27" s="2">
         <f t="shared" si="12"/>
@@ -2530,7 +2538,7 @@
       </c>
       <c r="J27" s="2">
         <f t="shared" si="12"/>
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="12"/>
@@ -2547,7 +2555,7 @@
       </c>
       <c r="O27" s="2">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" si="13"/>
@@ -2559,19 +2567,19 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="12" t="s">
+      <c r="A28" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="13">
-        <v>3</v>
-      </c>
-      <c r="C28" s="13">
-        <v>3</v>
-      </c>
-      <c r="D28" s="13">
-        <v>132</v>
-      </c>
-      <c r="E28" s="13">
+      <c r="B28" s="2">
+        <v>3</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2">
+        <v>155</v>
+      </c>
+      <c r="E28" s="2">
         <v>1</v>
       </c>
       <c r="G28" s="2" t="str">
@@ -2584,11 +2592,11 @@
       </c>
       <c r="I28" s="2">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="12"/>
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="12"/>
@@ -2601,7 +2609,7 @@
       </c>
       <c r="N28" s="2">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O28" s="2">
         <f t="shared" si="13"/>
@@ -2609,7 +2617,7 @@
       </c>
       <c r="P28" s="2">
         <f t="shared" si="13"/>
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" si="13"/>
@@ -2617,35 +2625,35 @@
       </c>
     </row>
     <row r="29" spans="1:17" ht="16" thickBot="1">
-      <c r="A29" s="12" t="s">
+      <c r="A29" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="13">
-        <v>2</v>
-      </c>
-      <c r="C29" s="13">
-        <v>3</v>
-      </c>
-      <c r="D29" s="13">
-        <v>119</v>
-      </c>
-      <c r="E29" s="13">
-        <v>1</v>
+      <c r="B29" s="2">
+        <v>3</v>
+      </c>
+      <c r="C29" s="2">
+        <v>3</v>
+      </c>
+      <c r="D29" s="2">
+        <v>142</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H29" s="3">
         <f>SUM(H26:H28)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" ref="I29" si="14">SUM(I26:I28)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J29" s="3">
         <f>SUM(J26:J28)</f>
-        <v>457</v>
+        <v>538</v>
       </c>
       <c r="K29" s="3">
         <f>SUM(K26:K28)</f>
@@ -2657,52 +2665,52 @@
       </c>
       <c r="N29" s="3">
         <f>SUM(N26:N28)</f>
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="O29" s="3">
         <f>SUM(O26:O28)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P29" s="3">
         <f>SUM(P26:P28)</f>
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="Q29" s="3">
         <f>SUM(Q26:Q28)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="16" thickTop="1">
-      <c r="A30" s="12" t="s">
+      <c r="A30" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="2">
         <v>3.5</v>
       </c>
-      <c r="C30" s="13">
-        <v>1</v>
-      </c>
-      <c r="D30" s="13">
+      <c r="C30" s="2">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2">
         <v>134</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="12" t="s">
+      <c r="A31" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="13">
-        <v>1</v>
-      </c>
-      <c r="C31" s="13">
-        <v>5</v>
-      </c>
-      <c r="D31" s="13">
-        <v>132</v>
-      </c>
-      <c r="E31" s="13">
+      <c r="B31" s="2">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2">
+        <v>151</v>
+      </c>
+      <c r="E31" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2711,13 +2719,13 @@
         <v>33</v>
       </c>
       <c r="B32" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" s="8">
         <v>4</v>
       </c>
       <c r="D32" s="8">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="E32" s="8">
         <v>1</v>
@@ -2729,7 +2737,7 @@
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
       <c r="K32" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2760,30 +2768,30 @@
     <mergeCell ref="G32:J32"/>
   </mergeCells>
   <conditionalFormatting sqref="D32:D33">
-    <cfRule type="containsText" dxfId="7" priority="25" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="7" priority="31" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",D32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="26" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="6" priority="32" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",D32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5:S14">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="13" operator="greaterThan">
       <formula>T5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="14" operator="equal">
       <formula>T5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="15" operator="lessThan">
       <formula>T5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="27" operator="equal">
       <formula>T5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="28" operator="lessThan">
       <formula>T5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="29" operator="greaterThan">
       <formula>T5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Wins Fantasy League.xlsx
+++ b/Wins Fantasy League.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="27000" windowHeight="15980" tabRatio="500"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="20700" windowHeight="15980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -911,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -998,10 +998,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="E2" s="2">
         <v>2</v>
@@ -1016,11 +1016,11 @@
       </c>
       <c r="I2" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" si="0"/>
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" si="0"/>
@@ -1037,11 +1037,11 @@
       </c>
       <c r="O2" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P2" s="2">
         <f t="shared" si="1"/>
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="Q2" s="2">
         <f t="shared" si="1"/>
@@ -1056,10 +1056,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="E3" s="2">
         <v>3</v>
@@ -1074,11 +1074,11 @@
       </c>
       <c r="I3" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="0"/>
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="N3" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" si="1"/>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="P3" s="2">
         <f t="shared" si="1"/>
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" si="1"/>
@@ -1119,13 +1119,13 @@
         <v>10</v>
       </c>
       <c r="B4" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
@@ -1161,11 +1161,11 @@
       </c>
       <c r="O4" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" si="1"/>
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="1"/>
@@ -1198,10 +1198,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2">
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="E5" s="2">
         <v>2</v>
@@ -1211,15 +1211,15 @@
       </c>
       <c r="H5" s="3">
         <f>SUM(H2:H4)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I5" s="3">
         <f>SUM(I2:I4)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J5" s="3">
         <f>SUM(J2:J4)</f>
-        <v>496</v>
+        <v>565</v>
       </c>
       <c r="K5" s="3">
         <f>SUM(K2:K4)</f>
@@ -1231,15 +1231,15 @@
       </c>
       <c r="N5" s="3">
         <f t="shared" ref="N5:O5" si="2">SUM(N2:N4)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O5" s="3">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P5" s="3">
         <f>SUM(P2:P4)</f>
-        <v>475</v>
+        <v>573</v>
       </c>
       <c r="Q5" s="3">
         <f>SUM(Q2:Q4)</f>
@@ -1249,22 +1249,22 @@
         <v>1</v>
       </c>
       <c r="T5" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="V5" s="2">
-        <f>$N$17</f>
-        <v>15</v>
+        <f>$H$29</f>
+        <v>16</v>
       </c>
       <c r="W5" s="2">
-        <f>$P$17</f>
-        <v>516</v>
+        <f>$J$29</f>
+        <v>636</v>
       </c>
       <c r="X5" s="2">
-        <f>$Q$17</f>
-        <v>5</v>
+        <f>$K$29</f>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="16" thickTop="1">
@@ -1272,13 +1272,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
       </c>
       <c r="D6" s="2">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
@@ -1298,21 +1298,21 @@
         <v>2</v>
       </c>
       <c r="T6" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U6" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V6" s="2">
-        <f>$H$29</f>
-        <v>14</v>
+        <f>$N$17</f>
+        <v>16</v>
       </c>
       <c r="W6" s="2">
-        <f>$J$29</f>
-        <v>538</v>
+        <f>$P$17</f>
+        <v>582</v>
       </c>
       <c r="X6" s="2">
-        <f>$K$29</f>
+        <f>$Q$17</f>
         <v>6</v>
       </c>
     </row>
@@ -1324,10 +1324,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -1374,11 +1374,11 @@
       </c>
       <c r="V7" s="2">
         <f>$H$5</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W7" s="2">
         <f>$J$5</f>
-        <v>496</v>
+        <v>565</v>
       </c>
       <c r="X7" s="2">
         <f>$K$5</f>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="N8" s="2">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="4"/>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="P8" s="2">
         <f t="shared" si="4"/>
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="4"/>
@@ -1446,22 +1446,22 @@
         <v>4</v>
       </c>
       <c r="T8" s="6">
-        <v>8</v>
-      </c>
-      <c r="U8" s="6" t="s">
-        <v>40</v>
+        <v>5</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="V8" s="2">
-        <f>$N$5</f>
-        <v>10</v>
+        <f>$H$17</f>
+        <v>12</v>
       </c>
       <c r="W8" s="2">
-        <f>$P$5</f>
-        <v>475</v>
+        <f>$J$17</f>
+        <v>535</v>
       </c>
       <c r="X8" s="2">
-        <f>$Q$5</f>
-        <v>4</v>
+        <f>$K$17</f>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1511,11 +1511,11 @@
       </c>
       <c r="O9" s="2">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="4"/>
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="4"/>
@@ -1525,21 +1525,21 @@
         <v>5</v>
       </c>
       <c r="T9" s="6">
-        <v>6</v>
-      </c>
-      <c r="U9" s="9" t="s">
-        <v>37</v>
+        <v>9</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="V9" s="2">
-        <f>$H$17</f>
-        <v>10</v>
+        <f>$N$29</f>
+        <v>11.5</v>
       </c>
       <c r="W9" s="2">
-        <f>$J$17</f>
-        <v>457</v>
+        <f>$P$29</f>
+        <v>508</v>
       </c>
       <c r="X9" s="2">
-        <f>$K$17</f>
+        <f>$Q$29</f>
         <v>4</v>
       </c>
     </row>
@@ -1551,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -1569,11 +1569,11 @@
       </c>
       <c r="I10" s="2">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="3"/>
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="3"/>
@@ -1590,11 +1590,11 @@
       </c>
       <c r="O10" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="4"/>
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="4"/>
@@ -1604,22 +1604,22 @@
         <v>6</v>
       </c>
       <c r="T10" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U10" s="9" t="s">
         <v>43</v>
       </c>
       <c r="V10" s="2">
         <f>$N$23</f>
-        <v>9.5</v>
+        <v>11.5</v>
       </c>
       <c r="W10" s="2">
         <f>$P$23</f>
-        <v>413</v>
+        <v>484</v>
       </c>
       <c r="X10" s="2">
         <f>$Q$23</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="16" thickBot="1">
@@ -1627,13 +1627,13 @@
         <v>27</v>
       </c>
       <c r="B11" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" s="2">
         <v>4</v>
       </c>
       <c r="D11" s="2">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -1647,11 +1647,11 @@
       </c>
       <c r="I11" s="3">
         <f t="shared" ref="I11" si="5">SUM(I8:I10)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J11" s="3">
         <f>SUM(J8:J10)</f>
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="K11" s="3">
         <f>SUM(K8:K10)</f>
@@ -1663,15 +1663,15 @@
       </c>
       <c r="N11" s="3">
         <f>SUM(N8:N10)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O11" s="3">
         <f>SUM(O8:O10)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P11" s="3">
         <f>SUM(P8:P10)</f>
-        <v>510</v>
+        <v>596</v>
       </c>
       <c r="Q11" s="3">
         <f>SUM(Q8:Q10)</f>
@@ -1684,19 +1684,19 @@
         <v>4</v>
       </c>
       <c r="U11" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V11" s="2">
-        <f>$N$11</f>
-        <v>9</v>
+        <f>$N$5</f>
+        <v>11</v>
       </c>
       <c r="W11" s="2">
-        <f>$P$11</f>
-        <v>510</v>
+        <f>$P$5</f>
+        <v>573</v>
       </c>
       <c r="X11" s="2">
-        <f>$Q$11</f>
-        <v>2</v>
+        <f>$Q$5</f>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="16" thickTop="1">
@@ -1707,10 +1707,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" s="2">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="E12" s="2">
         <v>2</v>
@@ -1730,22 +1730,22 @@
         <v>8</v>
       </c>
       <c r="T12" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U12" s="6" t="s">
         <v>38</v>
       </c>
       <c r="V12" s="2">
         <f>$H$23</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="W12" s="2">
         <f>$J$23</f>
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="X12" s="2">
         <f>$K$23</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1756,10 +1756,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" s="2">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -1799,22 +1799,22 @@
         <v>9</v>
       </c>
       <c r="T13" s="6">
+        <v>7</v>
+      </c>
+      <c r="U13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="V13" s="2">
+        <f>$N$11</f>
         <v>10</v>
       </c>
-      <c r="U13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="V13" s="2">
-        <f>$N$29</f>
-        <v>8.5</v>
-      </c>
       <c r="W13" s="2">
-        <f>$P$29</f>
-        <v>427</v>
+        <f>$P$11</f>
+        <v>596</v>
       </c>
       <c r="X13" s="2">
-        <f>$Q$29</f>
-        <v>3</v>
+        <f>$Q$11</f>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1822,13 +1822,13 @@
         <v>15</v>
       </c>
       <c r="B14" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
       </c>
       <c r="D14" s="2">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="H14" s="2">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" si="6"/>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="J14" s="2">
         <f t="shared" si="6"/>
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="6"/>
@@ -1864,11 +1864,11 @@
       </c>
       <c r="O14" s="2">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="7"/>
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="7"/>
@@ -1878,7 +1878,7 @@
         <v>10</v>
       </c>
       <c r="T14" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U14" s="6" t="s">
         <v>36</v>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="W14" s="2">
         <f>$J$11</f>
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="X14" s="2">
         <f>$K$11</f>
@@ -1901,16 +1901,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2">
         <v>3</v>
       </c>
       <c r="D15" s="2">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="E15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15" s="2" t="str">
         <f t="shared" si="6"/>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="H15" s="2">
         <f>B15</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15" s="2">
         <f>C15</f>
@@ -1926,11 +1926,11 @@
       </c>
       <c r="J15" s="2">
         <f>D15</f>
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="K15" s="2">
         <f>E15</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="str">
@@ -1943,11 +1943,11 @@
       </c>
       <c r="O15" s="2">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="7"/>
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="7"/>
@@ -1962,10 +1962,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16" s="2">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -1980,11 +1980,11 @@
       </c>
       <c r="I16" s="2">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="6"/>
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="6"/>
@@ -1997,7 +1997,7 @@
       </c>
       <c r="N16" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="7"/>
@@ -2005,11 +2005,11 @@
       </c>
       <c r="P16" s="2">
         <f t="shared" si="7"/>
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="16" thickBot="1">
@@ -2020,10 +2020,10 @@
         <v>5</v>
       </c>
       <c r="C17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="2">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
@@ -2033,19 +2033,19 @@
       </c>
       <c r="H17" s="3">
         <f>SUM(H14:H16)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" ref="I17" si="8">SUM(I14:I16)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J17" s="3">
         <f>SUM(J14:J16)</f>
-        <v>457</v>
+        <v>535</v>
       </c>
       <c r="K17" s="3">
         <f>SUM(K14:K16)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="3" t="s">
@@ -2053,19 +2053,19 @@
       </c>
       <c r="N17" s="3">
         <f>SUM(N14:N16)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O17" s="3">
         <f>SUM(O14:O16)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P17" s="3">
         <f>SUM(P14:P16)</f>
-        <v>516</v>
+        <v>582</v>
       </c>
       <c r="Q17" s="3">
         <f>SUM(Q14:Q16)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="16" thickTop="1">
@@ -2076,10 +2076,10 @@
         <v>5</v>
       </c>
       <c r="C18" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" s="2">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="E18" s="2">
         <v>2</v>
@@ -2101,16 +2101,16 @@
         <v>25</v>
       </c>
       <c r="B19" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
       </c>
       <c r="D19" s="2">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="E19" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>38</v>
@@ -2149,16 +2149,16 @@
         <v>32</v>
       </c>
       <c r="B20" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" s="2">
         <v>3</v>
       </c>
       <c r="D20" s="2">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="E20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="2" t="str">
         <f t="shared" ref="G20:K22" si="9">A20</f>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="H20" s="2">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" si="9"/>
@@ -2174,11 +2174,11 @@
       </c>
       <c r="J20" s="2">
         <f t="shared" si="9"/>
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2" t="str">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="N20" s="2">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="10"/>
@@ -2195,11 +2195,11 @@
       </c>
       <c r="P20" s="2">
         <f t="shared" si="10"/>
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -2207,13 +2207,13 @@
         <v>34</v>
       </c>
       <c r="B21" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
       </c>
       <c r="D21" s="2">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="E21" s="2">
         <v>2</v>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="H21" s="2">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" si="9"/>
@@ -2232,7 +2232,7 @@
       </c>
       <c r="J21" s="2">
         <f t="shared" si="9"/>
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="9"/>
@@ -2249,11 +2249,11 @@
       </c>
       <c r="O21" s="2">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" si="10"/>
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="10"/>
@@ -2268,10 +2268,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D22" s="2">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
@@ -2286,11 +2286,11 @@
       </c>
       <c r="I22" s="2">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="9"/>
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="9"/>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="N22" s="2">
         <f>B25</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O22" s="2">
         <f>C25</f>
@@ -2311,11 +2311,11 @@
       </c>
       <c r="P22" s="2">
         <f>D25</f>
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="Q22" s="2">
         <f>E25</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="16" thickBot="1">
@@ -2323,35 +2323,35 @@
         <v>26</v>
       </c>
       <c r="B23" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" s="2">
         <v>5</v>
       </c>
       <c r="D23" s="2">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="E23" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H23" s="3">
         <f>SUM(H20:H22)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" ref="I23" si="11">SUM(I20:I22)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J23" s="3">
         <f>SUM(J20:J22)</f>
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="K23" s="3">
         <f>SUM(K20:K22)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="3" t="s">
@@ -2359,19 +2359,19 @@
       </c>
       <c r="N23" s="3">
         <f>SUM(N20:N22)</f>
-        <v>9.5</v>
+        <v>11.5</v>
       </c>
       <c r="O23" s="3">
         <f>SUM(O20:O22)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P23" s="3">
         <f>SUM(P20:P22)</f>
-        <v>413</v>
+        <v>484</v>
       </c>
       <c r="Q23" s="3">
         <f>SUM(Q20:Q22)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="16" thickTop="1">
@@ -2382,10 +2382,10 @@
         <v>3.5</v>
       </c>
       <c r="C24" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" s="2">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
@@ -2407,16 +2407,16 @@
         <v>4</v>
       </c>
       <c r="B25" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25" s="2">
         <v>3</v>
       </c>
       <c r="D25" s="2">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="E25" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>39</v>
@@ -2455,13 +2455,13 @@
         <v>0</v>
       </c>
       <c r="B26" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" s="2">
         <v>2</v>
       </c>
       <c r="D26" s="2">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="E26" s="2">
         <v>2</v>
@@ -2472,7 +2472,7 @@
       </c>
       <c r="H26" s="2">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I26" s="2">
         <f t="shared" si="12"/>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="J26" s="2">
         <f t="shared" si="12"/>
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="12"/>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="N26" s="2">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" si="13"/>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="P26" s="2">
         <f t="shared" si="13"/>
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="13"/>
@@ -2516,10 +2516,10 @@
         <v>6</v>
       </c>
       <c r="C27" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" s="2">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="E27" s="2">
         <v>3</v>
@@ -2534,11 +2534,11 @@
       </c>
       <c r="I27" s="2">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="12"/>
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="12"/>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="N27" s="2">
         <f t="shared" si="13"/>
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="O27" s="2">
         <f t="shared" si="13"/>
@@ -2559,7 +2559,7 @@
       </c>
       <c r="P27" s="2">
         <f t="shared" si="13"/>
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" si="13"/>
@@ -2571,16 +2571,16 @@
         <v>14</v>
       </c>
       <c r="B28" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28" s="2">
         <v>4</v>
       </c>
       <c r="D28" s="2">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="E28" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" s="2" t="str">
         <f t="shared" si="12"/>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="H28" s="2">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I28" s="2">
         <f t="shared" si="12"/>
@@ -2596,11 +2596,11 @@
       </c>
       <c r="J28" s="2">
         <f t="shared" si="12"/>
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2" t="str">
@@ -2609,7 +2609,7 @@
       </c>
       <c r="N28" s="2">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O28" s="2">
         <f t="shared" si="13"/>
@@ -2617,11 +2617,11 @@
       </c>
       <c r="P28" s="2">
         <f t="shared" si="13"/>
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="16" thickBot="1">
@@ -2629,13 +2629,13 @@
         <v>17</v>
       </c>
       <c r="B29" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C29" s="2">
         <v>3</v>
       </c>
       <c r="D29" s="2">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="E29" s="2">
         <v>2</v>
@@ -2645,19 +2645,19 @@
       </c>
       <c r="H29" s="3">
         <f>SUM(H26:H28)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" ref="I29" si="14">SUM(I26:I28)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J29" s="3">
         <f>SUM(J26:J28)</f>
-        <v>538</v>
+        <v>636</v>
       </c>
       <c r="K29" s="3">
         <f>SUM(K26:K28)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="3" t="s">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="N29" s="3">
         <f>SUM(N26:N28)</f>
-        <v>8.5</v>
+        <v>11.5</v>
       </c>
       <c r="O29" s="3">
         <f>SUM(O26:O28)</f>
@@ -2673,11 +2673,11 @@
       </c>
       <c r="P29" s="3">
         <f>SUM(P26:P28)</f>
-        <v>427</v>
+        <v>508</v>
       </c>
       <c r="Q29" s="3">
         <f>SUM(Q26:Q28)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="16" thickTop="1">
@@ -2685,13 +2685,13 @@
         <v>7</v>
       </c>
       <c r="B30" s="2">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="C30" s="2">
         <v>2</v>
       </c>
       <c r="D30" s="2">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="E30" s="2">
         <v>1</v>
@@ -2702,16 +2702,16 @@
         <v>22</v>
       </c>
       <c r="B31" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31" s="2">
         <v>5</v>
       </c>
       <c r="D31" s="2">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="E31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="20">
@@ -2722,10 +2722,10 @@
         <v>2</v>
       </c>
       <c r="C32" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" s="8">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E32" s="8">
         <v>1</v>
@@ -2737,7 +2737,7 @@
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
       <c r="K32" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2748,10 +2748,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D33" s="8">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="E33" s="8">
         <v>1</v>

--- a/Wins Fantasy League.xlsx
+++ b/Wins Fantasy League.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="20700" windowHeight="15980" tabRatio="500"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="29300" windowHeight="15980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -289,7 +289,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="88">
+  <cellStyleXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -360,6 +360,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -411,7 +413,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="88">
+  <cellStyles count="90">
     <cellStyle name="Bad" xfId="69" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -456,6 +458,7 @@
     <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -499,9 +502,270 @@
     <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="34">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -911,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1033,7 +1297,7 @@
       </c>
       <c r="N2" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O2" s="2">
         <f t="shared" si="1"/>
@@ -1041,11 +1305,11 @@
       </c>
       <c r="P2" s="2">
         <f t="shared" si="1"/>
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="Q2" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="18">
@@ -1091,7 +1355,7 @@
       </c>
       <c r="N3" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" si="1"/>
@@ -1099,7 +1363,7 @@
       </c>
       <c r="P3" s="2">
         <f t="shared" si="1"/>
-        <v>205</v>
+        <v>248</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" si="1"/>
@@ -1119,13 +1383,13 @@
         <v>10</v>
       </c>
       <c r="B4" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -1136,7 +1400,7 @@
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
@@ -1144,7 +1408,7 @@
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
@@ -1161,11 +1425,11 @@
       </c>
       <c r="O4" s="2">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" si="1"/>
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="1"/>
@@ -1195,23 +1459,23 @@
         <v>11</v>
       </c>
       <c r="B5" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2">
         <v>3</v>
       </c>
       <c r="D5" s="2">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="E5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H5" s="3">
         <f>SUM(H2:H4)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I5" s="3">
         <f>SUM(I2:I4)</f>
@@ -1219,7 +1483,7 @@
       </c>
       <c r="J5" s="3">
         <f>SUM(J2:J4)</f>
-        <v>565</v>
+        <v>587</v>
       </c>
       <c r="K5" s="3">
         <f>SUM(K2:K4)</f>
@@ -1231,36 +1495,36 @@
       </c>
       <c r="N5" s="3">
         <f t="shared" ref="N5:O5" si="2">SUM(N2:N4)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O5" s="3">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P5" s="3">
         <f>SUM(P2:P4)</f>
-        <v>573</v>
+        <v>679</v>
       </c>
       <c r="Q5" s="3">
         <f>SUM(Q2:Q4)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S5" s="6">
         <v>1</v>
       </c>
       <c r="T5" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U5" s="6" t="s">
         <v>39</v>
       </c>
       <c r="V5" s="2">
         <f>$H$29</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W5" s="2">
         <f>$J$29</f>
-        <v>636</v>
+        <v>717</v>
       </c>
       <c r="X5" s="2">
         <f>$K$29</f>
@@ -1272,13 +1536,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
       </c>
       <c r="D6" s="2">
-        <v>205</v>
+        <v>248</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
@@ -1298,22 +1562,22 @@
         <v>2</v>
       </c>
       <c r="T6" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U6" s="6" t="s">
         <v>42</v>
       </c>
       <c r="V6" s="2">
         <f>$N$17</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W6" s="2">
         <f>$P$17</f>
-        <v>582</v>
+        <v>636</v>
       </c>
       <c r="X6" s="2">
         <f>$Q$17</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -1324,10 +1588,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -1367,22 +1631,22 @@
         <v>3</v>
       </c>
       <c r="T7" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U7" s="6" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="V7" s="2">
-        <f>$H$5</f>
-        <v>12</v>
+        <f>$N$29</f>
+        <v>13.5</v>
       </c>
       <c r="W7" s="2">
-        <f>$J$5</f>
-        <v>565</v>
+        <f>$P$29</f>
+        <v>591</v>
       </c>
       <c r="X7" s="2">
-        <f>$K$5</f>
-        <v>6</v>
+        <f>$Q$29</f>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -1393,10 +1657,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" s="2">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
@@ -1411,11 +1675,11 @@
       </c>
       <c r="I8" s="2">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="3"/>
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="3"/>
@@ -1428,7 +1692,7 @@
       </c>
       <c r="N8" s="2">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="4"/>
@@ -1436,31 +1700,31 @@
       </c>
       <c r="P8" s="2">
         <f t="shared" si="4"/>
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="6">
         <v>4</v>
       </c>
       <c r="T8" s="6">
-        <v>5</v>
-      </c>
-      <c r="U8" s="9" t="s">
-        <v>37</v>
+        <v>7</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="V8" s="2">
-        <f>$H$17</f>
-        <v>12</v>
+        <f>$N$5</f>
+        <v>13</v>
       </c>
       <c r="W8" s="2">
-        <f>$J$17</f>
-        <v>535</v>
+        <f>$P$5</f>
+        <v>679</v>
       </c>
       <c r="X8" s="2">
-        <f>$K$17</f>
+        <f>$Q$5</f>
         <v>5</v>
       </c>
     </row>
@@ -1472,10 +1736,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" s="2">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -1490,11 +1754,11 @@
       </c>
       <c r="I9" s="2">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="3"/>
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="3"/>
@@ -1511,7 +1775,7 @@
       </c>
       <c r="O9" s="2">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="4"/>
@@ -1525,22 +1789,22 @@
         <v>5</v>
       </c>
       <c r="T9" s="6">
-        <v>9</v>
-      </c>
-      <c r="U9" s="6" t="s">
-        <v>44</v>
+        <v>4</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="V9" s="2">
-        <f>$N$29</f>
-        <v>11.5</v>
+        <f>$H$17</f>
+        <v>13</v>
       </c>
       <c r="W9" s="2">
-        <f>$P$29</f>
-        <v>508</v>
+        <f>$J$17</f>
+        <v>593</v>
       </c>
       <c r="X9" s="2">
-        <f>$Q$29</f>
-        <v>4</v>
+        <f>$K$17</f>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1551,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -1569,11 +1833,11 @@
       </c>
       <c r="I10" s="2">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="3"/>
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="3"/>
@@ -1604,21 +1868,21 @@
         <v>6</v>
       </c>
       <c r="T10" s="6">
-        <v>6</v>
-      </c>
-      <c r="U10" s="9" t="s">
-        <v>43</v>
+        <v>3</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="V10" s="2">
-        <f>$N$23</f>
-        <v>11.5</v>
+        <f>$H$5</f>
+        <v>13</v>
       </c>
       <c r="W10" s="2">
-        <f>$P$23</f>
-        <v>484</v>
+        <f>$J$5</f>
+        <v>587</v>
       </c>
       <c r="X10" s="2">
-        <f>$Q$23</f>
+        <f>$K$5</f>
         <v>6</v>
       </c>
     </row>
@@ -1627,16 +1891,16 @@
         <v>27</v>
       </c>
       <c r="B11" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="2">
         <v>4</v>
       </c>
       <c r="D11" s="2">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>45</v>
@@ -1647,11 +1911,11 @@
       </c>
       <c r="I11" s="3">
         <f t="shared" ref="I11" si="5">SUM(I8:I10)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J11" s="3">
         <f>SUM(J8:J10)</f>
-        <v>417</v>
+        <v>475</v>
       </c>
       <c r="K11" s="3">
         <f>SUM(K8:K10)</f>
@@ -1663,40 +1927,40 @@
       </c>
       <c r="N11" s="3">
         <f>SUM(N8:N10)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O11" s="3">
         <f>SUM(O8:O10)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P11" s="3">
         <f>SUM(P8:P10)</f>
-        <v>596</v>
+        <v>624</v>
       </c>
       <c r="Q11" s="3">
         <f>SUM(Q8:Q10)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S11" s="6">
         <v>7</v>
       </c>
       <c r="T11" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U11" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="V11" s="2">
-        <f>$N$5</f>
-        <v>11</v>
+        <f>$H$23</f>
+        <v>13</v>
       </c>
       <c r="W11" s="2">
-        <f>$P$5</f>
-        <v>573</v>
+        <f>$J$23</f>
+        <v>548</v>
       </c>
       <c r="X11" s="2">
-        <f>$Q$5</f>
-        <v>4</v>
+        <f>$K$23</f>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="16" thickTop="1">
@@ -1707,7 +1971,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" s="2">
         <v>205</v>
@@ -1730,22 +1994,22 @@
         <v>8</v>
       </c>
       <c r="T12" s="6">
-        <v>8</v>
-      </c>
-      <c r="U12" s="6" t="s">
-        <v>38</v>
+        <v>6</v>
+      </c>
+      <c r="U12" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="V12" s="2">
-        <f>$H$23</f>
-        <v>11</v>
+        <f>$N$23</f>
+        <v>12.5</v>
       </c>
       <c r="W12" s="2">
-        <f>$J$23</f>
-        <v>480</v>
+        <f>$P$23</f>
+        <v>523</v>
       </c>
       <c r="X12" s="2">
-        <f>$K$23</f>
-        <v>4</v>
+        <f>$Q$23</f>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1799,22 +2063,22 @@
         <v>9</v>
       </c>
       <c r="T13" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U13" s="6" t="s">
         <v>41</v>
       </c>
       <c r="V13" s="2">
         <f>$N$11</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W13" s="2">
         <f>$P$11</f>
-        <v>596</v>
+        <v>624</v>
       </c>
       <c r="X13" s="2">
         <f>$Q$11</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1825,10 +2089,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="2">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -1843,11 +2107,11 @@
       </c>
       <c r="I14" s="2">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="6"/>
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="6"/>
@@ -1860,7 +2124,7 @@
       </c>
       <c r="N14" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O14" s="2">
         <f t="shared" si="7"/>
@@ -1868,11 +2132,11 @@
       </c>
       <c r="P14" s="2">
         <f t="shared" si="7"/>
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S14" s="6">
         <v>10</v>
@@ -1889,7 +2153,7 @@
       </c>
       <c r="W14" s="2">
         <f>$J$11</f>
-        <v>417</v>
+        <v>475</v>
       </c>
       <c r="X14" s="2">
         <f>$K$11</f>
@@ -1901,13 +2165,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2">
         <v>3</v>
       </c>
       <c r="D15" s="2">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="E15" s="2">
         <v>3</v>
@@ -1918,7 +2182,7 @@
       </c>
       <c r="H15" s="2">
         <f>B15</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I15" s="2">
         <f>C15</f>
@@ -1926,7 +2190,7 @@
       </c>
       <c r="J15" s="2">
         <f>D15</f>
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="K15" s="2">
         <f>E15</f>
@@ -1943,11 +2207,11 @@
       </c>
       <c r="O15" s="2">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="7"/>
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="7"/>
@@ -2017,31 +2281,31 @@
         <v>19</v>
       </c>
       <c r="B17" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
       </c>
       <c r="D17" s="2">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="E17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H17" s="3">
         <f>SUM(H14:H16)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" ref="I17" si="8">SUM(I14:I16)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J17" s="3">
         <f>SUM(J14:J16)</f>
-        <v>535</v>
+        <v>593</v>
       </c>
       <c r="K17" s="3">
         <f>SUM(K14:K16)</f>
@@ -2053,19 +2317,19 @@
       </c>
       <c r="N17" s="3">
         <f>SUM(N14:N16)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O17" s="3">
         <f>SUM(O14:O16)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P17" s="3">
         <f>SUM(P14:P16)</f>
-        <v>582</v>
+        <v>636</v>
       </c>
       <c r="Q17" s="3">
         <f>SUM(Q14:Q16)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="16" thickTop="1">
@@ -2076,10 +2340,10 @@
         <v>5</v>
       </c>
       <c r="C18" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" s="2">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="E18" s="2">
         <v>2</v>
@@ -2149,13 +2413,13 @@
         <v>32</v>
       </c>
       <c r="B20" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" s="2">
         <v>3</v>
       </c>
       <c r="D20" s="2">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="E20" s="2">
         <v>2</v>
@@ -2166,7 +2430,7 @@
       </c>
       <c r="H20" s="2">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" si="9"/>
@@ -2174,7 +2438,7 @@
       </c>
       <c r="J20" s="2">
         <f t="shared" si="9"/>
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="9"/>
@@ -2187,7 +2451,7 @@
       </c>
       <c r="N20" s="2">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="10"/>
@@ -2195,7 +2459,7 @@
       </c>
       <c r="P20" s="2">
         <f t="shared" si="10"/>
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="10"/>
@@ -2207,16 +2471,16 @@
         <v>34</v>
       </c>
       <c r="B21" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
       </c>
       <c r="D21" s="2">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="E21" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21" s="2" t="str">
         <f t="shared" si="9"/>
@@ -2224,7 +2488,7 @@
       </c>
       <c r="H21" s="2">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" si="9"/>
@@ -2232,11 +2496,11 @@
       </c>
       <c r="J21" s="2">
         <f t="shared" si="9"/>
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2" t="str">
@@ -2249,11 +2513,11 @@
       </c>
       <c r="O21" s="2">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" si="10"/>
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="10"/>
@@ -2268,10 +2532,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D22" s="2">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
@@ -2286,11 +2550,11 @@
       </c>
       <c r="I22" s="2">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="9"/>
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="9"/>
@@ -2323,13 +2587,13 @@
         <v>26</v>
       </c>
       <c r="B23" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" s="2">
         <v>5</v>
       </c>
       <c r="D23" s="2">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="E23" s="2">
         <v>2</v>
@@ -2339,19 +2603,19 @@
       </c>
       <c r="H23" s="3">
         <f>SUM(H20:H22)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" ref="I23" si="11">SUM(I20:I22)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J23" s="3">
         <f>SUM(J20:J22)</f>
-        <v>480</v>
+        <v>548</v>
       </c>
       <c r="K23" s="3">
         <f>SUM(K20:K22)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="3" t="s">
@@ -2359,15 +2623,15 @@
       </c>
       <c r="N23" s="3">
         <f>SUM(N20:N22)</f>
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="O23" s="3">
         <f>SUM(O20:O22)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P23" s="3">
         <f>SUM(P20:P22)</f>
-        <v>484</v>
+        <v>523</v>
       </c>
       <c r="Q23" s="3">
         <f>SUM(Q20:Q22)</f>
@@ -2382,10 +2646,10 @@
         <v>3.5</v>
       </c>
       <c r="C24" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" s="2">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
@@ -2455,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="B26" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C26" s="2">
         <v>2</v>
       </c>
       <c r="D26" s="2">
-        <v>238</v>
+        <v>281</v>
       </c>
       <c r="E26" s="2">
         <v>2</v>
@@ -2472,7 +2736,7 @@
       </c>
       <c r="H26" s="2">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I26" s="2">
         <f t="shared" si="12"/>
@@ -2480,7 +2744,7 @@
       </c>
       <c r="J26" s="2">
         <f t="shared" si="12"/>
-        <v>238</v>
+        <v>281</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="12"/>
@@ -2493,7 +2757,7 @@
       </c>
       <c r="N26" s="2">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" si="13"/>
@@ -2501,7 +2765,7 @@
       </c>
       <c r="P26" s="2">
         <f t="shared" si="13"/>
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="13"/>
@@ -2516,10 +2780,10 @@
         <v>6</v>
       </c>
       <c r="C27" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" s="2">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="E27" s="2">
         <v>3</v>
@@ -2534,11 +2798,11 @@
       </c>
       <c r="I27" s="2">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="12"/>
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="12"/>
@@ -2551,7 +2815,7 @@
       </c>
       <c r="N27" s="2">
         <f t="shared" si="13"/>
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="O27" s="2">
         <f t="shared" si="13"/>
@@ -2559,7 +2823,7 @@
       </c>
       <c r="P27" s="2">
         <f t="shared" si="13"/>
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" si="13"/>
@@ -2574,10 +2838,10 @@
         <v>4</v>
       </c>
       <c r="C28" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" s="2">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="E28" s="2">
         <v>2</v>
@@ -2592,11 +2856,11 @@
       </c>
       <c r="I28" s="2">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="12"/>
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="12"/>
@@ -2613,11 +2877,11 @@
       </c>
       <c r="O28" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" si="13"/>
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" si="13"/>
@@ -2629,13 +2893,13 @@
         <v>17</v>
       </c>
       <c r="B29" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C29" s="2">
         <v>3</v>
       </c>
       <c r="D29" s="2">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="E29" s="2">
         <v>2</v>
@@ -2645,15 +2909,15 @@
       </c>
       <c r="H29" s="3">
         <f>SUM(H26:H28)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" ref="I29" si="14">SUM(I26:I28)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J29" s="3">
         <f>SUM(J26:J28)</f>
-        <v>636</v>
+        <v>717</v>
       </c>
       <c r="K29" s="3">
         <f>SUM(K26:K28)</f>
@@ -2665,15 +2929,15 @@
       </c>
       <c r="N29" s="3">
         <f>SUM(N26:N28)</f>
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="O29" s="3">
         <f>SUM(O26:O28)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P29" s="3">
         <f>SUM(P26:P28)</f>
-        <v>508</v>
+        <v>591</v>
       </c>
       <c r="Q29" s="3">
         <f>SUM(Q26:Q28)</f>
@@ -2685,13 +2949,13 @@
         <v>7</v>
       </c>
       <c r="B30" s="2">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C30" s="2">
         <v>2</v>
       </c>
       <c r="D30" s="2">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="E30" s="2">
         <v>1</v>
@@ -2705,10 +2969,10 @@
         <v>3</v>
       </c>
       <c r="C31" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D31" s="2">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="E31" s="2">
         <v>1</v>
@@ -2719,16 +2983,16 @@
         <v>33</v>
       </c>
       <c r="B32" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C32" s="8">
         <v>5</v>
       </c>
       <c r="D32" s="8">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="E32" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>46</v>
@@ -2737,7 +3001,7 @@
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
       <c r="K32" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2748,10 +3012,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D33" s="8">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="E33" s="8">
         <v>1</v>
@@ -2768,30 +3032,30 @@
     <mergeCell ref="G32:J32"/>
   </mergeCells>
   <conditionalFormatting sqref="D32:D33">
-    <cfRule type="containsText" dxfId="7" priority="31" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="33" priority="37" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",D32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="32" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="32" priority="38" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",D32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5:S14">
-    <cfRule type="cellIs" dxfId="5" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="19" operator="greaterThan">
       <formula>T5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="20" operator="equal">
       <formula>T5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="21" operator="lessThan">
       <formula>T5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="33" operator="equal">
       <formula>T5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="34" operator="lessThan">
       <formula>T5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="35" operator="greaterThan">
       <formula>T5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Wins Fantasy League.xlsx
+++ b/Wins Fantasy League.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="29300" windowHeight="15980" tabRatio="500"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="26360" windowHeight="15980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -236,6 +236,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -289,7 +296,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="90">
+  <cellStyleXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -380,8 +387,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -412,8 +421,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="90">
+  <cellStyles count="92">
     <cellStyle name="Bad" xfId="69" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -459,6 +472,7 @@
     <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -503,6 +517,7 @@
     <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="34">
@@ -1176,7 +1191,7 @@
   <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1259,13 +1274,13 @@
         <v>23</v>
       </c>
       <c r="B2" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2">
         <v>3</v>
       </c>
       <c r="D2" s="2">
-        <v>222</v>
+        <v>277</v>
       </c>
       <c r="E2" s="2">
         <v>2</v>
@@ -1276,7 +1291,7 @@
       </c>
       <c r="H2" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" si="0"/>
@@ -1284,7 +1299,7 @@
       </c>
       <c r="J2" s="2">
         <f t="shared" si="0"/>
-        <v>222</v>
+        <v>277</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" si="0"/>
@@ -1320,10 +1335,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="E3" s="2">
         <v>3</v>
@@ -1338,11 +1353,11 @@
       </c>
       <c r="I3" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
@@ -1359,11 +1374,11 @@
       </c>
       <c r="O3" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" si="1"/>
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" si="1"/>
@@ -1383,16 +1398,16 @@
         <v>10</v>
       </c>
       <c r="B4" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="E4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1400,7 +1415,7 @@
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
@@ -1408,11 +1423,11 @@
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2" t="str">
@@ -1425,11 +1440,11 @@
       </c>
       <c r="O4" s="2">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" si="1"/>
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="1"/>
@@ -1475,19 +1490,19 @@
       </c>
       <c r="H5" s="3">
         <f>SUM(H2:H4)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I5" s="3">
         <f>SUM(I2:I4)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J5" s="3">
         <f>SUM(J2:J4)</f>
-        <v>587</v>
+        <v>680</v>
       </c>
       <c r="K5" s="3">
         <f>SUM(K2:K4)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="3" t="s">
@@ -1499,11 +1514,11 @@
       </c>
       <c r="O5" s="3">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P5" s="3">
         <f>SUM(P2:P4)</f>
-        <v>679</v>
+        <v>709</v>
       </c>
       <c r="Q5" s="3">
         <f>SUM(Q2:Q4)</f>
@@ -1513,21 +1528,21 @@
         <v>1</v>
       </c>
       <c r="T5" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V5" s="2">
-        <f>$H$29</f>
-        <v>17</v>
+        <f>$N$17</f>
+        <v>20</v>
       </c>
       <c r="W5" s="2">
-        <f>$J$29</f>
-        <v>717</v>
+        <f>$P$17</f>
+        <v>722</v>
       </c>
       <c r="X5" s="2">
-        <f>$K$29</f>
+        <f>$Q$17</f>
         <v>7</v>
       </c>
     </row>
@@ -1539,10 +1554,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" s="2">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
@@ -1562,22 +1577,22 @@
         <v>2</v>
       </c>
       <c r="T6" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U6" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="V6" s="2">
-        <f>$N$17</f>
-        <v>17</v>
+        <f>$H$29</f>
+        <v>18</v>
       </c>
       <c r="W6" s="2">
-        <f>$P$17</f>
-        <v>636</v>
+        <f>$J$29</f>
+        <v>748</v>
       </c>
       <c r="X6" s="2">
-        <f>$Q$17</f>
-        <v>7</v>
+        <f>$K$29</f>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -1588,10 +1603,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -1631,22 +1646,22 @@
         <v>3</v>
       </c>
       <c r="T7" s="6">
+        <v>7</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="V7" s="2">
+        <f>$H$23</f>
+        <v>16</v>
+      </c>
+      <c r="W7" s="2">
+        <f>$J$23</f>
+        <v>637</v>
+      </c>
+      <c r="X7" s="2">
+        <f>$K$23</f>
         <v>5</v>
-      </c>
-      <c r="U7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="V7" s="2">
-        <f>$N$29</f>
-        <v>13.5</v>
-      </c>
-      <c r="W7" s="2">
-        <f>$P$29</f>
-        <v>591</v>
-      </c>
-      <c r="X7" s="2">
-        <f>$Q$29</f>
-        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -1654,16 +1669,16 @@
         <v>31</v>
       </c>
       <c r="B8" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2">
         <v>4</v>
       </c>
       <c r="D8" s="2">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="E8" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" s="2" t="str">
         <f t="shared" ref="G8:K10" si="3">A8</f>
@@ -1671,7 +1686,7 @@
       </c>
       <c r="H8" s="2">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="3"/>
@@ -1679,11 +1694,11 @@
       </c>
       <c r="J8" s="2">
         <f t="shared" si="3"/>
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2" t="str">
@@ -1696,11 +1711,11 @@
       </c>
       <c r="O8" s="2">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="4"/>
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="4"/>
@@ -1710,22 +1725,22 @@
         <v>4</v>
       </c>
       <c r="T8" s="6">
+        <v>6</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="V8" s="2">
+        <f>$H$5</f>
+        <v>15</v>
+      </c>
+      <c r="W8" s="2">
+        <f>$J$5</f>
+        <v>680</v>
+      </c>
+      <c r="X8" s="2">
+        <f>$K$5</f>
         <v>7</v>
-      </c>
-      <c r="U8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="V8" s="2">
-        <f>$N$5</f>
-        <v>13</v>
-      </c>
-      <c r="W8" s="2">
-        <f>$P$5</f>
-        <v>679</v>
-      </c>
-      <c r="X8" s="2">
-        <f>$Q$5</f>
-        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1736,10 +1751,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" s="2">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -1754,11 +1769,11 @@
       </c>
       <c r="I9" s="2">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="3"/>
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="3"/>
@@ -1789,21 +1804,21 @@
         <v>5</v>
       </c>
       <c r="T9" s="6">
-        <v>4</v>
-      </c>
-      <c r="U9" s="9" t="s">
-        <v>37</v>
+        <v>3</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="V9" s="2">
-        <f>$H$17</f>
-        <v>13</v>
+        <f>$N$29</f>
+        <v>14.5</v>
       </c>
       <c r="W9" s="2">
-        <f>$J$17</f>
-        <v>593</v>
+        <f>$P$29</f>
+        <v>611</v>
       </c>
       <c r="X9" s="2">
-        <f>$K$17</f>
+        <f>$Q$29</f>
         <v>5</v>
       </c>
     </row>
@@ -1815,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -1833,11 +1848,11 @@
       </c>
       <c r="I10" s="2">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="3"/>
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="3"/>
@@ -1850,7 +1865,7 @@
       </c>
       <c r="N10" s="2">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="4"/>
@@ -1858,31 +1873,31 @@
       </c>
       <c r="P10" s="2">
         <f t="shared" si="4"/>
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" s="6">
         <v>6</v>
       </c>
       <c r="T10" s="6">
-        <v>3</v>
-      </c>
-      <c r="U10" s="6" t="s">
-        <v>35</v>
+        <v>5</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="V10" s="2">
-        <f>$H$5</f>
-        <v>13</v>
+        <f>$H$17</f>
+        <v>14</v>
       </c>
       <c r="W10" s="2">
-        <f>$J$5</f>
-        <v>587</v>
+        <f>$J$17</f>
+        <v>657</v>
       </c>
       <c r="X10" s="2">
-        <f>$K$5</f>
+        <f>$K$17</f>
         <v>6</v>
       </c>
     </row>
@@ -1894,10 +1909,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" s="2">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -1907,19 +1922,19 @@
       </c>
       <c r="H11" s="3">
         <f>SUM(H8:H10)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" ref="I11" si="5">SUM(I8:I10)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J11" s="3">
         <f>SUM(J8:J10)</f>
-        <v>475</v>
+        <v>536</v>
       </c>
       <c r="K11" s="3">
         <f>SUM(K8:K10)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="3" t="s">
@@ -1927,39 +1942,39 @@
       </c>
       <c r="N11" s="3">
         <f>SUM(N8:N10)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O11" s="3">
         <f>SUM(O8:O10)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P11" s="3">
         <f>SUM(P8:P10)</f>
-        <v>624</v>
+        <v>675</v>
       </c>
       <c r="Q11" s="3">
         <f>SUM(Q8:Q10)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S11" s="6">
         <v>7</v>
       </c>
       <c r="T11" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U11" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="V11" s="2">
-        <f>$H$23</f>
+        <f>$N$5</f>
         <v>13</v>
       </c>
       <c r="W11" s="2">
-        <f>$J$23</f>
-        <v>548</v>
+        <f>$P$5</f>
+        <v>709</v>
       </c>
       <c r="X11" s="2">
-        <f>$K$23</f>
+        <f>$Q$5</f>
         <v>5</v>
       </c>
     </row>
@@ -1994,7 +2009,7 @@
         <v>8</v>
       </c>
       <c r="T12" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U12" s="9" t="s">
         <v>43</v>
@@ -2005,7 +2020,7 @@
       </c>
       <c r="W12" s="2">
         <f>$P$23</f>
-        <v>523</v>
+        <v>557</v>
       </c>
       <c r="X12" s="2">
         <f>$Q$23</f>
@@ -2017,16 +2032,16 @@
         <v>30</v>
       </c>
       <c r="B13" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="2">
         <v>6</v>
       </c>
       <c r="D13" s="2">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="E13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>37</v>
@@ -2070,32 +2085,32 @@
       </c>
       <c r="V13" s="2">
         <f>$N$11</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W13" s="2">
         <f>$P$11</f>
-        <v>624</v>
+        <v>675</v>
       </c>
       <c r="X13" s="2">
         <f>$Q$11</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" t="s">
+      <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2">
-        <v>6</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2">
-        <v>245</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
+      <c r="B14" s="13">
+        <v>7</v>
+      </c>
+      <c r="C14" s="13">
+        <v>2</v>
+      </c>
+      <c r="D14" s="13">
+        <v>286</v>
+      </c>
+      <c r="E14" s="13">
+        <v>2</v>
       </c>
       <c r="G14" s="2" t="str">
         <f t="shared" ref="G14:K16" si="6">A14</f>
@@ -2103,7 +2118,7 @@
       </c>
       <c r="H14" s="2">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" si="6"/>
@@ -2111,11 +2126,11 @@
       </c>
       <c r="J14" s="2">
         <f t="shared" si="6"/>
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="str">
@@ -2124,7 +2139,7 @@
       </c>
       <c r="N14" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O14" s="2">
         <f t="shared" si="7"/>
@@ -2132,7 +2147,7 @@
       </c>
       <c r="P14" s="2">
         <f t="shared" si="7"/>
-        <v>234</v>
+        <v>279</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="7"/>
@@ -2149,15 +2164,15 @@
       </c>
       <c r="V14" s="2">
         <f>$H$11</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W14" s="2">
         <f>$J$11</f>
-        <v>475</v>
+        <v>536</v>
       </c>
       <c r="X14" s="2">
         <f>$K$11</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -2168,10 +2183,10 @@
         <v>5</v>
       </c>
       <c r="C15" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" s="2">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="E15" s="2">
         <v>3</v>
@@ -2186,11 +2201,11 @@
       </c>
       <c r="I15" s="2">
         <f>C15</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J15" s="2">
         <f>D15</f>
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="K15" s="2">
         <f>E15</f>
@@ -2203,7 +2218,7 @@
       </c>
       <c r="N15" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O15" s="2">
         <f t="shared" si="7"/>
@@ -2211,7 +2226,7 @@
       </c>
       <c r="P15" s="2">
         <f t="shared" si="7"/>
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="7"/>
@@ -2226,10 +2241,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16" s="2">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -2244,11 +2259,11 @@
       </c>
       <c r="I16" s="2">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="6"/>
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="6"/>
@@ -2261,7 +2276,7 @@
       </c>
       <c r="N16" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="7"/>
@@ -2269,7 +2284,7 @@
       </c>
       <c r="P16" s="2">
         <f t="shared" si="7"/>
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="7"/>
@@ -2281,13 +2296,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
       </c>
       <c r="D17" s="2">
-        <v>234</v>
+        <v>279</v>
       </c>
       <c r="E17" s="2">
         <v>2</v>
@@ -2297,19 +2312,19 @@
       </c>
       <c r="H17" s="3">
         <f>SUM(H14:H16)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" ref="I17" si="8">SUM(I14:I16)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J17" s="3">
         <f>SUM(J14:J16)</f>
-        <v>593</v>
+        <v>657</v>
       </c>
       <c r="K17" s="3">
         <f>SUM(K14:K16)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="3" t="s">
@@ -2317,7 +2332,7 @@
       </c>
       <c r="N17" s="3">
         <f>SUM(N14:N16)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O17" s="3">
         <f>SUM(O14:O16)</f>
@@ -2325,7 +2340,7 @@
       </c>
       <c r="P17" s="3">
         <f>SUM(P14:P16)</f>
-        <v>636</v>
+        <v>722</v>
       </c>
       <c r="Q17" s="3">
         <f>SUM(Q14:Q16)</f>
@@ -2337,13 +2352,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" s="2">
         <v>4</v>
       </c>
       <c r="D18" s="2">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="E18" s="2">
         <v>2</v>
@@ -2365,13 +2380,13 @@
         <v>25</v>
       </c>
       <c r="B19" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
       </c>
       <c r="D19" s="2">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E19" s="2">
         <v>3</v>
@@ -2413,13 +2428,13 @@
         <v>32</v>
       </c>
       <c r="B20" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" s="2">
         <v>3</v>
       </c>
       <c r="D20" s="2">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="E20" s="2">
         <v>2</v>
@@ -2430,7 +2445,7 @@
       </c>
       <c r="H20" s="2">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" si="9"/>
@@ -2438,7 +2453,7 @@
       </c>
       <c r="J20" s="2">
         <f t="shared" si="9"/>
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="9"/>
@@ -2471,13 +2486,13 @@
         <v>34</v>
       </c>
       <c r="B21" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
       </c>
       <c r="D21" s="2">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="E21" s="2">
         <v>3</v>
@@ -2488,7 +2503,7 @@
       </c>
       <c r="H21" s="2">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" si="9"/>
@@ -2496,7 +2511,7 @@
       </c>
       <c r="J21" s="2">
         <f t="shared" si="9"/>
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="9"/>
@@ -2513,11 +2528,11 @@
       </c>
       <c r="O21" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" si="10"/>
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="10"/>
@@ -2529,13 +2544,13 @@
         <v>6</v>
       </c>
       <c r="B22" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" s="2">
         <v>8</v>
       </c>
       <c r="D22" s="2">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
@@ -2546,7 +2561,7 @@
       </c>
       <c r="H22" s="2">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" s="2">
         <f t="shared" si="9"/>
@@ -2554,7 +2569,7 @@
       </c>
       <c r="J22" s="2">
         <f t="shared" si="9"/>
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="9"/>
@@ -2571,11 +2586,11 @@
       </c>
       <c r="O22" s="2">
         <f>C25</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P22" s="2">
         <f>D25</f>
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="Q22" s="2">
         <f>E25</f>
@@ -2603,7 +2618,7 @@
       </c>
       <c r="H23" s="3">
         <f>SUM(H20:H22)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" ref="I23" si="11">SUM(I20:I22)</f>
@@ -2611,7 +2626,7 @@
       </c>
       <c r="J23" s="3">
         <f>SUM(J20:J22)</f>
-        <v>548</v>
+        <v>637</v>
       </c>
       <c r="K23" s="3">
         <f>SUM(K20:K22)</f>
@@ -2627,11 +2642,11 @@
       </c>
       <c r="O23" s="3">
         <f>SUM(O20:O22)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P23" s="3">
         <f>SUM(P20:P22)</f>
-        <v>523</v>
+        <v>557</v>
       </c>
       <c r="Q23" s="3">
         <f>SUM(Q20:Q22)</f>
@@ -2646,10 +2661,10 @@
         <v>3.5</v>
       </c>
       <c r="C24" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24" s="2">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
@@ -2674,10 +2689,10 @@
         <v>5</v>
       </c>
       <c r="C25" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" s="2">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="E25" s="2">
         <v>3</v>
@@ -2757,7 +2772,7 @@
       </c>
       <c r="N26" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" si="13"/>
@@ -2765,11 +2780,11 @@
       </c>
       <c r="P26" s="2">
         <f t="shared" si="13"/>
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2777,16 +2792,16 @@
         <v>20</v>
       </c>
       <c r="B27" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27" s="2">
         <v>3</v>
       </c>
       <c r="D27" s="2">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="E27" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G27" s="2" t="str">
         <f t="shared" si="12"/>
@@ -2794,7 +2809,7 @@
       </c>
       <c r="H27" s="2">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I27" s="2">
         <f t="shared" si="12"/>
@@ -2802,11 +2817,11 @@
       </c>
       <c r="J27" s="2">
         <f t="shared" si="12"/>
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2" t="str">
@@ -2819,11 +2834,11 @@
       </c>
       <c r="O27" s="2">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" si="13"/>
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" si="13"/>
@@ -2893,23 +2908,23 @@
         <v>17</v>
       </c>
       <c r="B29" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" s="2">
         <v>3</v>
       </c>
       <c r="D29" s="2">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="E29" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H29" s="3">
         <f>SUM(H26:H28)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" ref="I29" si="14">SUM(I26:I28)</f>
@@ -2917,11 +2932,11 @@
       </c>
       <c r="J29" s="3">
         <f>SUM(J26:J28)</f>
-        <v>717</v>
+        <v>748</v>
       </c>
       <c r="K29" s="3">
         <f>SUM(K26:K28)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="3" t="s">
@@ -2929,19 +2944,19 @@
       </c>
       <c r="N29" s="3">
         <f>SUM(N26:N28)</f>
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="O29" s="3">
         <f>SUM(O26:O28)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P29" s="3">
         <f>SUM(P26:P28)</f>
-        <v>591</v>
+        <v>611</v>
       </c>
       <c r="Q29" s="3">
         <f>SUM(Q26:Q28)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="16" thickTop="1">
@@ -2952,10 +2967,10 @@
         <v>5.5</v>
       </c>
       <c r="C30" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E30" s="2">
         <v>1</v>
@@ -2986,10 +3001,10 @@
         <v>3</v>
       </c>
       <c r="C32" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D32" s="8">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="E32" s="8">
         <v>2</v>
@@ -3001,7 +3016,7 @@
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
       <c r="K32" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3012,10 +3027,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D33" s="8">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="E33" s="8">
         <v>1</v>
@@ -3032,30 +3047,30 @@
     <mergeCell ref="G32:J32"/>
   </mergeCells>
   <conditionalFormatting sqref="D32:D33">
-    <cfRule type="containsText" dxfId="33" priority="37" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="33" priority="43" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",D32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="38" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="32" priority="44" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",D32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5:S14">
-    <cfRule type="cellIs" dxfId="31" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="25" operator="greaterThan">
       <formula>T5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="26" operator="equal">
       <formula>T5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="27" operator="lessThan">
       <formula>T5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="39" operator="equal">
       <formula>T5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="40" operator="lessThan">
       <formula>T5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="41" operator="greaterThan">
       <formula>T5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Wins Fantasy League.xlsx
+++ b/Wins Fantasy League.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="26360" windowHeight="15980" tabRatio="500"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="25920" windowHeight="15980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -236,13 +236,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -296,7 +289,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="92">
+  <cellStyleXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -367,6 +360,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -421,12 +418,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="92">
+  <cellStyles count="96">
     <cellStyle name="Bad" xfId="69" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -473,6 +470,8 @@
     <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -518,269 +517,11 @@
     <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1191,7 +932,7 @@
   <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1274,16 +1015,16 @@
         <v>23</v>
       </c>
       <c r="B2" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2">
         <v>3</v>
       </c>
       <c r="D2" s="2">
-        <v>277</v>
+        <v>354</v>
       </c>
       <c r="E2" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" s="2" t="str">
         <f t="shared" ref="G2:K4" si="0">A2</f>
@@ -1291,7 +1032,7 @@
       </c>
       <c r="H2" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" si="0"/>
@@ -1299,11 +1040,11 @@
       </c>
       <c r="J2" s="2">
         <f t="shared" si="0"/>
-        <v>277</v>
+        <v>354</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="str">
@@ -1312,15 +1053,15 @@
       </c>
       <c r="N2" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O2" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P2" s="2">
         <f t="shared" si="1"/>
-        <v>290</v>
+        <v>333</v>
       </c>
       <c r="Q2" s="2">
         <f t="shared" si="1"/>
@@ -1332,13 +1073,13 @@
         <v>24</v>
       </c>
       <c r="B3" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2">
         <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="E3" s="2">
         <v>3</v>
@@ -1349,7 +1090,7 @@
       </c>
       <c r="H3" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" si="0"/>
@@ -1357,7 +1098,7 @@
       </c>
       <c r="J3" s="2">
         <f t="shared" si="0"/>
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
@@ -1370,7 +1111,7 @@
       </c>
       <c r="N3" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" si="1"/>
@@ -1378,11 +1119,11 @@
       </c>
       <c r="P3" s="2">
         <f t="shared" si="1"/>
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S3" s="10" t="s">
         <v>47</v>
@@ -1398,16 +1139,16 @@
         <v>10</v>
       </c>
       <c r="B4" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2">
-        <v>209</v>
+        <v>242</v>
       </c>
       <c r="E4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1415,19 +1156,19 @@
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>209</v>
+        <v>242</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2" t="str">
@@ -1440,11 +1181,11 @@
       </c>
       <c r="O4" s="2">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" si="1"/>
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="1"/>
@@ -1474,13 +1215,13 @@
         <v>11</v>
       </c>
       <c r="B5" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2">
-        <v>290</v>
+        <v>333</v>
       </c>
       <c r="E5" s="2">
         <v>3</v>
@@ -1490,19 +1231,19 @@
       </c>
       <c r="H5" s="3">
         <f>SUM(H2:H4)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I5" s="3">
         <f>SUM(I2:I4)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J5" s="3">
         <f>SUM(J2:J4)</f>
-        <v>680</v>
+        <v>832</v>
       </c>
       <c r="K5" s="3">
         <f>SUM(K2:K4)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="3" t="s">
@@ -1510,40 +1251,40 @@
       </c>
       <c r="N5" s="3">
         <f t="shared" ref="N5:O5" si="2">SUM(N2:N4)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O5" s="3">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P5" s="3">
         <f>SUM(P2:P4)</f>
-        <v>709</v>
+        <v>782</v>
       </c>
       <c r="Q5" s="3">
         <f>SUM(Q2:Q4)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S5" s="6">
         <v>1</v>
       </c>
       <c r="T5" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="V5" s="2">
-        <f>$N$17</f>
-        <v>20</v>
+        <f>$H$29</f>
+        <v>22</v>
       </c>
       <c r="W5" s="2">
-        <f>$P$17</f>
-        <v>722</v>
+        <f>$J$29</f>
+        <v>891</v>
       </c>
       <c r="X5" s="2">
-        <f>$Q$17</f>
-        <v>7</v>
+        <f>$K$29</f>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="16" thickTop="1">
@@ -1551,16 +1292,16 @@
         <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2">
         <v>4</v>
       </c>
       <c r="D6" s="2">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="E6" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1577,21 +1318,21 @@
         <v>2</v>
       </c>
       <c r="T6" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U6" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V6" s="2">
-        <f>$H$29</f>
-        <v>18</v>
+        <f>$N$17</f>
+        <v>22</v>
       </c>
       <c r="W6" s="2">
-        <f>$J$29</f>
-        <v>748</v>
+        <f>$P$17</f>
+        <v>834</v>
       </c>
       <c r="X6" s="2">
-        <f>$K$29</f>
+        <f>$Q$17</f>
         <v>8</v>
       </c>
     </row>
@@ -1603,10 +1344,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -1646,22 +1387,22 @@
         <v>3</v>
       </c>
       <c r="T7" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="U7" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="V7" s="2">
-        <f>$H$23</f>
-        <v>16</v>
+        <f>$H$5</f>
+        <v>20</v>
       </c>
       <c r="W7" s="2">
-        <f>$J$23</f>
-        <v>637</v>
+        <f>$J$5</f>
+        <v>832</v>
       </c>
       <c r="X7" s="2">
-        <f>$K$23</f>
-        <v>5</v>
+        <f>$K$5</f>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -1669,16 +1410,16 @@
         <v>31</v>
       </c>
       <c r="B8" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2">
         <v>4</v>
       </c>
       <c r="D8" s="2">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="E8" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" s="2" t="str">
         <f t="shared" ref="G8:K10" si="3">A8</f>
@@ -1686,7 +1427,7 @@
       </c>
       <c r="H8" s="2">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="3"/>
@@ -1694,11 +1435,11 @@
       </c>
       <c r="J8" s="2">
         <f t="shared" si="3"/>
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2" t="str">
@@ -1711,11 +1452,11 @@
       </c>
       <c r="O8" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="4"/>
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="4"/>
@@ -1725,38 +1466,38 @@
         <v>4</v>
       </c>
       <c r="T8" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U8" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="V8" s="2">
-        <f>$H$5</f>
-        <v>15</v>
+        <f>$H$23</f>
+        <v>18</v>
       </c>
       <c r="W8" s="2">
-        <f>$J$5</f>
-        <v>680</v>
+        <f>$J$23</f>
+        <v>696</v>
       </c>
       <c r="X8" s="2">
-        <f>$K$5</f>
-        <v>7</v>
+        <f>$K$23</f>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" t="s">
+      <c r="A9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="2">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2">
-        <v>195</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="B9" s="13">
+        <v>3</v>
+      </c>
+      <c r="C9" s="13">
+        <v>8</v>
+      </c>
+      <c r="D9" s="13">
+        <v>233</v>
+      </c>
+      <c r="E9" s="13">
         <v>1</v>
       </c>
       <c r="G9" s="2" t="str">
@@ -1769,11 +1510,11 @@
       </c>
       <c r="I9" s="2">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="3"/>
-        <v>195</v>
+        <v>233</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="3"/>
@@ -1786,7 +1527,7 @@
       </c>
       <c r="N9" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="4"/>
@@ -1794,7 +1535,7 @@
       </c>
       <c r="P9" s="2">
         <f t="shared" si="4"/>
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="4"/>
@@ -1804,38 +1545,38 @@
         <v>5</v>
       </c>
       <c r="T9" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="V9" s="2">
         <f>$N$29</f>
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="W9" s="2">
         <f>$P$29</f>
-        <v>611</v>
+        <v>724</v>
       </c>
       <c r="X9" s="2">
         <f>$Q$29</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" t="s">
+      <c r="A10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2">
-        <v>146</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="B10" s="13">
+        <v>1</v>
+      </c>
+      <c r="C10" s="13">
+        <v>10</v>
+      </c>
+      <c r="D10" s="13">
+        <v>176</v>
+      </c>
+      <c r="E10" s="13">
         <v>0</v>
       </c>
       <c r="G10" s="2" t="str">
@@ -1844,15 +1585,15 @@
       </c>
       <c r="H10" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="3"/>
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="3"/>
@@ -1865,36 +1606,36 @@
       </c>
       <c r="N10" s="2">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="4"/>
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S10" s="6">
         <v>6</v>
       </c>
       <c r="T10" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="U10" s="9" t="s">
         <v>37</v>
       </c>
       <c r="V10" s="2">
         <f>$H$17</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="W10" s="2">
         <f>$J$17</f>
-        <v>657</v>
+        <v>809</v>
       </c>
       <c r="X10" s="2">
         <f>$K$17</f>
@@ -1902,19 +1643,19 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="16" thickBot="1">
-      <c r="A11" t="s">
+      <c r="A11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="2">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2">
-        <v>251</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="B11" s="13">
+        <v>4</v>
+      </c>
+      <c r="C11" s="13">
+        <v>7</v>
+      </c>
+      <c r="D11" s="13">
+        <v>288</v>
+      </c>
+      <c r="E11" s="13">
         <v>1</v>
       </c>
       <c r="G11" s="3" t="s">
@@ -1922,19 +1663,19 @@
       </c>
       <c r="H11" s="3">
         <f>SUM(H8:H10)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" ref="I11" si="5">SUM(I8:I10)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J11" s="3">
         <f>SUM(J8:J10)</f>
-        <v>536</v>
+        <v>637</v>
       </c>
       <c r="K11" s="3">
         <f>SUM(K8:K10)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="3" t="s">
@@ -1942,39 +1683,39 @@
       </c>
       <c r="N11" s="3">
         <f>SUM(N8:N10)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O11" s="3">
         <f>SUM(O8:O10)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P11" s="3">
         <f>SUM(P8:P10)</f>
-        <v>675</v>
+        <v>795</v>
       </c>
       <c r="Q11" s="3">
         <f>SUM(Q8:Q10)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S11" s="6">
         <v>7</v>
       </c>
       <c r="T11" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U11" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V11" s="2">
-        <f>$N$5</f>
-        <v>13</v>
+        <f>$N$11</f>
+        <v>15</v>
       </c>
       <c r="W11" s="2">
-        <f>$P$5</f>
-        <v>709</v>
+        <f>$P$11</f>
+        <v>795</v>
       </c>
       <c r="X11" s="2">
-        <f>$Q$5</f>
+        <f>$Q$11</f>
         <v>5</v>
       </c>
     </row>
@@ -1983,13 +1724,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2">
         <v>4</v>
       </c>
       <c r="D12" s="2">
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="E12" s="2">
         <v>2</v>
@@ -2009,21 +1750,21 @@
         <v>8</v>
       </c>
       <c r="T12" s="6">
-        <v>8</v>
-      </c>
-      <c r="U12" s="9" t="s">
-        <v>43</v>
+        <v>6</v>
+      </c>
+      <c r="U12" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="V12" s="2">
-        <f>$N$23</f>
-        <v>12.5</v>
+        <f>$N$5</f>
+        <v>15</v>
       </c>
       <c r="W12" s="2">
-        <f>$P$23</f>
-        <v>557</v>
+        <f>$P$5</f>
+        <v>782</v>
       </c>
       <c r="X12" s="2">
-        <f>$Q$23</f>
+        <f>$Q$5</f>
         <v>6</v>
       </c>
     </row>
@@ -2032,16 +1773,16 @@
         <v>30</v>
       </c>
       <c r="B13" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" s="2">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="E13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>37</v>
@@ -2080,36 +1821,36 @@
       <c r="T13" s="6">
         <v>9</v>
       </c>
-      <c r="U13" s="6" t="s">
-        <v>41</v>
+      <c r="U13" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="V13" s="2">
-        <f>$N$11</f>
-        <v>12</v>
+        <f>$N$23</f>
+        <v>13.5</v>
       </c>
       <c r="W13" s="2">
-        <f>$P$11</f>
-        <v>675</v>
+        <f>$P$23</f>
+        <v>655</v>
       </c>
       <c r="X13" s="2">
-        <f>$Q$11</f>
-        <v>4</v>
+        <f>$Q$23</f>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="12" t="s">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="13">
-        <v>7</v>
-      </c>
-      <c r="C14" s="13">
-        <v>2</v>
-      </c>
-      <c r="D14" s="13">
-        <v>286</v>
-      </c>
-      <c r="E14" s="13">
+      <c r="B14" s="2">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>332</v>
+      </c>
+      <c r="E14" s="2">
         <v>2</v>
       </c>
       <c r="G14" s="2" t="str">
@@ -2118,15 +1859,15 @@
       </c>
       <c r="H14" s="2">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="6"/>
-        <v>286</v>
+        <v>332</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="6"/>
@@ -2139,15 +1880,15 @@
       </c>
       <c r="N14" s="2">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O14" s="2">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="7"/>
-        <v>279</v>
+        <v>342</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="7"/>
@@ -2164,15 +1905,15 @@
       </c>
       <c r="V14" s="2">
         <f>$H$11</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="W14" s="2">
         <f>$J$11</f>
-        <v>536</v>
+        <v>637</v>
       </c>
       <c r="X14" s="2">
         <f>$K$11</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -2180,13 +1921,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="2">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2">
         <v>5</v>
       </c>
-      <c r="C15" s="2">
-        <v>4</v>
-      </c>
       <c r="D15" s="2">
-        <v>227</v>
+        <v>285</v>
       </c>
       <c r="E15" s="2">
         <v>3</v>
@@ -2197,15 +1938,15 @@
       </c>
       <c r="H15" s="2">
         <f>B15</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I15" s="2">
         <f>C15</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J15" s="2">
         <f>D15</f>
-        <v>227</v>
+        <v>285</v>
       </c>
       <c r="K15" s="2">
         <f>E15</f>
@@ -2218,7 +1959,7 @@
       </c>
       <c r="N15" s="2">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O15" s="2">
         <f t="shared" si="7"/>
@@ -2226,11 +1967,11 @@
       </c>
       <c r="P15" s="2">
         <f t="shared" si="7"/>
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -2241,10 +1982,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -2259,11 +2000,11 @@
       </c>
       <c r="I16" s="2">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="6"/>
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="6"/>
@@ -2280,11 +2021,11 @@
       </c>
       <c r="O16" s="2">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" si="7"/>
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="7"/>
@@ -2296,13 +2037,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" s="2">
-        <v>279</v>
+        <v>342</v>
       </c>
       <c r="E17" s="2">
         <v>2</v>
@@ -2312,15 +2053,15 @@
       </c>
       <c r="H17" s="3">
         <f>SUM(H14:H16)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" ref="I17" si="8">SUM(I14:I16)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J17" s="3">
         <f>SUM(J14:J16)</f>
-        <v>657</v>
+        <v>809</v>
       </c>
       <c r="K17" s="3">
         <f>SUM(K14:K16)</f>
@@ -2332,36 +2073,36 @@
       </c>
       <c r="N17" s="3">
         <f>SUM(N14:N16)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O17" s="3">
         <f>SUM(O14:O16)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="P17" s="3">
         <f>SUM(P14:P16)</f>
-        <v>722</v>
+        <v>834</v>
       </c>
       <c r="Q17" s="3">
         <f>SUM(Q14:Q16)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="16" thickTop="1">
-      <c r="A18" t="s">
+      <c r="A18" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="2">
-        <v>6</v>
-      </c>
-      <c r="C18" s="2">
-        <v>4</v>
-      </c>
-      <c r="D18" s="2">
-        <v>261</v>
-      </c>
-      <c r="E18" s="2">
-        <v>2</v>
+      <c r="B18" s="13">
+        <v>7</v>
+      </c>
+      <c r="C18" s="13">
+        <v>4</v>
+      </c>
+      <c r="D18" s="13">
+        <v>295</v>
+      </c>
+      <c r="E18" s="13">
+        <v>3</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -2383,10 +2124,10 @@
         <v>7</v>
       </c>
       <c r="C19" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" s="2">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="E19" s="2">
         <v>3</v>
@@ -2428,13 +2169,13 @@
         <v>32</v>
       </c>
       <c r="B20" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" s="2">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="E20" s="2">
         <v>2</v>
@@ -2445,15 +2186,15 @@
       </c>
       <c r="H20" s="2">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="9"/>
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="9"/>
@@ -2470,11 +2211,11 @@
       </c>
       <c r="O20" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" si="10"/>
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="10"/>
@@ -2486,13 +2227,13 @@
         <v>34</v>
       </c>
       <c r="B21" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="2">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="E21" s="2">
         <v>3</v>
@@ -2503,15 +2244,15 @@
       </c>
       <c r="H21" s="2">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="9"/>
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="9"/>
@@ -2528,11 +2269,11 @@
       </c>
       <c r="O21" s="2">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" si="10"/>
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="10"/>
@@ -2540,19 +2281,19 @@
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" t="s">
+      <c r="A22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="2">
-        <v>2</v>
-      </c>
-      <c r="C22" s="2">
-        <v>8</v>
-      </c>
-      <c r="D22" s="2">
-        <v>174</v>
-      </c>
-      <c r="E22" s="2">
+      <c r="B22" s="13">
+        <v>2</v>
+      </c>
+      <c r="C22" s="13">
+        <v>9</v>
+      </c>
+      <c r="D22" s="13">
+        <v>177</v>
+      </c>
+      <c r="E22" s="13">
         <v>0</v>
       </c>
       <c r="G22" s="2" t="str">
@@ -2565,11 +2306,11 @@
       </c>
       <c r="I22" s="2">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="9"/>
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="9"/>
@@ -2582,15 +2323,15 @@
       </c>
       <c r="N22" s="2">
         <f>B25</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O22" s="2">
         <f>C25</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P22" s="2">
         <f>D25</f>
-        <v>191</v>
+        <v>238</v>
       </c>
       <c r="Q22" s="2">
         <f>E25</f>
@@ -2605,10 +2346,10 @@
         <v>4</v>
       </c>
       <c r="C23" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D23" s="2">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="E23" s="2">
         <v>2</v>
@@ -2618,15 +2359,15 @@
       </c>
       <c r="H23" s="3">
         <f>SUM(H20:H22)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" ref="I23" si="11">SUM(I20:I22)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J23" s="3">
         <f>SUM(J20:J22)</f>
-        <v>637</v>
+        <v>696</v>
       </c>
       <c r="K23" s="3">
         <f>SUM(K20:K22)</f>
@@ -2638,15 +2379,15 @@
       </c>
       <c r="N23" s="3">
         <f>SUM(N20:N22)</f>
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="O23" s="3">
         <f>SUM(O20:O22)</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="P23" s="3">
         <f>SUM(P20:P22)</f>
-        <v>557</v>
+        <v>655</v>
       </c>
       <c r="Q23" s="3">
         <f>SUM(Q20:Q22)</f>
@@ -2661,10 +2402,10 @@
         <v>3.5</v>
       </c>
       <c r="C24" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D24" s="2">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
@@ -2682,19 +2423,19 @@
       <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="2">
+      <c r="A25" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="13">
+        <v>6</v>
+      </c>
+      <c r="C25" s="13">
         <v>5</v>
       </c>
-      <c r="C25" s="2">
-        <v>4</v>
-      </c>
-      <c r="D25" s="2">
-        <v>191</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="D25" s="13">
+        <v>238</v>
+      </c>
+      <c r="E25" s="13">
         <v>3</v>
       </c>
       <c r="G25" s="4" t="s">
@@ -2734,16 +2475,16 @@
         <v>0</v>
       </c>
       <c r="B26" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C26" s="2">
         <v>2</v>
       </c>
       <c r="D26" s="2">
-        <v>281</v>
+        <v>357</v>
       </c>
       <c r="E26" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26" s="2" t="str">
         <f t="shared" ref="G26:K28" si="12">A26</f>
@@ -2751,7 +2492,7 @@
       </c>
       <c r="H26" s="2">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I26" s="2">
         <f t="shared" si="12"/>
@@ -2759,11 +2500,11 @@
       </c>
       <c r="J26" s="2">
         <f t="shared" si="12"/>
-        <v>281</v>
+        <v>357</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2" t="str">
@@ -2772,15 +2513,15 @@
       </c>
       <c r="N26" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" si="13"/>
-        <v>217</v>
+        <v>261</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="13"/>
@@ -2788,20 +2529,20 @@
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" t="s">
+      <c r="A27" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="2">
-        <v>7</v>
-      </c>
-      <c r="C27" s="2">
-        <v>3</v>
-      </c>
-      <c r="D27" s="2">
-        <v>261</v>
-      </c>
-      <c r="E27" s="2">
-        <v>4</v>
+      <c r="B27" s="13">
+        <v>8</v>
+      </c>
+      <c r="C27" s="13">
+        <v>3</v>
+      </c>
+      <c r="D27" s="13">
+        <v>292</v>
+      </c>
+      <c r="E27" s="13">
+        <v>5</v>
       </c>
       <c r="G27" s="2" t="str">
         <f t="shared" si="12"/>
@@ -2809,7 +2550,7 @@
       </c>
       <c r="H27" s="2">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I27" s="2">
         <f t="shared" si="12"/>
@@ -2817,11 +2558,11 @@
       </c>
       <c r="J27" s="2">
         <f t="shared" si="12"/>
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2" t="str">
@@ -2830,7 +2571,7 @@
       </c>
       <c r="N27" s="2">
         <f t="shared" si="13"/>
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="O27" s="2">
         <f t="shared" si="13"/>
@@ -2838,11 +2579,11 @@
       </c>
       <c r="P27" s="2">
         <f t="shared" si="13"/>
-        <v>197</v>
+        <v>246</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2850,16 +2591,16 @@
         <v>14</v>
       </c>
       <c r="B28" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C28" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D28" s="2">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="E28" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28" s="2" t="str">
         <f t="shared" si="12"/>
@@ -2867,19 +2608,19 @@
       </c>
       <c r="H28" s="2">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I28" s="2">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="12"/>
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2" t="str">
@@ -2892,11 +2633,11 @@
       </c>
       <c r="O28" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" si="13"/>
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" si="13"/>
@@ -2908,13 +2649,13 @@
         <v>17</v>
       </c>
       <c r="B29" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" s="2">
-        <v>217</v>
+        <v>261</v>
       </c>
       <c r="E29" s="2">
         <v>3</v>
@@ -2924,19 +2665,19 @@
       </c>
       <c r="H29" s="3">
         <f>SUM(H26:H28)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" ref="I29" si="14">SUM(I26:I28)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J29" s="3">
         <f>SUM(J26:J28)</f>
-        <v>748</v>
+        <v>891</v>
       </c>
       <c r="K29" s="3">
         <f>SUM(K26:K28)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="3" t="s">
@@ -2944,19 +2685,19 @@
       </c>
       <c r="N29" s="3">
         <f>SUM(N26:N28)</f>
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="O29" s="3">
         <f>SUM(O26:O28)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="P29" s="3">
         <f>SUM(P26:P28)</f>
-        <v>611</v>
+        <v>724</v>
       </c>
       <c r="Q29" s="3">
         <f>SUM(Q26:Q28)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="16" thickTop="1">
@@ -2964,16 +2705,16 @@
         <v>7</v>
       </c>
       <c r="B30" s="2">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="C30" s="2">
         <v>3</v>
       </c>
       <c r="D30" s="2">
-        <v>197</v>
+        <v>246</v>
       </c>
       <c r="E30" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2984,10 +2725,10 @@
         <v>3</v>
       </c>
       <c r="C31" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D31" s="2">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="E31" s="2">
         <v>1</v>
@@ -2998,13 +2739,13 @@
         <v>33</v>
       </c>
       <c r="B32" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C32" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D32" s="8">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="E32" s="8">
         <v>2</v>
@@ -3016,7 +2757,7 @@
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
       <c r="K32" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3024,16 +2765,16 @@
         <v>29</v>
       </c>
       <c r="B33" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="8">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="E33" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3047,30 +2788,30 @@
     <mergeCell ref="G32:J32"/>
   </mergeCells>
   <conditionalFormatting sqref="D32:D33">
-    <cfRule type="containsText" dxfId="33" priority="43" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="7" priority="55" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",D32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="44" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="6" priority="56" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",D32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5:S14">
-    <cfRule type="cellIs" dxfId="31" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="37" operator="greaterThan">
       <formula>T5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="38" operator="equal">
       <formula>T5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="39" operator="lessThan">
       <formula>T5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="51" operator="equal">
       <formula>T5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="52" operator="lessThan">
       <formula>T5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="53" operator="greaterThan">
       <formula>T5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Wins Fantasy League.xlsx
+++ b/Wins Fantasy League.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="25920" windowHeight="15980" tabRatio="500"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="25880" windowHeight="15980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -289,7 +289,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="96">
+  <cellStyleXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -386,8 +386,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -418,12 +420,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="96">
+  <cellStyles count="98">
     <cellStyle name="Bad" xfId="69" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -472,6 +470,7 @@
     <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -519,6 +518,7 @@
     <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
@@ -932,7 +932,7 @@
   <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1015,13 +1015,13 @@
         <v>23</v>
       </c>
       <c r="B2" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2">
         <v>3</v>
       </c>
       <c r="D2" s="2">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="E2" s="2">
         <v>3</v>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H2" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" si="0"/>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="J2" s="2">
         <f t="shared" si="0"/>
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" si="0"/>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="N2" s="2">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O2" s="2">
         <f t="shared" si="1"/>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P2" s="2">
         <f t="shared" si="1"/>
-        <v>333</v>
+        <v>382</v>
       </c>
       <c r="Q2" s="2">
         <f t="shared" si="1"/>
@@ -1076,10 +1076,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="E3" s="2">
         <v>3</v>
@@ -1094,11 +1094,11 @@
       </c>
       <c r="I3" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="0"/>
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
@@ -1115,11 +1115,11 @@
       </c>
       <c r="O3" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" si="1"/>
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" si="1"/>
@@ -1142,10 +1142,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
@@ -1160,11 +1160,11 @@
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="N4" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" si="1"/>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="P4" s="2">
         <f t="shared" si="1"/>
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="1"/>
@@ -1215,13 +1215,13 @@
         <v>11</v>
       </c>
       <c r="B5" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
       </c>
       <c r="D5" s="2">
-        <v>333</v>
+        <v>382</v>
       </c>
       <c r="E5" s="2">
         <v>3</v>
@@ -1231,15 +1231,15 @@
       </c>
       <c r="H5" s="3">
         <f>SUM(H2:H4)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I5" s="3">
         <f>SUM(I2:I4)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J5" s="3">
         <f>SUM(J2:J4)</f>
-        <v>832</v>
+        <v>885</v>
       </c>
       <c r="K5" s="3">
         <f>SUM(K2:K4)</f>
@@ -1251,15 +1251,15 @@
       </c>
       <c r="N5" s="3">
         <f t="shared" ref="N5:O5" si="2">SUM(N2:N4)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O5" s="3">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P5" s="3">
         <f>SUM(P2:P4)</f>
-        <v>782</v>
+        <v>888</v>
       </c>
       <c r="Q5" s="3">
         <f>SUM(Q2:Q4)</f>
@@ -1269,22 +1269,22 @@
         <v>1</v>
       </c>
       <c r="T5" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V5" s="2">
-        <f>$H$29</f>
-        <v>22</v>
+        <f>$N$17</f>
+        <v>24</v>
       </c>
       <c r="W5" s="2">
-        <f>$J$29</f>
-        <v>891</v>
+        <f>$P$17</f>
+        <v>934</v>
       </c>
       <c r="X5" s="2">
-        <f>$K$29</f>
-        <v>11</v>
+        <f>$Q$17</f>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="16" thickTop="1">
@@ -1295,10 +1295,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="E6" s="2">
         <v>3</v>
@@ -1318,22 +1318,22 @@
         <v>2</v>
       </c>
       <c r="T6" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U6" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="V6" s="2">
-        <f>$N$17</f>
-        <v>22</v>
+        <f>$H$29</f>
+        <v>23</v>
       </c>
       <c r="W6" s="2">
-        <f>$P$17</f>
-        <v>834</v>
+        <f>$J$29</f>
+        <v>967</v>
       </c>
       <c r="X6" s="2">
-        <f>$Q$17</f>
-        <v>8</v>
+        <f>$K$29</f>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -1341,13 +1341,13 @@
         <v>13</v>
       </c>
       <c r="B7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2">
         <v>10</v>
       </c>
       <c r="D7" s="2">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -1394,11 +1394,11 @@
       </c>
       <c r="V7" s="2">
         <f>$H$5</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W7" s="2">
         <f>$J$5</f>
-        <v>832</v>
+        <v>885</v>
       </c>
       <c r="X7" s="2">
         <f>$K$5</f>
@@ -1413,10 +1413,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E8" s="2">
         <v>4</v>
@@ -1431,11 +1431,11 @@
       </c>
       <c r="I8" s="2">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="3"/>
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="3"/>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="N8" s="2">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="4"/>
@@ -1456,11 +1456,11 @@
       </c>
       <c r="P8" s="2">
         <f t="shared" si="4"/>
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S8" s="6">
         <v>4</v>
@@ -1473,31 +1473,31 @@
       </c>
       <c r="V8" s="2">
         <f>$H$23</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="W8" s="2">
         <f>$J$23</f>
-        <v>696</v>
+        <v>746</v>
       </c>
       <c r="X8" s="2">
         <f>$K$23</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="12" t="s">
+      <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="13">
-        <v>3</v>
-      </c>
-      <c r="C9" s="13">
-        <v>8</v>
-      </c>
-      <c r="D9" s="13">
-        <v>233</v>
-      </c>
-      <c r="E9" s="13">
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>257</v>
+      </c>
+      <c r="E9" s="2">
         <v>1</v>
       </c>
       <c r="G9" s="2" t="str">
@@ -1510,11 +1510,11 @@
       </c>
       <c r="I9" s="2">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="3"/>
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="3"/>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="N9" s="2">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="4"/>
@@ -1535,11 +1535,11 @@
       </c>
       <c r="P9" s="2">
         <f t="shared" si="4"/>
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S9" s="6">
         <v>5</v>
@@ -1552,31 +1552,31 @@
       </c>
       <c r="V9" s="2">
         <f>$N$29</f>
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="W9" s="2">
         <f>$P$29</f>
-        <v>724</v>
+        <v>781</v>
       </c>
       <c r="X9" s="2">
         <f>$Q$29</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="12" t="s">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="2">
         <v>1</v>
       </c>
-      <c r="C10" s="13">
-        <v>10</v>
-      </c>
-      <c r="D10" s="13">
+      <c r="C10" s="2">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2">
         <v>176</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="2">
         <v>0</v>
       </c>
       <c r="G10" s="2" t="str">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="I10" s="2">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="3"/>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="N10" s="2">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" si="4"/>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="P10" s="2">
         <f t="shared" si="4"/>
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="4"/>
@@ -1624,39 +1624,39 @@
         <v>6</v>
       </c>
       <c r="T10" s="6">
-        <v>8</v>
-      </c>
-      <c r="U10" s="9" t="s">
-        <v>37</v>
+        <v>7</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="V10" s="2">
-        <f>$H$17</f>
-        <v>16</v>
+        <f>$N$11</f>
+        <v>18</v>
       </c>
       <c r="W10" s="2">
-        <f>$J$17</f>
-        <v>809</v>
+        <f>$P$11</f>
+        <v>893</v>
       </c>
       <c r="X10" s="2">
-        <f>$K$17</f>
-        <v>6</v>
+        <f>$Q$11</f>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="16" thickBot="1">
-      <c r="A11" s="12" t="s">
+      <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="13">
-        <v>4</v>
-      </c>
-      <c r="C11" s="13">
+      <c r="B11" s="2">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
         <v>7</v>
       </c>
-      <c r="D11" s="13">
-        <v>288</v>
-      </c>
-      <c r="E11" s="13">
-        <v>1</v>
+      <c r="D11" s="2">
+        <v>323</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>45</v>
@@ -1667,11 +1667,11 @@
       </c>
       <c r="I11" s="3">
         <f t="shared" ref="I11" si="5">SUM(I8:I10)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J11" s="3">
         <f>SUM(J8:J10)</f>
-        <v>637</v>
+        <v>664</v>
       </c>
       <c r="K11" s="3">
         <f>SUM(K8:K10)</f>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="N11" s="3">
         <f>SUM(N8:N10)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O11" s="3">
         <f>SUM(O8:O10)</f>
@@ -1691,32 +1691,32 @@
       </c>
       <c r="P11" s="3">
         <f>SUM(P8:P10)</f>
-        <v>795</v>
+        <v>893</v>
       </c>
       <c r="Q11" s="3">
         <f>SUM(Q8:Q10)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S11" s="6">
         <v>7</v>
       </c>
       <c r="T11" s="6">
-        <v>7</v>
-      </c>
-      <c r="U11" s="6" t="s">
-        <v>41</v>
+        <v>6</v>
+      </c>
+      <c r="U11" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="V11" s="2">
-        <f>$N$11</f>
-        <v>15</v>
+        <f>$H$17</f>
+        <v>18</v>
       </c>
       <c r="W11" s="2">
-        <f>$P$11</f>
-        <v>795</v>
+        <f>$J$17</f>
+        <v>875</v>
       </c>
       <c r="X11" s="2">
-        <f>$Q$11</f>
-        <v>5</v>
+        <f>$K$17</f>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="16" thickTop="1">
@@ -1724,16 +1724,16 @@
         <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2">
         <v>4</v>
       </c>
       <c r="D12" s="2">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="E12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1750,18 +1750,18 @@
         <v>8</v>
       </c>
       <c r="T12" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U12" s="6" t="s">
         <v>40</v>
       </c>
       <c r="V12" s="2">
         <f>$N$5</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W12" s="2">
         <f>$P$5</f>
-        <v>782</v>
+        <v>888</v>
       </c>
       <c r="X12" s="2">
         <f>$Q$5</f>
@@ -1773,13 +1773,13 @@
         <v>30</v>
       </c>
       <c r="B13" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" s="2">
         <v>7</v>
       </c>
       <c r="D13" s="2">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="E13" s="2">
         <v>2</v>
@@ -1826,11 +1826,11 @@
       </c>
       <c r="V13" s="2">
         <f>$N$23</f>
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="W13" s="2">
         <f>$P$23</f>
-        <v>655</v>
+        <v>725</v>
       </c>
       <c r="X13" s="2">
         <f>$Q$23</f>
@@ -1842,16 +1842,16 @@
         <v>15</v>
       </c>
       <c r="B14" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" s="2">
         <v>3</v>
       </c>
       <c r="D14" s="2">
-        <v>332</v>
+        <v>361</v>
       </c>
       <c r="E14" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G14" s="2" t="str">
         <f t="shared" ref="G14:K16" si="6">A14</f>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="H14" s="2">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" si="6"/>
@@ -1867,11 +1867,11 @@
       </c>
       <c r="J14" s="2">
         <f t="shared" si="6"/>
-        <v>332</v>
+        <v>361</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="str">
@@ -1880,7 +1880,7 @@
       </c>
       <c r="N14" s="2">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O14" s="2">
         <f t="shared" si="7"/>
@@ -1888,11 +1888,11 @@
       </c>
       <c r="P14" s="2">
         <f t="shared" si="7"/>
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S14" s="6">
         <v>10</v>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="W14" s="2">
         <f>$J$11</f>
-        <v>637</v>
+        <v>664</v>
       </c>
       <c r="X14" s="2">
         <f>$K$11</f>
@@ -1921,16 +1921,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" s="2">
         <v>5</v>
       </c>
       <c r="D15" s="2">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="E15" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15" s="2" t="str">
         <f t="shared" si="6"/>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="H15" s="2">
         <f>B15</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I15" s="2">
         <f>C15</f>
@@ -1946,11 +1946,11 @@
       </c>
       <c r="J15" s="2">
         <f>D15</f>
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="K15" s="2">
         <f>E15</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="str">
@@ -1963,11 +1963,11 @@
       </c>
       <c r="O15" s="2">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="7"/>
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="7"/>
@@ -1982,10 +1982,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" s="2">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -2000,11 +2000,11 @@
       </c>
       <c r="I16" s="2">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="6"/>
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="6"/>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="N16" s="2">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="7"/>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="P16" s="2">
         <f t="shared" si="7"/>
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="7"/>
@@ -2037,35 +2037,35 @@
         <v>19</v>
       </c>
       <c r="B17" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" s="2">
         <v>3</v>
       </c>
       <c r="D17" s="2">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="E17" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H17" s="3">
         <f>SUM(H14:H16)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" ref="I17" si="8">SUM(I14:I16)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J17" s="3">
         <f>SUM(J14:J16)</f>
-        <v>809</v>
+        <v>875</v>
       </c>
       <c r="K17" s="3">
         <f>SUM(K14:K16)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="3" t="s">
@@ -2073,35 +2073,35 @@
       </c>
       <c r="N17" s="3">
         <f>SUM(N14:N16)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O17" s="3">
         <f>SUM(O14:O16)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P17" s="3">
         <f>SUM(P14:P16)</f>
-        <v>834</v>
+        <v>934</v>
       </c>
       <c r="Q17" s="3">
         <f>SUM(Q14:Q16)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="16" thickTop="1">
-      <c r="A18" s="12" t="s">
+      <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="2">
         <v>7</v>
       </c>
-      <c r="C18" s="13">
-        <v>4</v>
-      </c>
-      <c r="D18" s="13">
-        <v>295</v>
-      </c>
-      <c r="E18" s="13">
+      <c r="C18" s="2">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2">
+        <v>328</v>
+      </c>
+      <c r="E18" s="2">
         <v>3</v>
       </c>
       <c r="G18" s="2"/>
@@ -2121,13 +2121,13 @@
         <v>25</v>
       </c>
       <c r="B19" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" s="2">
         <v>4</v>
       </c>
       <c r="D19" s="2">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="E19" s="2">
         <v>3</v>
@@ -2169,16 +2169,16 @@
         <v>32</v>
       </c>
       <c r="B20" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" s="2">
         <v>4</v>
       </c>
       <c r="D20" s="2">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="E20" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20" s="2" t="str">
         <f t="shared" ref="G20:K22" si="9">A20</f>
@@ -2186,7 +2186,7 @@
       </c>
       <c r="H20" s="2">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" si="9"/>
@@ -2194,11 +2194,11 @@
       </c>
       <c r="J20" s="2">
         <f t="shared" si="9"/>
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2" t="str">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="N20" s="2">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="10"/>
@@ -2215,7 +2215,7 @@
       </c>
       <c r="P20" s="2">
         <f t="shared" si="10"/>
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="10"/>
@@ -2230,10 +2230,10 @@
         <v>9</v>
       </c>
       <c r="C21" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" s="2">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="E21" s="2">
         <v>3</v>
@@ -2248,11 +2248,11 @@
       </c>
       <c r="I21" s="2">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="9"/>
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="9"/>
@@ -2269,11 +2269,11 @@
       </c>
       <c r="O21" s="2">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" si="10"/>
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="10"/>
@@ -2281,19 +2281,19 @@
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="12" t="s">
+      <c r="A22" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="2">
         <v>2</v>
       </c>
-      <c r="C22" s="13">
-        <v>9</v>
-      </c>
-      <c r="D22" s="13">
-        <v>177</v>
-      </c>
-      <c r="E22" s="13">
+      <c r="C22" s="2">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2">
+        <v>190</v>
+      </c>
+      <c r="E22" s="2">
         <v>0</v>
       </c>
       <c r="G22" s="2" t="str">
@@ -2306,11 +2306,11 @@
       </c>
       <c r="I22" s="2">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="9"/>
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="9"/>
@@ -2323,7 +2323,7 @@
       </c>
       <c r="N22" s="2">
         <f>B25</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O22" s="2">
         <f>C25</f>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P22" s="2">
         <f>D25</f>
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="Q22" s="2">
         <f>E25</f>
@@ -2343,13 +2343,13 @@
         <v>26</v>
       </c>
       <c r="B23" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C23" s="2">
         <v>7</v>
       </c>
       <c r="D23" s="2">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="E23" s="2">
         <v>2</v>
@@ -2359,19 +2359,19 @@
       </c>
       <c r="H23" s="3">
         <f>SUM(H20:H22)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" ref="I23" si="11">SUM(I20:I22)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J23" s="3">
         <f>SUM(J20:J22)</f>
-        <v>696</v>
+        <v>746</v>
       </c>
       <c r="K23" s="3">
         <f>SUM(K20:K22)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="3" t="s">
@@ -2379,15 +2379,15 @@
       </c>
       <c r="N23" s="3">
         <f>SUM(N20:N22)</f>
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="O23" s="3">
         <f>SUM(O20:O22)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P23" s="3">
         <f>SUM(P20:P22)</f>
-        <v>655</v>
+        <v>725</v>
       </c>
       <c r="Q23" s="3">
         <f>SUM(Q20:Q22)</f>
@@ -2402,10 +2402,10 @@
         <v>3.5</v>
       </c>
       <c r="C24" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D24" s="2">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
@@ -2423,19 +2423,19 @@
       <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="12" t="s">
+      <c r="A25" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="13">
-        <v>6</v>
-      </c>
-      <c r="C25" s="13">
-        <v>5</v>
-      </c>
-      <c r="D25" s="13">
-        <v>238</v>
-      </c>
-      <c r="E25" s="13">
+      <c r="B25" s="2">
+        <v>7</v>
+      </c>
+      <c r="C25" s="2">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2">
+        <v>264</v>
+      </c>
+      <c r="E25" s="2">
         <v>3</v>
       </c>
       <c r="G25" s="4" t="s">
@@ -2478,10 +2478,10 @@
         <v>9</v>
       </c>
       <c r="C26" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" s="2">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="E26" s="2">
         <v>3</v>
@@ -2496,11 +2496,11 @@
       </c>
       <c r="I26" s="2">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="12"/>
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="12"/>
@@ -2517,11 +2517,11 @@
       </c>
       <c r="O26" s="2">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" si="13"/>
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="13"/>
@@ -2529,19 +2529,19 @@
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="12" t="s">
+      <c r="A27" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="2">
         <v>8</v>
       </c>
-      <c r="C27" s="13">
-        <v>3</v>
-      </c>
-      <c r="D27" s="13">
-        <v>292</v>
-      </c>
-      <c r="E27" s="13">
+      <c r="C27" s="2">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2">
+        <v>302</v>
+      </c>
+      <c r="E27" s="2">
         <v>5</v>
       </c>
       <c r="G27" s="2" t="str">
@@ -2554,11 +2554,11 @@
       </c>
       <c r="I27" s="2">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="12"/>
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="12"/>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="N27" s="2">
         <f t="shared" si="13"/>
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="O27" s="2">
         <f t="shared" si="13"/>
@@ -2579,11 +2579,11 @@
       </c>
       <c r="P27" s="2">
         <f t="shared" si="13"/>
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2591,13 +2591,13 @@
         <v>14</v>
       </c>
       <c r="B28" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28" s="2">
         <v>6</v>
       </c>
       <c r="D28" s="2">
-        <v>242</v>
+        <v>287</v>
       </c>
       <c r="E28" s="2">
         <v>3</v>
@@ -2608,7 +2608,7 @@
       </c>
       <c r="H28" s="2">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I28" s="2">
         <f t="shared" si="12"/>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="J28" s="2">
         <f t="shared" si="12"/>
-        <v>242</v>
+        <v>287</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="12"/>
@@ -2633,11 +2633,11 @@
       </c>
       <c r="O28" s="2">
         <f t="shared" si="13"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" si="13"/>
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" si="13"/>
@@ -2652,10 +2652,10 @@
         <v>7</v>
       </c>
       <c r="C29" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" s="2">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="E29" s="2">
         <v>3</v>
@@ -2665,15 +2665,15 @@
       </c>
       <c r="H29" s="3">
         <f>SUM(H26:H28)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" ref="I29" si="14">SUM(I26:I28)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J29" s="3">
         <f>SUM(J26:J28)</f>
-        <v>891</v>
+        <v>967</v>
       </c>
       <c r="K29" s="3">
         <f>SUM(K26:K28)</f>
@@ -2685,19 +2685,19 @@
       </c>
       <c r="N29" s="3">
         <f>SUM(N26:N28)</f>
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="O29" s="3">
         <f>SUM(O26:O28)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P29" s="3">
         <f>SUM(P26:P28)</f>
-        <v>724</v>
+        <v>781</v>
       </c>
       <c r="Q29" s="3">
         <f>SUM(Q26:Q28)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="16" thickTop="1">
@@ -2705,16 +2705,16 @@
         <v>7</v>
       </c>
       <c r="B30" s="2">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="C30" s="2">
         <v>3</v>
       </c>
       <c r="D30" s="2">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="E30" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2725,10 +2725,10 @@
         <v>3</v>
       </c>
       <c r="C31" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="E31" s="2">
         <v>1</v>
@@ -2739,13 +2739,13 @@
         <v>33</v>
       </c>
       <c r="B32" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C32" s="8">
         <v>7</v>
       </c>
       <c r="D32" s="8">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="E32" s="8">
         <v>2</v>
@@ -2757,7 +2757,7 @@
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
       <c r="K32" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2768,10 +2768,10 @@
         <v>2</v>
       </c>
       <c r="C33" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" s="8">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="E33" s="8">
         <v>2</v>
@@ -2788,30 +2788,30 @@
     <mergeCell ref="G32:J32"/>
   </mergeCells>
   <conditionalFormatting sqref="D32:D33">
-    <cfRule type="containsText" dxfId="7" priority="55" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="7" priority="61" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",D32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="56" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="6" priority="62" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",D32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5:S14">
-    <cfRule type="cellIs" dxfId="5" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="43" operator="greaterThan">
       <formula>T5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="44" operator="equal">
       <formula>T5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="45" operator="lessThan">
       <formula>T5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="57" operator="equal">
       <formula>T5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="52" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="58" operator="lessThan">
       <formula>T5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="59" operator="greaterThan">
       <formula>T5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Wins Fantasy League.xlsx
+++ b/Wins Fantasy League.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="25880" windowHeight="15980" tabRatio="500"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="28600" windowHeight="15980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -289,7 +289,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="98">
+  <cellStyleXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -360,6 +360,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -421,7 +423,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="98">
+  <cellStyles count="100">
     <cellStyle name="Bad" xfId="69" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -471,6 +473,7 @@
     <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -519,9 +522,270 @@
     <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="34">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1015,13 +1279,13 @@
         <v>23</v>
       </c>
       <c r="B2" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2">
         <v>3</v>
       </c>
       <c r="D2" s="2">
-        <v>380</v>
+        <v>423</v>
       </c>
       <c r="E2" s="2">
         <v>3</v>
@@ -1032,7 +1296,7 @@
       </c>
       <c r="H2" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" si="0"/>
@@ -1040,7 +1304,7 @@
       </c>
       <c r="J2" s="2">
         <f t="shared" si="0"/>
-        <v>380</v>
+        <v>423</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" si="0"/>
@@ -1053,7 +1317,7 @@
       </c>
       <c r="N2" s="2">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O2" s="2">
         <f t="shared" si="1"/>
@@ -1061,11 +1325,11 @@
       </c>
       <c r="P2" s="2">
         <f t="shared" si="1"/>
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="Q2" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="18">
@@ -1076,10 +1340,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="E3" s="2">
         <v>3</v>
@@ -1094,11 +1358,11 @@
       </c>
       <c r="I3" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="0"/>
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
@@ -1111,7 +1375,7 @@
       </c>
       <c r="N3" s="2">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" si="1"/>
@@ -1119,11 +1383,11 @@
       </c>
       <c r="P3" s="2">
         <f t="shared" si="1"/>
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S3" s="10" t="s">
         <v>47</v>
@@ -1142,10 +1406,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
@@ -1160,11 +1424,11 @@
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
@@ -1181,11 +1445,11 @@
       </c>
       <c r="O4" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" si="1"/>
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="1"/>
@@ -1215,31 +1479,31 @@
         <v>11</v>
       </c>
       <c r="B5" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
       </c>
       <c r="D5" s="2">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="E5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H5" s="3">
         <f>SUM(H2:H4)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I5" s="3">
         <f>SUM(I2:I4)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J5" s="3">
         <f>SUM(J2:J4)</f>
-        <v>885</v>
+        <v>980</v>
       </c>
       <c r="K5" s="3">
         <f>SUM(K2:K4)</f>
@@ -1251,19 +1515,19 @@
       </c>
       <c r="N5" s="3">
         <f t="shared" ref="N5:O5" si="2">SUM(N2:N4)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O5" s="3">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P5" s="3">
         <f>SUM(P2:P4)</f>
-        <v>888</v>
+        <v>968</v>
       </c>
       <c r="Q5" s="3">
         <f>SUM(Q2:Q4)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S5" s="6">
         <v>1</v>
@@ -1272,19 +1536,19 @@
         <v>2</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="V5" s="2">
-        <f>$N$17</f>
-        <v>24</v>
+        <f>$H$29</f>
+        <v>26</v>
       </c>
       <c r="W5" s="2">
-        <f>$P$17</f>
-        <v>934</v>
+        <f>$J$29</f>
+        <v>1058</v>
       </c>
       <c r="X5" s="2">
-        <f>$Q$17</f>
-        <v>9</v>
+        <f>$K$29</f>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="16" thickTop="1">
@@ -1292,16 +1556,16 @@
         <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
       </c>
       <c r="D6" s="2">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="E6" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1321,19 +1585,19 @@
         <v>1</v>
       </c>
       <c r="U6" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V6" s="2">
-        <f>$H$29</f>
-        <v>23</v>
+        <f>$N$17</f>
+        <v>26</v>
       </c>
       <c r="W6" s="2">
-        <f>$J$29</f>
-        <v>967</v>
+        <f>$P$17</f>
+        <v>1010</v>
       </c>
       <c r="X6" s="2">
-        <f>$K$29</f>
-        <v>11</v>
+        <f>$Q$17</f>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -1344,10 +1608,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -1394,11 +1658,11 @@
       </c>
       <c r="V7" s="2">
         <f>$H$5</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W7" s="2">
         <f>$J$5</f>
-        <v>885</v>
+        <v>980</v>
       </c>
       <c r="X7" s="2">
         <f>$K$5</f>
@@ -1413,10 +1677,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" s="2">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="E8" s="2">
         <v>4</v>
@@ -1431,11 +1695,11 @@
       </c>
       <c r="I8" s="2">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="3"/>
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="3"/>
@@ -1452,11 +1716,11 @@
       </c>
       <c r="O8" s="2">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="4"/>
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="4"/>
@@ -1473,15 +1737,15 @@
       </c>
       <c r="V8" s="2">
         <f>$H$23</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="W8" s="2">
         <f>$J$23</f>
-        <v>746</v>
+        <v>811</v>
       </c>
       <c r="X8" s="2">
         <f>$K$23</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1489,16 +1753,16 @@
         <v>21</v>
       </c>
       <c r="B9" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2">
         <v>9</v>
       </c>
       <c r="D9" s="2">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="E9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" s="2" t="str">
         <f t="shared" si="3"/>
@@ -1506,7 +1770,7 @@
       </c>
       <c r="H9" s="2">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="3"/>
@@ -1514,11 +1778,11 @@
       </c>
       <c r="J9" s="2">
         <f t="shared" si="3"/>
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2" t="str">
@@ -1531,11 +1795,11 @@
       </c>
       <c r="O9" s="2">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="4"/>
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="4"/>
@@ -1545,21 +1809,21 @@
         <v>5</v>
       </c>
       <c r="T9" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="U9" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="V9" s="2">
-        <f>$N$29</f>
-        <v>18.5</v>
+        <f>$N$5</f>
+        <v>19</v>
       </c>
       <c r="W9" s="2">
-        <f>$P$29</f>
-        <v>781</v>
+        <f>$P$5</f>
+        <v>968</v>
       </c>
       <c r="X9" s="2">
-        <f>$Q$29</f>
+        <f>$Q$5</f>
         <v>8</v>
       </c>
     </row>
@@ -1568,13 +1832,13 @@
         <v>18</v>
       </c>
       <c r="B10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="2">
         <v>11</v>
       </c>
       <c r="D10" s="2">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -1585,7 +1849,7 @@
       </c>
       <c r="H10" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="3"/>
@@ -1593,7 +1857,7 @@
       </c>
       <c r="J10" s="2">
         <f t="shared" si="3"/>
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="3"/>
@@ -1610,11 +1874,11 @@
       </c>
       <c r="O10" s="2">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="4"/>
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="4"/>
@@ -1626,20 +1890,20 @@
       <c r="T10" s="6">
         <v>7</v>
       </c>
-      <c r="U10" s="6" t="s">
-        <v>41</v>
+      <c r="U10" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="V10" s="2">
-        <f>$N$11</f>
-        <v>18</v>
+        <f>$H$17</f>
+        <v>19</v>
       </c>
       <c r="W10" s="2">
-        <f>$P$11</f>
-        <v>893</v>
+        <f>$J$17</f>
+        <v>919</v>
       </c>
       <c r="X10" s="2">
-        <f>$Q$11</f>
-        <v>7</v>
+        <f>$K$17</f>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="16" thickBot="1">
@@ -1650,10 +1914,10 @@
         <v>5</v>
       </c>
       <c r="C11" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="E11" s="2">
         <v>2</v>
@@ -1663,19 +1927,19 @@
       </c>
       <c r="H11" s="3">
         <f>SUM(H8:H10)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" ref="I11" si="5">SUM(I8:I10)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J11" s="3">
         <f>SUM(J8:J10)</f>
-        <v>664</v>
+        <v>737</v>
       </c>
       <c r="K11" s="3">
         <f>SUM(K8:K10)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="3" t="s">
@@ -1687,11 +1951,11 @@
       </c>
       <c r="O11" s="3">
         <f>SUM(O8:O10)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P11" s="3">
         <f>SUM(P8:P10)</f>
-        <v>893</v>
+        <v>954</v>
       </c>
       <c r="Q11" s="3">
         <f>SUM(Q8:Q10)</f>
@@ -1701,21 +1965,21 @@
         <v>7</v>
       </c>
       <c r="T11" s="6">
-        <v>6</v>
-      </c>
-      <c r="U11" s="9" t="s">
-        <v>37</v>
+        <v>5</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="V11" s="2">
-        <f>$H$17</f>
-        <v>18</v>
+        <f>$N$29</f>
+        <v>18.5</v>
       </c>
       <c r="W11" s="2">
-        <f>$J$17</f>
-        <v>875</v>
+        <f>$P$29</f>
+        <v>816</v>
       </c>
       <c r="X11" s="2">
-        <f>$K$17</f>
+        <f>$Q$29</f>
         <v>8</v>
       </c>
     </row>
@@ -1727,10 +1991,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" s="2">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="E12" s="2">
         <v>3</v>
@@ -1750,22 +2014,22 @@
         <v>8</v>
       </c>
       <c r="T12" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U12" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V12" s="2">
-        <f>$N$5</f>
-        <v>17</v>
+        <f>$N$11</f>
+        <v>18</v>
       </c>
       <c r="W12" s="2">
-        <f>$P$5</f>
-        <v>888</v>
+        <f>$P$11</f>
+        <v>954</v>
       </c>
       <c r="X12" s="2">
-        <f>$Q$5</f>
-        <v>6</v>
+        <f>$Q$11</f>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1776,10 +2040,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" s="2">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="E13" s="2">
         <v>2</v>
@@ -1826,15 +2090,15 @@
       </c>
       <c r="V13" s="2">
         <f>$N$23</f>
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="W13" s="2">
         <f>$P$23</f>
-        <v>725</v>
+        <v>813</v>
       </c>
       <c r="X13" s="2">
         <f>$Q$23</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1842,13 +2106,13 @@
         <v>15</v>
       </c>
       <c r="B14" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" s="2">
         <v>3</v>
       </c>
       <c r="D14" s="2">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="E14" s="2">
         <v>3</v>
@@ -1859,7 +2123,7 @@
       </c>
       <c r="H14" s="2">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" si="6"/>
@@ -1867,7 +2131,7 @@
       </c>
       <c r="J14" s="2">
         <f t="shared" si="6"/>
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="6"/>
@@ -1884,11 +2148,11 @@
       </c>
       <c r="O14" s="2">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="7"/>
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="7"/>
@@ -1905,15 +2169,15 @@
       </c>
       <c r="V14" s="2">
         <f>$H$11</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W14" s="2">
         <f>$J$11</f>
-        <v>664</v>
+        <v>737</v>
       </c>
       <c r="X14" s="2">
         <f>$K$11</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -1924,10 +2188,10 @@
         <v>7</v>
       </c>
       <c r="C15" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" s="2">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="E15" s="2">
         <v>4</v>
@@ -1942,11 +2206,11 @@
       </c>
       <c r="I15" s="2">
         <f>C15</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J15" s="2">
         <f>D15</f>
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="K15" s="2">
         <f>E15</f>
@@ -1959,7 +2223,7 @@
       </c>
       <c r="N15" s="2">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O15" s="2">
         <f t="shared" si="7"/>
@@ -1967,11 +2231,11 @@
       </c>
       <c r="P15" s="2">
         <f t="shared" si="7"/>
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -1982,10 +2246,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" s="2">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -2000,11 +2264,11 @@
       </c>
       <c r="I16" s="2">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="6"/>
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="6"/>
@@ -2017,7 +2281,7 @@
       </c>
       <c r="N16" s="2">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="7"/>
@@ -2025,7 +2289,7 @@
       </c>
       <c r="P16" s="2">
         <f t="shared" si="7"/>
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="7"/>
@@ -2040,10 +2304,10 @@
         <v>9</v>
       </c>
       <c r="C17" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" s="2">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="E17" s="2">
         <v>3</v>
@@ -2053,15 +2317,15 @@
       </c>
       <c r="H17" s="3">
         <f>SUM(H14:H16)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" ref="I17" si="8">SUM(I14:I16)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J17" s="3">
         <f>SUM(J14:J16)</f>
-        <v>875</v>
+        <v>919</v>
       </c>
       <c r="K17" s="3">
         <f>SUM(K14:K16)</f>
@@ -2073,19 +2337,19 @@
       </c>
       <c r="N17" s="3">
         <f>SUM(N14:N16)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O17" s="3">
         <f>SUM(O14:O16)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P17" s="3">
         <f>SUM(P14:P16)</f>
-        <v>934</v>
+        <v>1010</v>
       </c>
       <c r="Q17" s="3">
         <f>SUM(Q14:Q16)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="16" thickTop="1">
@@ -2093,16 +2357,16 @@
         <v>9</v>
       </c>
       <c r="B18" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" s="2">
         <v>5</v>
       </c>
       <c r="D18" s="2">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="E18" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -2121,13 +2385,13 @@
         <v>25</v>
       </c>
       <c r="B19" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" s="2">
         <v>4</v>
       </c>
       <c r="D19" s="2">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="E19" s="2">
         <v>3</v>
@@ -2169,16 +2433,16 @@
         <v>32</v>
       </c>
       <c r="B20" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" s="2">
         <v>4</v>
       </c>
       <c r="D20" s="2">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="E20" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G20" s="2" t="str">
         <f t="shared" ref="G20:K22" si="9">A20</f>
@@ -2186,7 +2450,7 @@
       </c>
       <c r="H20" s="2">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" si="9"/>
@@ -2194,11 +2458,11 @@
       </c>
       <c r="J20" s="2">
         <f t="shared" si="9"/>
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2" t="str">
@@ -2207,7 +2471,7 @@
       </c>
       <c r="N20" s="2">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="10"/>
@@ -2215,7 +2479,7 @@
       </c>
       <c r="P20" s="2">
         <f t="shared" si="10"/>
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="10"/>
@@ -2227,13 +2491,13 @@
         <v>34</v>
       </c>
       <c r="B21" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21" s="2">
         <v>3</v>
       </c>
       <c r="D21" s="2">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="E21" s="2">
         <v>3</v>
@@ -2244,7 +2508,7 @@
       </c>
       <c r="H21" s="2">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" si="9"/>
@@ -2252,7 +2516,7 @@
       </c>
       <c r="J21" s="2">
         <f t="shared" si="9"/>
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="9"/>
@@ -2265,7 +2529,7 @@
       </c>
       <c r="N21" s="2">
         <f t="shared" si="10"/>
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="O21" s="2">
         <f t="shared" si="10"/>
@@ -2273,11 +2537,11 @@
       </c>
       <c r="P21" s="2">
         <f t="shared" si="10"/>
-        <v>228</v>
+        <v>269</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -2288,10 +2552,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D22" s="2">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
@@ -2306,11 +2570,11 @@
       </c>
       <c r="I22" s="2">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="9"/>
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="9"/>
@@ -2327,11 +2591,11 @@
       </c>
       <c r="O22" s="2">
         <f>C25</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P22" s="2">
         <f>D25</f>
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="Q22" s="2">
         <f>E25</f>
@@ -2343,13 +2607,13 @@
         <v>26</v>
       </c>
       <c r="B23" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" s="2">
         <v>7</v>
       </c>
       <c r="D23" s="2">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="E23" s="2">
         <v>2</v>
@@ -2359,19 +2623,19 @@
       </c>
       <c r="H23" s="3">
         <f>SUM(H20:H22)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" ref="I23" si="11">SUM(I20:I22)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J23" s="3">
         <f>SUM(J20:J22)</f>
-        <v>746</v>
+        <v>811</v>
       </c>
       <c r="K23" s="3">
         <f>SUM(K20:K22)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="3" t="s">
@@ -2379,19 +2643,19 @@
       </c>
       <c r="N23" s="3">
         <f>SUM(N20:N22)</f>
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="O23" s="3">
         <f>SUM(O20:O22)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P23" s="3">
         <f>SUM(P20:P22)</f>
-        <v>725</v>
+        <v>813</v>
       </c>
       <c r="Q23" s="3">
         <f>SUM(Q20:Q22)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="16" thickTop="1">
@@ -2399,16 +2663,16 @@
         <v>28</v>
       </c>
       <c r="B24" s="2">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="C24" s="2">
         <v>8</v>
       </c>
       <c r="D24" s="2">
-        <v>228</v>
+        <v>269</v>
       </c>
       <c r="E24" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -2430,10 +2694,10 @@
         <v>7</v>
       </c>
       <c r="C25" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D25" s="2">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="E25" s="2">
         <v>3</v>
@@ -2475,16 +2739,16 @@
         <v>0</v>
       </c>
       <c r="B26" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C26" s="2">
         <v>3</v>
       </c>
       <c r="D26" s="2">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="E26" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G26" s="2" t="str">
         <f t="shared" ref="G26:K28" si="12">A26</f>
@@ -2492,7 +2756,7 @@
       </c>
       <c r="H26" s="2">
         <f t="shared" si="12"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I26" s="2">
         <f t="shared" si="12"/>
@@ -2500,11 +2764,11 @@
       </c>
       <c r="J26" s="2">
         <f t="shared" si="12"/>
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2" t="str">
@@ -2517,11 +2781,11 @@
       </c>
       <c r="O26" s="2">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" si="13"/>
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="13"/>
@@ -2533,16 +2797,16 @@
         <v>20</v>
       </c>
       <c r="B27" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" s="2">
         <v>4</v>
       </c>
       <c r="D27" s="2">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="E27" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G27" s="2" t="str">
         <f t="shared" si="12"/>
@@ -2550,7 +2814,7 @@
       </c>
       <c r="H27" s="2">
         <f t="shared" si="12"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I27" s="2">
         <f t="shared" si="12"/>
@@ -2558,11 +2822,11 @@
       </c>
       <c r="J27" s="2">
         <f t="shared" si="12"/>
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2" t="str">
@@ -2575,11 +2839,11 @@
       </c>
       <c r="O27" s="2">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" si="13"/>
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" si="13"/>
@@ -2591,16 +2855,16 @@
         <v>14</v>
       </c>
       <c r="B28" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28" s="2">
         <v>6</v>
       </c>
       <c r="D28" s="2">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="E28" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G28" s="2" t="str">
         <f t="shared" si="12"/>
@@ -2608,7 +2872,7 @@
       </c>
       <c r="H28" s="2">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I28" s="2">
         <f t="shared" si="12"/>
@@ -2616,11 +2880,11 @@
       </c>
       <c r="J28" s="2">
         <f t="shared" si="12"/>
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2" t="str">
@@ -2633,7 +2897,7 @@
       </c>
       <c r="O28" s="2">
         <f t="shared" si="13"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" si="13"/>
@@ -2652,10 +2916,10 @@
         <v>7</v>
       </c>
       <c r="C29" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D29" s="2">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="E29" s="2">
         <v>3</v>
@@ -2665,7 +2929,7 @@
       </c>
       <c r="H29" s="3">
         <f>SUM(H26:H28)</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" ref="I29" si="14">SUM(I26:I28)</f>
@@ -2673,11 +2937,11 @@
       </c>
       <c r="J29" s="3">
         <f>SUM(J26:J28)</f>
-        <v>967</v>
+        <v>1058</v>
       </c>
       <c r="K29" s="3">
         <f>SUM(K26:K28)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="3" t="s">
@@ -2689,11 +2953,11 @@
       </c>
       <c r="O29" s="3">
         <f>SUM(O26:O28)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="P29" s="3">
         <f>SUM(P26:P28)</f>
-        <v>781</v>
+        <v>816</v>
       </c>
       <c r="Q29" s="3">
         <f>SUM(Q26:Q28)</f>
@@ -2708,10 +2972,10 @@
         <v>8.5</v>
       </c>
       <c r="C30" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" s="2">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="E30" s="2">
         <v>4</v>
@@ -2725,7 +2989,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" s="2">
         <v>244</v>
@@ -2739,16 +3003,16 @@
         <v>33</v>
       </c>
       <c r="B32" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32" s="8">
         <v>7</v>
       </c>
       <c r="D32" s="8">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="E32" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>46</v>
@@ -2757,7 +3021,7 @@
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
       <c r="K32" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2768,10 +3032,10 @@
         <v>2</v>
       </c>
       <c r="C33" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D33" s="8">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="E33" s="8">
         <v>2</v>
@@ -2788,30 +3052,30 @@
     <mergeCell ref="G32:J32"/>
   </mergeCells>
   <conditionalFormatting sqref="D32:D33">
-    <cfRule type="containsText" dxfId="7" priority="61" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="33" priority="67" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",D32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="62" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="32" priority="68" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",D32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5:S14">
-    <cfRule type="cellIs" dxfId="5" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="49" operator="greaterThan">
       <formula>T5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="50" operator="equal">
       <formula>T5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="51" operator="lessThan">
       <formula>T5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="63" operator="equal">
       <formula>T5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="58" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="64" operator="lessThan">
       <formula>T5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="59" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="65" operator="greaterThan">
       <formula>T5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Wins Fantasy League.xlsx
+++ b/Wins Fantasy League.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="28600" windowHeight="15980" tabRatio="500"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="24700" windowHeight="15980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -289,7 +289,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="100">
+  <cellStyleXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -360,6 +360,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -423,7 +425,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="100">
+  <cellStyles count="102">
     <cellStyle name="Bad" xfId="69" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -474,6 +476,7 @@
     <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -523,6 +526,7 @@
     <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="34">
@@ -1196,7 +1200,7 @@
   <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1282,10 +1286,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="E2" s="2">
         <v>3</v>
@@ -1300,11 +1304,11 @@
       </c>
       <c r="I2" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" si="0"/>
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" si="0"/>
@@ -1317,7 +1321,7 @@
       </c>
       <c r="N2" s="2">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O2" s="2">
         <f t="shared" si="1"/>
@@ -1325,7 +1329,7 @@
       </c>
       <c r="P2" s="2">
         <f t="shared" si="1"/>
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="Q2" s="2">
         <f t="shared" si="1"/>
@@ -1340,10 +1344,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="E3" s="2">
         <v>3</v>
@@ -1358,11 +1362,11 @@
       </c>
       <c r="I3" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="0"/>
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
@@ -1375,7 +1379,7 @@
       </c>
       <c r="N3" s="2">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" si="1"/>
@@ -1383,11 +1387,11 @@
       </c>
       <c r="P3" s="2">
         <f t="shared" si="1"/>
-        <v>362</v>
+        <v>389</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S3" s="10" t="s">
         <v>47</v>
@@ -1406,7 +1410,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2">
         <v>276</v>
@@ -1424,7 +1428,7 @@
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
@@ -1445,11 +1449,11 @@
       </c>
       <c r="O4" s="2">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" si="1"/>
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="1"/>
@@ -1479,13 +1483,13 @@
         <v>11</v>
       </c>
       <c r="B5" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
       </c>
       <c r="D5" s="2">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
@@ -1499,11 +1503,11 @@
       </c>
       <c r="I5" s="3">
         <f>SUM(I2:I4)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J5" s="3">
         <f>SUM(J2:J4)</f>
-        <v>980</v>
+        <v>1008</v>
       </c>
       <c r="K5" s="3">
         <f>SUM(K2:K4)</f>
@@ -1515,40 +1519,40 @@
       </c>
       <c r="N5" s="3">
         <f t="shared" ref="N5:O5" si="2">SUM(N2:N4)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O5" s="3">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P5" s="3">
         <f>SUM(P2:P4)</f>
-        <v>968</v>
+        <v>1024</v>
       </c>
       <c r="Q5" s="3">
         <f>SUM(Q2:Q4)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S5" s="6">
         <v>1</v>
       </c>
       <c r="T5" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U5" s="6" t="s">
         <v>39</v>
       </c>
       <c r="V5" s="2">
         <f>$H$29</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="W5" s="2">
         <f>$J$29</f>
-        <v>1058</v>
+        <v>1147</v>
       </c>
       <c r="X5" s="2">
         <f>$K$29</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="16" thickTop="1">
@@ -1556,16 +1560,16 @@
         <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
       </c>
       <c r="D6" s="2">
-        <v>362</v>
+        <v>389</v>
       </c>
       <c r="E6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1582,18 +1586,18 @@
         <v>2</v>
       </c>
       <c r="T6" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U6" s="6" t="s">
         <v>42</v>
       </c>
       <c r="V6" s="2">
         <f>$N$17</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="W6" s="2">
         <f>$P$17</f>
-        <v>1010</v>
+        <v>1073</v>
       </c>
       <c r="X6" s="2">
         <f>$Q$17</f>
@@ -1608,10 +1612,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -1651,21 +1655,21 @@
         <v>3</v>
       </c>
       <c r="T7" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U7" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="V7" s="2">
-        <f>$H$5</f>
-        <v>22</v>
+        <f>$H$23</f>
+        <v>24</v>
       </c>
       <c r="W7" s="2">
-        <f>$J$5</f>
-        <v>980</v>
+        <f>$J$23</f>
+        <v>856</v>
       </c>
       <c r="X7" s="2">
-        <f>$K$5</f>
+        <f>$K$23</f>
         <v>9</v>
       </c>
     </row>
@@ -1677,10 +1681,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="E8" s="2">
         <v>4</v>
@@ -1695,11 +1699,11 @@
       </c>
       <c r="I8" s="2">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="3"/>
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="3"/>
@@ -1712,7 +1716,7 @@
       </c>
       <c r="N8" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="4"/>
@@ -1720,32 +1724,32 @@
       </c>
       <c r="P8" s="2">
         <f t="shared" si="4"/>
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S8" s="6">
         <v>4</v>
       </c>
       <c r="T8" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U8" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="V8" s="2">
-        <f>$H$23</f>
-        <v>21</v>
+        <f>$H$5</f>
+        <v>22</v>
       </c>
       <c r="W8" s="2">
-        <f>$J$23</f>
-        <v>811</v>
+        <f>$J$5</f>
+        <v>1008</v>
       </c>
       <c r="X8" s="2">
-        <f>$K$23</f>
-        <v>7</v>
+        <f>$K$5</f>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1753,13 +1757,13 @@
         <v>21</v>
       </c>
       <c r="B9" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2">
         <v>9</v>
       </c>
       <c r="D9" s="2">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
@@ -1770,7 +1774,7 @@
       </c>
       <c r="H9" s="2">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="3"/>
@@ -1778,7 +1782,7 @@
       </c>
       <c r="J9" s="2">
         <f t="shared" si="3"/>
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="3"/>
@@ -1795,11 +1799,11 @@
       </c>
       <c r="O9" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="4"/>
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="4"/>
@@ -1809,22 +1813,22 @@
         <v>5</v>
       </c>
       <c r="T9" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U9" s="6" t="s">
         <v>40</v>
       </c>
       <c r="V9" s="2">
         <f>$N$5</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="W9" s="2">
         <f>$P$5</f>
-        <v>968</v>
+        <v>1024</v>
       </c>
       <c r="X9" s="2">
         <f>$Q$5</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1835,10 +1839,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -1853,11 +1857,11 @@
       </c>
       <c r="I10" s="2">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="3"/>
@@ -1874,11 +1878,11 @@
       </c>
       <c r="O10" s="2">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="4"/>
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="4"/>
@@ -1890,20 +1894,20 @@
       <c r="T10" s="6">
         <v>7</v>
       </c>
-      <c r="U10" s="9" t="s">
-        <v>37</v>
+      <c r="U10" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="V10" s="2">
-        <f>$H$17</f>
-        <v>19</v>
+        <f>$N$29</f>
+        <v>20.5</v>
       </c>
       <c r="W10" s="2">
-        <f>$J$17</f>
-        <v>919</v>
+        <f>$P$29</f>
+        <v>890</v>
       </c>
       <c r="X10" s="2">
-        <f>$K$17</f>
-        <v>8</v>
+        <f>$Q$29</f>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="16" thickBot="1">
@@ -1911,31 +1915,31 @@
         <v>27</v>
       </c>
       <c r="B11" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" s="2">
         <v>8</v>
       </c>
       <c r="D11" s="2">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="E11" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H11" s="3">
         <f>SUM(H8:H10)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" ref="I11" si="5">SUM(I8:I10)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J11" s="3">
         <f>SUM(J8:J10)</f>
-        <v>737</v>
+        <v>781</v>
       </c>
       <c r="K11" s="3">
         <f>SUM(K8:K10)</f>
@@ -1947,40 +1951,40 @@
       </c>
       <c r="N11" s="3">
         <f>SUM(N8:N10)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O11" s="3">
         <f>SUM(O8:O10)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P11" s="3">
         <f>SUM(P8:P10)</f>
-        <v>954</v>
+        <v>1015</v>
       </c>
       <c r="Q11" s="3">
         <f>SUM(Q8:Q10)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S11" s="6">
         <v>7</v>
       </c>
       <c r="T11" s="6">
-        <v>5</v>
-      </c>
-      <c r="U11" s="6" t="s">
-        <v>44</v>
+        <v>6</v>
+      </c>
+      <c r="U11" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="V11" s="2">
-        <f>$N$29</f>
-        <v>18.5</v>
+        <f>$H$17</f>
+        <v>20</v>
       </c>
       <c r="W11" s="2">
-        <f>$P$29</f>
-        <v>816</v>
+        <f>$J$17</f>
+        <v>965</v>
       </c>
       <c r="X11" s="2">
-        <f>$Q$29</f>
-        <v>8</v>
+        <f>$K$17</f>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="16" thickTop="1">
@@ -1991,10 +1995,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" s="2">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="E12" s="2">
         <v>3</v>
@@ -2014,21 +2018,21 @@
         <v>8</v>
       </c>
       <c r="T12" s="6">
-        <v>6</v>
-      </c>
-      <c r="U12" s="6" t="s">
-        <v>41</v>
+        <v>9</v>
+      </c>
+      <c r="U12" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="V12" s="2">
-        <f>$N$11</f>
-        <v>18</v>
+        <f>$N$23</f>
+        <v>19.5</v>
       </c>
       <c r="W12" s="2">
-        <f>$P$11</f>
-        <v>954</v>
+        <f>$P$23</f>
+        <v>867</v>
       </c>
       <c r="X12" s="2">
-        <f>$Q$11</f>
+        <f>$Q$23</f>
         <v>7</v>
       </c>
     </row>
@@ -2040,10 +2044,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="E13" s="2">
         <v>2</v>
@@ -2083,22 +2087,22 @@
         <v>9</v>
       </c>
       <c r="T13" s="6">
-        <v>9</v>
-      </c>
-      <c r="U13" s="9" t="s">
-        <v>43</v>
+        <v>8</v>
+      </c>
+      <c r="U13" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="V13" s="2">
-        <f>$N$23</f>
-        <v>17.5</v>
+        <f>$N$11</f>
+        <v>19</v>
       </c>
       <c r="W13" s="2">
-        <f>$P$23</f>
-        <v>813</v>
+        <f>$P$11</f>
+        <v>1015</v>
       </c>
       <c r="X13" s="2">
-        <f>$Q$23</f>
-        <v>7</v>
+        <f>$Q$11</f>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -2106,16 +2110,16 @@
         <v>15</v>
       </c>
       <c r="B14" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" s="2">
         <v>3</v>
       </c>
       <c r="D14" s="2">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="E14" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14" s="2" t="str">
         <f t="shared" ref="G14:K16" si="6">A14</f>
@@ -2123,7 +2127,7 @@
       </c>
       <c r="H14" s="2">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" si="6"/>
@@ -2131,11 +2135,11 @@
       </c>
       <c r="J14" s="2">
         <f t="shared" si="6"/>
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="str">
@@ -2148,11 +2152,11 @@
       </c>
       <c r="O14" s="2">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="7"/>
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="7"/>
@@ -2169,11 +2173,11 @@
       </c>
       <c r="V14" s="2">
         <f>$H$11</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W14" s="2">
         <f>$J$11</f>
-        <v>737</v>
+        <v>781</v>
       </c>
       <c r="X14" s="2">
         <f>$K$11</f>
@@ -2188,10 +2192,10 @@
         <v>7</v>
       </c>
       <c r="C15" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15" s="2">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="E15" s="2">
         <v>4</v>
@@ -2206,11 +2210,11 @@
       </c>
       <c r="I15" s="2">
         <f>C15</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J15" s="2">
         <f>D15</f>
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="K15" s="2">
         <f>E15</f>
@@ -2223,7 +2227,7 @@
       </c>
       <c r="N15" s="2">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O15" s="2">
         <f t="shared" si="7"/>
@@ -2231,7 +2235,7 @@
       </c>
       <c r="P15" s="2">
         <f t="shared" si="7"/>
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="7"/>
@@ -2246,10 +2250,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -2264,11 +2268,11 @@
       </c>
       <c r="I16" s="2">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="6"/>
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="6"/>
@@ -2281,7 +2285,7 @@
       </c>
       <c r="N16" s="2">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="7"/>
@@ -2289,7 +2293,7 @@
       </c>
       <c r="P16" s="2">
         <f t="shared" si="7"/>
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="7"/>
@@ -2304,10 +2308,10 @@
         <v>9</v>
       </c>
       <c r="C17" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" s="2">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="E17" s="2">
         <v>3</v>
@@ -2317,19 +2321,19 @@
       </c>
       <c r="H17" s="3">
         <f>SUM(H14:H16)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" ref="I17" si="8">SUM(I14:I16)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J17" s="3">
         <f>SUM(J14:J16)</f>
-        <v>919</v>
+        <v>965</v>
       </c>
       <c r="K17" s="3">
         <f>SUM(K14:K16)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="3" t="s">
@@ -2337,15 +2341,15 @@
       </c>
       <c r="N17" s="3">
         <f>SUM(N14:N16)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O17" s="3">
         <f>SUM(O14:O16)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P17" s="3">
         <f>SUM(P14:P16)</f>
-        <v>1010</v>
+        <v>1073</v>
       </c>
       <c r="Q17" s="3">
         <f>SUM(Q14:Q16)</f>
@@ -2357,13 +2361,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" s="2">
         <v>5</v>
       </c>
       <c r="D18" s="2">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="E18" s="2">
         <v>4</v>
@@ -2385,13 +2389,13 @@
         <v>25</v>
       </c>
       <c r="B19" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19" s="2">
         <v>4</v>
       </c>
       <c r="D19" s="2">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="E19" s="2">
         <v>3</v>
@@ -2433,13 +2437,13 @@
         <v>32</v>
       </c>
       <c r="B20" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20" s="2">
         <v>4</v>
       </c>
       <c r="D20" s="2">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="E20" s="2">
         <v>4</v>
@@ -2450,7 +2454,7 @@
       </c>
       <c r="H20" s="2">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" si="9"/>
@@ -2458,7 +2462,7 @@
       </c>
       <c r="J20" s="2">
         <f t="shared" si="9"/>
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="9"/>
@@ -2475,11 +2479,11 @@
       </c>
       <c r="O20" s="2">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" si="10"/>
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="10"/>
@@ -2491,16 +2495,16 @@
         <v>34</v>
       </c>
       <c r="B21" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C21" s="2">
         <v>3</v>
       </c>
       <c r="D21" s="2">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="E21" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G21" s="2" t="str">
         <f t="shared" si="9"/>
@@ -2508,7 +2512,7 @@
       </c>
       <c r="H21" s="2">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" si="9"/>
@@ -2516,11 +2520,11 @@
       </c>
       <c r="J21" s="2">
         <f t="shared" si="9"/>
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2" t="str">
@@ -2529,7 +2533,7 @@
       </c>
       <c r="N21" s="2">
         <f t="shared" si="10"/>
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="O21" s="2">
         <f t="shared" si="10"/>
@@ -2537,7 +2541,7 @@
       </c>
       <c r="P21" s="2">
         <f t="shared" si="10"/>
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="10"/>
@@ -2549,16 +2553,16 @@
         <v>6</v>
       </c>
       <c r="B22" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" s="2">
         <v>11</v>
       </c>
       <c r="D22" s="2">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="E22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="2" t="str">
         <f t="shared" si="9"/>
@@ -2566,7 +2570,7 @@
       </c>
       <c r="H22" s="2">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I22" s="2">
         <f t="shared" si="9"/>
@@ -2574,11 +2578,11 @@
       </c>
       <c r="J22" s="2">
         <f t="shared" si="9"/>
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2" t="str">
@@ -2587,7 +2591,7 @@
       </c>
       <c r="N22" s="2">
         <f>B25</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O22" s="2">
         <f>C25</f>
@@ -2595,7 +2599,7 @@
       </c>
       <c r="P22" s="2">
         <f>D25</f>
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="Q22" s="2">
         <f>E25</f>
@@ -2610,10 +2614,10 @@
         <v>6</v>
       </c>
       <c r="C23" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="E23" s="2">
         <v>2</v>
@@ -2623,7 +2627,7 @@
       </c>
       <c r="H23" s="3">
         <f>SUM(H20:H22)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" ref="I23" si="11">SUM(I20:I22)</f>
@@ -2631,11 +2635,11 @@
       </c>
       <c r="J23" s="3">
         <f>SUM(J20:J22)</f>
-        <v>811</v>
+        <v>856</v>
       </c>
       <c r="K23" s="3">
         <f>SUM(K20:K22)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="3" t="s">
@@ -2643,15 +2647,15 @@
       </c>
       <c r="N23" s="3">
         <f>SUM(N20:N22)</f>
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="O23" s="3">
         <f>SUM(O20:O22)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P23" s="3">
         <f>SUM(P20:P22)</f>
-        <v>813</v>
+        <v>867</v>
       </c>
       <c r="Q23" s="3">
         <f>SUM(Q20:Q22)</f>
@@ -2663,13 +2667,13 @@
         <v>28</v>
       </c>
       <c r="B24" s="2">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C24" s="2">
         <v>8</v>
       </c>
       <c r="D24" s="2">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="E24" s="2">
         <v>2</v>
@@ -2691,13 +2695,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" s="2">
         <v>6</v>
       </c>
       <c r="D25" s="2">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="E25" s="2">
         <v>3</v>
@@ -2739,13 +2743,13 @@
         <v>0</v>
       </c>
       <c r="B26" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26" s="2">
         <v>3</v>
       </c>
       <c r="D26" s="2">
-        <v>401</v>
+        <v>442</v>
       </c>
       <c r="E26" s="2">
         <v>4</v>
@@ -2756,7 +2760,7 @@
       </c>
       <c r="H26" s="2">
         <f t="shared" si="12"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I26" s="2">
         <f t="shared" si="12"/>
@@ -2764,7 +2768,7 @@
       </c>
       <c r="J26" s="2">
         <f t="shared" si="12"/>
-        <v>401</v>
+        <v>442</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="12"/>
@@ -2777,7 +2781,7 @@
       </c>
       <c r="N26" s="2">
         <f t="shared" si="13"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" si="13"/>
@@ -2785,7 +2789,7 @@
       </c>
       <c r="P26" s="2">
         <f t="shared" si="13"/>
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="13"/>
@@ -2797,16 +2801,16 @@
         <v>20</v>
       </c>
       <c r="B27" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C27" s="2">
         <v>4</v>
       </c>
       <c r="D27" s="2">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="E27" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G27" s="2" t="str">
         <f t="shared" si="12"/>
@@ -2814,7 +2818,7 @@
       </c>
       <c r="H27" s="2">
         <f t="shared" si="12"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I27" s="2">
         <f t="shared" si="12"/>
@@ -2822,11 +2826,11 @@
       </c>
       <c r="J27" s="2">
         <f t="shared" si="12"/>
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2" t="str">
@@ -2835,7 +2839,7 @@
       </c>
       <c r="N27" s="2">
         <f t="shared" si="13"/>
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="O27" s="2">
         <f t="shared" si="13"/>
@@ -2843,11 +2847,11 @@
       </c>
       <c r="P27" s="2">
         <f t="shared" si="13"/>
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2858,10 +2862,10 @@
         <v>7</v>
       </c>
       <c r="C28" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D28" s="2">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="E28" s="2">
         <v>4</v>
@@ -2876,11 +2880,11 @@
       </c>
       <c r="I28" s="2">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="12"/>
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="12"/>
@@ -2897,11 +2901,11 @@
       </c>
       <c r="O28" s="2">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" si="13"/>
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" si="13"/>
@@ -2913,13 +2917,13 @@
         <v>17</v>
       </c>
       <c r="B29" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" s="2">
         <v>6</v>
       </c>
       <c r="D29" s="2">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="E29" s="2">
         <v>3</v>
@@ -2929,19 +2933,19 @@
       </c>
       <c r="H29" s="3">
         <f>SUM(H26:H28)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" ref="I29" si="14">SUM(I26:I28)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J29" s="3">
         <f>SUM(J26:J28)</f>
-        <v>1058</v>
+        <v>1147</v>
       </c>
       <c r="K29" s="3">
         <f>SUM(K26:K28)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="3" t="s">
@@ -2949,19 +2953,19 @@
       </c>
       <c r="N29" s="3">
         <f>SUM(N26:N28)</f>
-        <v>18.5</v>
+        <v>20.5</v>
       </c>
       <c r="O29" s="3">
         <f>SUM(O26:O28)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P29" s="3">
         <f>SUM(P26:P28)</f>
-        <v>816</v>
+        <v>890</v>
       </c>
       <c r="Q29" s="3">
         <f>SUM(Q26:Q28)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="16" thickTop="1">
@@ -2969,16 +2973,16 @@
         <v>7</v>
       </c>
       <c r="B30" s="2">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="C30" s="2">
         <v>4</v>
       </c>
       <c r="D30" s="2">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="E30" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2989,10 +2993,10 @@
         <v>3</v>
       </c>
       <c r="C31" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D31" s="2">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="E31" s="2">
         <v>1</v>
@@ -3006,10 +3010,10 @@
         <v>6</v>
       </c>
       <c r="C32" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D32" s="8">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="E32" s="8">
         <v>3</v>
@@ -3021,7 +3025,7 @@
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
       <c r="K32" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3032,10 +3036,10 @@
         <v>2</v>
       </c>
       <c r="C33" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D33" s="8">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="E33" s="8">
         <v>2</v>
@@ -3052,30 +3056,30 @@
     <mergeCell ref="G32:J32"/>
   </mergeCells>
   <conditionalFormatting sqref="D32:D33">
-    <cfRule type="containsText" dxfId="33" priority="67" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="33" priority="73" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",D32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="68" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="32" priority="74" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",D32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5:S14">
-    <cfRule type="cellIs" dxfId="31" priority="49" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="55" operator="greaterThan">
       <formula>T5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="56" operator="equal">
       <formula>T5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="51" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="57" operator="lessThan">
       <formula>T5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="69" operator="equal">
       <formula>T5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="64" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="70" operator="lessThan">
       <formula>T5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="65" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="71" operator="greaterThan">
       <formula>T5</formula>
     </cfRule>
   </conditionalFormatting>
